--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_6/forecast_point_GW2.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_6/forecast_point_GW2.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.675671955509134</v>
+        <v>4.629832034376692</v>
       </c>
       <c r="C2" t="n">
-        <v>4.910979511442662</v>
+        <v>4.824558177093695</v>
       </c>
       <c r="D2" t="n">
-        <v>4.828550676184141</v>
+        <v>4.7470791679886535</v>
       </c>
       <c r="E2" t="n">
-        <v>4.295072136102599</v>
+        <v>4.197444660803974</v>
       </c>
       <c r="F2" t="n">
-        <v>4.675671955509134</v>
+        <v>4.310443731607763</v>
       </c>
       <c r="G2" t="n">
-        <v>4.910979511442662</v>
+        <v>4.732463776289083</v>
       </c>
       <c r="H2" t="n">
-        <v>4.828550676184141</v>
+        <v>4.646627073156461</v>
       </c>
       <c r="I2" t="n">
-        <v>4.295072136102599</v>
+        <v>4.674891228461648</v>
       </c>
       <c r="J2" t="n">
-        <v>4.675671955509134</v>
+        <v>4.478741941975028</v>
       </c>
       <c r="K2" t="n">
-        <v>4.910979511442662</v>
+        <v>4.098944625694553</v>
       </c>
       <c r="L2" t="n">
-        <v>4.828550676184141</v>
+        <v>4.660716300360809</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>3.9320533503916044</v>
+        <v>3.97137388389552</v>
       </c>
       <c r="C10" t="n">
-        <v>3.710930048701441</v>
+        <v>3.7121826328166203</v>
       </c>
       <c r="D10" t="n">
-        <v>4.271534796633817</v>
+        <v>4.266796235162331</v>
       </c>
       <c r="E10" t="n">
-        <v>4.22170522481032</v>
+        <v>4.198274490327109</v>
       </c>
       <c r="F10" t="n">
-        <v>3.9320533503916044</v>
+        <v>4.1344321202505405</v>
       </c>
       <c r="G10" t="n">
-        <v>3.710930048701441</v>
+        <v>3.6386543912274996</v>
       </c>
       <c r="H10" t="n">
-        <v>4.271534796633817</v>
+        <v>3.720310016196945</v>
       </c>
       <c r="I10" t="n">
-        <v>4.22170522481032</v>
+        <v>4.157190461617176</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9320533503916044</v>
+        <v>3.7845247228686216</v>
       </c>
       <c r="K10" t="n">
-        <v>3.710930048701441</v>
+        <v>3.827143245048253</v>
       </c>
       <c r="L10" t="n">
-        <v>4.271534796633817</v>
+        <v>3.786633093935598</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.4970245732522227</v>
+        <v>2.521994818984745</v>
       </c>
       <c r="C13" t="n">
-        <v>2.5688613113937713</v>
+        <v>2.6101764545346176</v>
       </c>
       <c r="D13" t="n">
-        <v>2.498792316514381</v>
+        <v>2.5120935482783056</v>
       </c>
       <c r="E13" t="n">
-        <v>2.7323203915470615</v>
+        <v>2.709656863965788</v>
       </c>
       <c r="F13" t="n">
-        <v>2.4970245732522227</v>
+        <v>2.7162297149683163</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5688613113937713</v>
+        <v>2.3888334914226204</v>
       </c>
       <c r="H13" t="n">
-        <v>2.498792316514381</v>
+        <v>2.72449075435234</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7323203915470615</v>
+        <v>2.758043593679463</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4970245732522227</v>
+        <v>2.708018621409494</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5688613113937713</v>
+        <v>2.4462385564485523</v>
       </c>
       <c r="L13" t="n">
-        <v>2.498792316514381</v>
+        <v>2.8117155041599022</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3.549607693951555</v>
+        <v>3.4793184326851874</v>
       </c>
       <c r="C19" t="n">
-        <v>3.5793474451137537</v>
+        <v>3.5046864291974367</v>
       </c>
       <c r="D19" t="n">
-        <v>3.637623593277109</v>
+        <v>3.5184999470500866</v>
       </c>
       <c r="E19" t="n">
-        <v>3.7810531511222525</v>
+        <v>3.641524418661776</v>
       </c>
       <c r="F19" t="n">
-        <v>3.549607693951555</v>
+        <v>3.922696739119021</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5793474451137537</v>
+        <v>3.4128104334492586</v>
       </c>
       <c r="H19" t="n">
-        <v>3.637623593277109</v>
+        <v>3.332723148283678</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7810531511222525</v>
+        <v>3.7894820545821677</v>
       </c>
       <c r="J19" t="n">
-        <v>3.549607693951555</v>
+        <v>3.8597009900347796</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5793474451137537</v>
+        <v>3.7803121008097516</v>
       </c>
       <c r="L19" t="n">
-        <v>3.637623593277109</v>
+        <v>3.847817674038497</v>
       </c>
     </row>
     <row r="20">
@@ -1056,34 +1056,34 @@
         <v>1.7955867112653805</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0715610365725836</v>
+        <v>2.0591590739832974</v>
       </c>
       <c r="D26" t="n">
-        <v>2.0137464184571243</v>
+        <v>2.035504888859513</v>
       </c>
       <c r="E26" t="n">
-        <v>1.842891747729951</v>
+        <v>1.8756128609488192</v>
       </c>
       <c r="F26" t="n">
-        <v>1.7955867112653805</v>
+        <v>2.028147641762517</v>
       </c>
       <c r="G26" t="n">
-        <v>2.0715610365725836</v>
+        <v>1.8956785389643531</v>
       </c>
       <c r="H26" t="n">
-        <v>2.0137464184571243</v>
+        <v>1.8882361658693005</v>
       </c>
       <c r="I26" t="n">
-        <v>1.842891747729951</v>
+        <v>2.0579004188462235</v>
       </c>
       <c r="J26" t="n">
-        <v>1.7955867112653805</v>
+        <v>1.8023153559990166</v>
       </c>
       <c r="K26" t="n">
-        <v>2.0715610365725836</v>
+        <v>1.8427614030709623</v>
       </c>
       <c r="L26" t="n">
-        <v>2.0137464184571243</v>
+        <v>1.8745685327050277</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2.2904202609533884</v>
+        <v>2.313791896269239</v>
       </c>
       <c r="C31" t="n">
-        <v>2.2502182303928784</v>
+        <v>2.2856435784145708</v>
       </c>
       <c r="D31" t="n">
-        <v>2.258420727423204</v>
+        <v>2.296820318810834</v>
       </c>
       <c r="E31" t="n">
-        <v>2.103914604674302</v>
+        <v>2.115764663028778</v>
       </c>
       <c r="F31" t="n">
-        <v>2.2904202609533884</v>
+        <v>2.3209376403200865</v>
       </c>
       <c r="G31" t="n">
-        <v>2.2502182303928784</v>
+        <v>2.2787131854268314</v>
       </c>
       <c r="H31" t="n">
-        <v>2.258420727423204</v>
+        <v>2.3588186071637014</v>
       </c>
       <c r="I31" t="n">
-        <v>2.103914604674302</v>
+        <v>2.273199055983814</v>
       </c>
       <c r="J31" t="n">
-        <v>2.2904202609533884</v>
+        <v>2.052210835689144</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2502182303928784</v>
+        <v>2.2718246932436585</v>
       </c>
       <c r="L31" t="n">
-        <v>2.258420727423204</v>
+        <v>2.004052287881489</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>2.0388521289489714</v>
+        <v>1.9379188552386262</v>
       </c>
       <c r="C32" t="n">
-        <v>2.2150714556159437</v>
+        <v>2.104394641920546</v>
       </c>
       <c r="D32" t="n">
-        <v>1.9997539648993419</v>
+        <v>1.899816681406484</v>
       </c>
       <c r="E32" t="n">
-        <v>2.2266937084381633</v>
+        <v>2.1094993002320113</v>
       </c>
       <c r="F32" t="n">
-        <v>2.0388521289489714</v>
+        <v>2.126261824558041</v>
       </c>
       <c r="G32" t="n">
-        <v>2.2150714556159437</v>
+        <v>2.183656211325262</v>
       </c>
       <c r="H32" t="n">
-        <v>1.9997539648993419</v>
+        <v>2.148588229290591</v>
       </c>
       <c r="I32" t="n">
-        <v>2.2266937084381633</v>
+        <v>1.8552343164339438</v>
       </c>
       <c r="J32" t="n">
-        <v>2.0388521289489714</v>
+        <v>2.1419731176691275</v>
       </c>
       <c r="K32" t="n">
-        <v>2.2150714556159437</v>
+        <v>2.1159150524431567</v>
       </c>
       <c r="L32" t="n">
-        <v>1.9997539648993419</v>
+        <v>2.0271353980040954</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.6430039017296532</v>
+        <v>1.6597692476656702</v>
       </c>
       <c r="C34" t="n">
-        <v>1.7704798390606467</v>
+        <v>1.7946443728538413</v>
       </c>
       <c r="D34" t="n">
-        <v>1.7874679615234859</v>
+        <v>1.7903016142129613</v>
       </c>
       <c r="E34" t="n">
-        <v>1.780298868065325</v>
+        <v>1.8089049938235782</v>
       </c>
       <c r="F34" t="n">
-        <v>1.6430039017296532</v>
+        <v>1.6663111316821408</v>
       </c>
       <c r="G34" t="n">
-        <v>1.7704798390606467</v>
+        <v>1.827899053985116</v>
       </c>
       <c r="H34" t="n">
-        <v>1.7874679615234859</v>
+        <v>1.8222712858953354</v>
       </c>
       <c r="I34" t="n">
-        <v>1.780298868065325</v>
+        <v>1.7892192084175966</v>
       </c>
       <c r="J34" t="n">
-        <v>1.6430039017296532</v>
+        <v>1.857732937608088</v>
       </c>
       <c r="K34" t="n">
-        <v>1.7704798390606467</v>
+        <v>1.7245737576877889</v>
       </c>
       <c r="L34" t="n">
-        <v>1.7874679615234859</v>
+        <v>1.8001025370741803</v>
       </c>
     </row>
     <row r="35">
@@ -1512,34 +1512,34 @@
         <v>2.2671028378510156</v>
       </c>
       <c r="C38" t="n">
-        <v>2.3050311788081665</v>
+        <v>2.3075191572173295</v>
       </c>
       <c r="D38" t="n">
-        <v>2.5216005104792094</v>
+        <v>2.533331429904294</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4896874781839418</v>
+        <v>2.4951788476565917</v>
       </c>
       <c r="F38" t="n">
-        <v>2.2671028378510156</v>
+        <v>2.217343087107456</v>
       </c>
       <c r="G38" t="n">
-        <v>2.3050311788081665</v>
+        <v>2.50423028304295</v>
       </c>
       <c r="H38" t="n">
-        <v>2.5216005104792094</v>
+        <v>2.413751098258364</v>
       </c>
       <c r="I38" t="n">
-        <v>2.4896874781839418</v>
+        <v>2.262150128575278</v>
       </c>
       <c r="J38" t="n">
-        <v>2.2671028378510156</v>
+        <v>2.5057452418353328</v>
       </c>
       <c r="K38" t="n">
-        <v>2.3050311788081665</v>
+        <v>2.511823461680768</v>
       </c>
       <c r="L38" t="n">
-        <v>2.5216005104792094</v>
+        <v>2.5583674397188347</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>4.927250972075617</v>
+        <v>4.879413583997213</v>
       </c>
       <c r="C45" t="n">
-        <v>4.309750535671852</v>
+        <v>4.254848642288161</v>
       </c>
       <c r="D45" t="n">
-        <v>4.4287784771747125</v>
+        <v>4.444479781899443</v>
       </c>
       <c r="E45" t="n">
-        <v>4.6857128360375295</v>
+        <v>4.661315341485078</v>
       </c>
       <c r="F45" t="n">
-        <v>4.927250972075617</v>
+        <v>4.36663448483201</v>
       </c>
       <c r="G45" t="n">
-        <v>4.309750535671852</v>
+        <v>4.649091610439223</v>
       </c>
       <c r="H45" t="n">
-        <v>4.4287784771747125</v>
+        <v>4.826280220077485</v>
       </c>
       <c r="I45" t="n">
-        <v>4.6857128360375295</v>
+        <v>5.008061021553564</v>
       </c>
       <c r="J45" t="n">
-        <v>4.927250972075617</v>
+        <v>4.852701466513327</v>
       </c>
       <c r="K45" t="n">
-        <v>4.309750535671852</v>
+        <v>4.912463795436012</v>
       </c>
       <c r="L45" t="n">
-        <v>4.4287784771747125</v>
+        <v>4.357095142039213</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.0824980541614846</v>
+        <v>1.0716730736198699</v>
       </c>
       <c r="C51" t="n">
-        <v>1.2277688310037163</v>
+        <v>1.2236462724061443</v>
       </c>
       <c r="D51" t="n">
-        <v>1.2122764191819453</v>
+        <v>1.2176917897626698</v>
       </c>
       <c r="E51" t="n">
-        <v>1.1366048319851432</v>
+        <v>1.122762367230508</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0824980541614846</v>
+        <v>1.1665998254687409</v>
       </c>
       <c r="G51" t="n">
-        <v>1.2277688310037163</v>
+        <v>1.2110618878240826</v>
       </c>
       <c r="H51" t="n">
-        <v>1.2122764191819453</v>
+        <v>1.093328946420445</v>
       </c>
       <c r="I51" t="n">
-        <v>1.1366048319851432</v>
+        <v>1.2364949355442765</v>
       </c>
       <c r="J51" t="n">
-        <v>1.0824980541614846</v>
+        <v>1.213999576890682</v>
       </c>
       <c r="K51" t="n">
-        <v>1.2277688310037163</v>
+        <v>1.2566762721049562</v>
       </c>
       <c r="L51" t="n">
-        <v>1.2122764191819453</v>
+        <v>1.2103296869504871</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9517016799537135</v>
+        <v>0.9614129215858942</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9194171846761218</v>
+        <v>0.9226089061907516</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8917697979611684</v>
+        <v>0.8948470838520488</v>
       </c>
       <c r="E59" t="n">
-        <v>0.834625764964516</v>
+        <v>0.8382762908623156</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9517016799537135</v>
+        <v>0.8527454253949724</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9194171846761218</v>
+        <v>0.9315880686009393</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8917697979611684</v>
+        <v>0.9287633624748111</v>
       </c>
       <c r="I59" t="n">
-        <v>0.834625764964516</v>
+        <v>0.8925004564992877</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9517016799537135</v>
+        <v>0.8168164178676602</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9194171846761218</v>
+        <v>0.9459733066468679</v>
       </c>
       <c r="L59" t="n">
-        <v>0.8917697979611684</v>
+        <v>0.9265159004267697</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>2.7648670355025136</v>
       </c>
       <c r="C62" t="n">
-        <v>2.7803684031514924</v>
+        <v>2.770920383792682</v>
       </c>
       <c r="D62" t="n">
-        <v>2.7201083425463084</v>
+        <v>2.6999848221375577</v>
       </c>
       <c r="E62" t="n">
-        <v>2.8094758743262327</v>
+        <v>2.8187480752703147</v>
       </c>
       <c r="F62" t="n">
-        <v>2.7648670355025136</v>
+        <v>3.0963128715759525</v>
       </c>
       <c r="G62" t="n">
-        <v>2.7803684031514924</v>
+        <v>2.9579150120927613</v>
       </c>
       <c r="H62" t="n">
-        <v>2.7201083425463084</v>
+        <v>3.0944202591250556</v>
       </c>
       <c r="I62" t="n">
-        <v>2.8094758743262327</v>
+        <v>2.8203184090168705</v>
       </c>
       <c r="J62" t="n">
-        <v>2.7648670355025136</v>
+        <v>3.049681653053596</v>
       </c>
       <c r="K62" t="n">
-        <v>2.7803684031514924</v>
+        <v>2.839299799042026</v>
       </c>
       <c r="L62" t="n">
-        <v>2.7201083425463084</v>
+        <v>2.7101025393942026</v>
       </c>
     </row>
     <row r="63">
@@ -2538,34 +2538,34 @@
         <v>1.4972594236406294</v>
       </c>
       <c r="C65" t="n">
-        <v>1.5446836425347754</v>
+        <v>1.5287027963978874</v>
       </c>
       <c r="D65" t="n">
-        <v>1.4578740109934458</v>
+        <v>1.4422901090867368</v>
       </c>
       <c r="E65" t="n">
-        <v>1.4856083780236649</v>
+        <v>1.5054561006685871</v>
       </c>
       <c r="F65" t="n">
-        <v>1.4972594236406294</v>
+        <v>1.35170389277817</v>
       </c>
       <c r="G65" t="n">
-        <v>1.5446836425347754</v>
+        <v>1.388093004780552</v>
       </c>
       <c r="H65" t="n">
-        <v>1.4578740109934458</v>
+        <v>1.3249303150165237</v>
       </c>
       <c r="I65" t="n">
-        <v>1.4856083780236649</v>
+        <v>1.3546632880558076</v>
       </c>
       <c r="J65" t="n">
-        <v>1.4972594236406294</v>
+        <v>1.5137430147731108</v>
       </c>
       <c r="K65" t="n">
-        <v>1.5446836425347754</v>
+        <v>1.4460822835287255</v>
       </c>
       <c r="L65" t="n">
-        <v>1.4578740109934458</v>
+        <v>1.4909456799312193</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6.502362952783955</v>
+        <v>6.438614296384111</v>
       </c>
       <c r="C69" t="n">
-        <v>6.8296004383841815</v>
+        <v>6.709416026785595</v>
       </c>
       <c r="D69" t="n">
-        <v>6.7149683149747075</v>
+        <v>6.601667527058313</v>
       </c>
       <c r="E69" t="n">
-        <v>5.973070438447191</v>
+        <v>5.837301872004535</v>
       </c>
       <c r="F69" t="n">
-        <v>6.502362952783955</v>
+        <v>5.994447407167204</v>
       </c>
       <c r="G69" t="n">
-        <v>6.8296004383841815</v>
+        <v>6.581342195762191</v>
       </c>
       <c r="H69" t="n">
-        <v>6.7149683149747075</v>
+        <v>6.461970819038243</v>
       </c>
       <c r="I69" t="n">
-        <v>5.973070438447191</v>
+        <v>6.501277211380769</v>
       </c>
       <c r="J69" t="n">
-        <v>6.502362952783955</v>
+        <v>6.228496343560728</v>
       </c>
       <c r="K69" t="n">
-        <v>6.8296004383841815</v>
+        <v>5.700319854181671</v>
       </c>
       <c r="L69" t="n">
-        <v>6.7149683149747075</v>
+        <v>6.481564423952927</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>8.59212125197326</v>
+        <v>8.507884769110778</v>
       </c>
       <c r="C76" t="n">
-        <v>9.024527774784202</v>
+        <v>8.865717962943418</v>
       </c>
       <c r="D76" t="n">
-        <v>8.873054670182487</v>
+        <v>8.723340771590443</v>
       </c>
       <c r="E76" t="n">
-        <v>7.892722357453511</v>
+        <v>7.713319885836261</v>
       </c>
       <c r="F76" t="n">
-        <v>8.59212125197326</v>
+        <v>7.920969551369894</v>
       </c>
       <c r="G76" t="n">
-        <v>9.024527774784202</v>
+        <v>8.69648319500622</v>
       </c>
       <c r="H76" t="n">
-        <v>8.873054670182487</v>
+        <v>8.538747714800827</v>
       </c>
       <c r="I76" t="n">
-        <v>7.892722357453511</v>
+        <v>8.590686570173398</v>
       </c>
       <c r="J76" t="n">
-        <v>8.59212125197326</v>
+        <v>8.230238174944276</v>
       </c>
       <c r="K76" t="n">
-        <v>9.024527774784202</v>
+        <v>7.532313978442226</v>
       </c>
       <c r="L76" t="n">
-        <v>8.873054670182487</v>
+        <v>8.564638399527698</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>5.331799224120331</v>
+        <v>5.279526682707386</v>
       </c>
       <c r="C79" t="n">
-        <v>5.600126997346119</v>
+        <v>5.5015783378563645</v>
       </c>
       <c r="D79" t="n">
-        <v>5.5061310959957925</v>
+        <v>5.413226861413469</v>
       </c>
       <c r="E79" t="n">
-        <v>4.897790627896831</v>
+        <v>4.786463293130176</v>
       </c>
       <c r="F79" t="n">
-        <v>5.331799224120331</v>
+        <v>4.915319287256981</v>
       </c>
       <c r="G79" t="n">
-        <v>5.600126997346119</v>
+        <v>5.396560522357717</v>
       </c>
       <c r="H79" t="n">
-        <v>5.5061310959957925</v>
+        <v>5.298678534160423</v>
       </c>
       <c r="I79" t="n">
-        <v>4.897790627896831</v>
+        <v>5.3309089392787845</v>
       </c>
       <c r="J79" t="n">
-        <v>5.331799224120331</v>
+        <v>5.107234433570815</v>
       </c>
       <c r="K79" t="n">
-        <v>5.600126997346119</v>
+        <v>4.674140954059009</v>
       </c>
       <c r="L79" t="n">
-        <v>5.5061310959957925</v>
+        <v>5.314744873157557</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>3.4142636899273353</v>
+        <v>3.483238713966272</v>
       </c>
       <c r="C90" t="n">
-        <v>3.2222588536037433</v>
+        <v>3.255905547542315</v>
       </c>
       <c r="D90" t="n">
-        <v>3.7090407623679646</v>
+        <v>3.742349691926908</v>
       </c>
       <c r="E90" t="n">
-        <v>3.6657729624169164</v>
+        <v>3.6822501895037205</v>
       </c>
       <c r="F90" t="n">
-        <v>3.4142636899273353</v>
+        <v>3.626254903856141</v>
       </c>
       <c r="G90" t="n">
-        <v>3.2222588536037433</v>
+        <v>3.191414914033423</v>
       </c>
       <c r="H90" t="n">
-        <v>3.7090407623679646</v>
+        <v>3.2630339663870864</v>
       </c>
       <c r="I90" t="n">
-        <v>3.6657729624169164</v>
+        <v>3.6462159395157117</v>
       </c>
       <c r="J90" t="n">
-        <v>3.4142636899273353</v>
+        <v>3.31935582346325</v>
       </c>
       <c r="K90" t="n">
-        <v>3.2222588536037433</v>
+        <v>3.356735957071448</v>
       </c>
       <c r="L90" t="n">
-        <v>3.7090407623679646</v>
+        <v>3.3212050474191406</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3.2319158028153097</v>
+        <v>3.297207031155013</v>
       </c>
       <c r="C93" t="n">
-        <v>3.0501654984782736</v>
+        <v>3.0820152007064205</v>
       </c>
       <c r="D93" t="n">
-        <v>3.5109495170357774</v>
+        <v>3.542479494094667</v>
       </c>
       <c r="E93" t="n">
-        <v>3.4699925497027064</v>
+        <v>3.485589766392654</v>
       </c>
       <c r="F93" t="n">
-        <v>3.2319158028153097</v>
+        <v>3.4325850587886486</v>
       </c>
       <c r="G93" t="n">
-        <v>3.0501654984782736</v>
+        <v>3.0209688620226633</v>
       </c>
       <c r="H93" t="n">
-        <v>3.5109495170357774</v>
+        <v>3.088762907270934</v>
       </c>
       <c r="I93" t="n">
-        <v>3.4699925497027064</v>
+        <v>3.4514800219337185</v>
       </c>
       <c r="J93" t="n">
-        <v>3.2319158028153097</v>
+        <v>3.1420767448826483</v>
       </c>
       <c r="K93" t="n">
-        <v>3.0501654984782736</v>
+        <v>3.1774604924461687</v>
       </c>
       <c r="L93" t="n">
-        <v>3.5109495170357774</v>
+        <v>3.143827206085636</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3.243989633948629</v>
+        <v>3.3095247780688037</v>
       </c>
       <c r="C94" t="n">
-        <v>3.0615603445708683</v>
+        <v>3.093529031311549</v>
       </c>
       <c r="D94" t="n">
-        <v>3.524065765778821</v>
+        <v>3.5557135329169935</v>
       </c>
       <c r="E94" t="n">
-        <v>3.482955790899303</v>
+        <v>3.498611275864773</v>
       </c>
       <c r="F94" t="n">
-        <v>3.243989633948629</v>
+        <v>3.44540855261682</v>
       </c>
       <c r="G94" t="n">
-        <v>3.0615603445708683</v>
+        <v>3.0322546349587363</v>
       </c>
       <c r="H94" t="n">
-        <v>3.524065765778821</v>
+        <v>3.1003019460419208</v>
       </c>
       <c r="I94" t="n">
-        <v>3.482955790899303</v>
+        <v>3.464374103799513</v>
       </c>
       <c r="J94" t="n">
-        <v>3.243989633948629</v>
+        <v>3.1538149541492997</v>
       </c>
       <c r="K94" t="n">
-        <v>3.0615603445708683</v>
+        <v>3.189330888755742</v>
       </c>
       <c r="L94" t="n">
-        <v>3.524065765778821</v>
+        <v>3.155571954746956</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3.6492882237431505</v>
+        <v>3.723011218162204</v>
       </c>
       <c r="C97" t="n">
-        <v>3.4440665268471125</v>
+        <v>3.4800293273537513</v>
       </c>
       <c r="D97" t="n">
-        <v>3.9643565947833395</v>
+        <v>3.999958380533967</v>
       </c>
       <c r="E97" t="n">
-        <v>3.918110409026083</v>
+        <v>3.9357218638604614</v>
       </c>
       <c r="F97" t="n">
-        <v>3.6492882237431505</v>
+        <v>3.875872082163256</v>
       </c>
       <c r="G97" t="n">
-        <v>3.4440665268471125</v>
+        <v>3.411099411337</v>
       </c>
       <c r="H97" t="n">
-        <v>3.9643565947833395</v>
+        <v>3.4876484386194915</v>
       </c>
       <c r="I97" t="n">
-        <v>3.918110409026083</v>
+        <v>3.8972071573014446</v>
       </c>
       <c r="J97" t="n">
-        <v>3.6492882237431505</v>
+        <v>3.547847271642773</v>
       </c>
       <c r="K97" t="n">
-        <v>3.4440665268471125</v>
+        <v>3.5878005071766244</v>
       </c>
       <c r="L97" t="n">
-        <v>3.9643565947833395</v>
+        <v>3.5498237889297077</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>2.1222804465772223</v>
+        <v>2.1435032510429943</v>
       </c>
       <c r="C100" t="n">
-        <v>2.1833361952217496</v>
+        <v>2.2184509159075603</v>
       </c>
       <c r="D100" t="n">
-        <v>2.1237828935295004</v>
+        <v>2.135087926083186</v>
       </c>
       <c r="E100" t="n">
-        <v>2.3222639468109154</v>
+        <v>2.303001676847126</v>
       </c>
       <c r="F100" t="n">
-        <v>2.1222804465772223</v>
+        <v>2.3085880989073475</v>
       </c>
       <c r="G100" t="n">
-        <v>2.1833361952217496</v>
+        <v>2.030326278436239</v>
       </c>
       <c r="H100" t="n">
-        <v>2.1237828935295004</v>
+        <v>2.3156093523386994</v>
       </c>
       <c r="I100" t="n">
-        <v>2.3222639468109154</v>
+        <v>2.3441267067908247</v>
       </c>
       <c r="J100" t="n">
-        <v>2.1222804465772223</v>
+        <v>2.301609295618196</v>
       </c>
       <c r="K100" t="n">
-        <v>2.1833361952217496</v>
+        <v>2.079116205593565</v>
       </c>
       <c r="L100" t="n">
-        <v>2.1237828935295004</v>
+        <v>2.38974373730115</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>1.8720645319937488</v>
+        <v>1.8907851773136866</v>
       </c>
       <c r="C101" t="n">
-        <v>1.9259218352055307</v>
+        <v>1.956896546042071</v>
       </c>
       <c r="D101" t="n">
-        <v>1.8733898411229444</v>
+        <v>1.8833620153994037</v>
       </c>
       <c r="E101" t="n">
-        <v>2.048470067075249</v>
+        <v>2.031478810117171</v>
       </c>
       <c r="F101" t="n">
-        <v>1.8720645319937488</v>
+        <v>2.036406595517331</v>
       </c>
       <c r="G101" t="n">
-        <v>1.9259218352055307</v>
+        <v>1.7909517191120419</v>
       </c>
       <c r="H101" t="n">
-        <v>1.8733898411229444</v>
+        <v>2.042600046312287</v>
       </c>
       <c r="I101" t="n">
-        <v>2.048470067075249</v>
+        <v>2.067755217440692</v>
       </c>
       <c r="J101" t="n">
-        <v>1.8720645319937488</v>
+        <v>2.0302505900118137</v>
       </c>
       <c r="K101" t="n">
-        <v>1.9259218352055307</v>
+        <v>1.8339893356989998</v>
       </c>
       <c r="L101" t="n">
-        <v>1.8733898411229444</v>
+        <v>2.10799402047494</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>2.2506660268924445</v>
+        <v>2.273172687161369</v>
       </c>
       <c r="C104" t="n">
-        <v>2.3154152919777187</v>
+        <v>2.35265424831774</v>
       </c>
       <c r="D104" t="n">
-        <v>2.2522593631162944</v>
+        <v>2.264248284157587</v>
       </c>
       <c r="E104" t="n">
-        <v>2.4627473616853637</v>
+        <v>2.4423198368131205</v>
       </c>
       <c r="F104" t="n">
-        <v>2.2506660268924445</v>
+        <v>2.448244204802799</v>
       </c>
       <c r="G104" t="n">
-        <v>2.3154152919777187</v>
+        <v>2.1531491682699917</v>
       </c>
       <c r="H104" t="n">
-        <v>2.2522593631162944</v>
+        <v>2.4556902030871597</v>
       </c>
       <c r="I104" t="n">
-        <v>2.4627473616853637</v>
+        <v>2.4859326910419264</v>
       </c>
       <c r="J104" t="n">
-        <v>2.2506660268924445</v>
+        <v>2.440843224646482</v>
       </c>
       <c r="K104" t="n">
-        <v>2.3154152919777187</v>
+        <v>2.20489060125763</v>
       </c>
       <c r="L104" t="n">
-        <v>2.2522593631162944</v>
+        <v>2.5343092856540514</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>3.533880525672595</v>
+        <v>3.393924861289522</v>
       </c>
       <c r="C106" t="n">
-        <v>3.5634885095772746</v>
+        <v>3.4186702462578022</v>
       </c>
       <c r="D106" t="n">
-        <v>3.621506454900249</v>
+        <v>3.4321447363250406</v>
       </c>
       <c r="E106" t="n">
-        <v>3.7643005225766477</v>
+        <v>3.552149795024909</v>
       </c>
       <c r="F106" t="n">
-        <v>3.533880525672595</v>
+        <v>3.826421249957488</v>
       </c>
       <c r="G106" t="n">
-        <v>3.5634885095772746</v>
+        <v>3.3290491804777376</v>
       </c>
       <c r="H106" t="n">
-        <v>3.621506454900249</v>
+        <v>3.2509274927232545</v>
       </c>
       <c r="I106" t="n">
-        <v>3.7643005225766477</v>
+        <v>3.6964760786586544</v>
       </c>
       <c r="J106" t="n">
-        <v>3.533880525672595</v>
+        <v>3.7649716174765775</v>
       </c>
       <c r="K106" t="n">
-        <v>3.5634885095772746</v>
+        <v>3.6875311847987784</v>
       </c>
       <c r="L106" t="n">
-        <v>3.621506454900249</v>
+        <v>3.753379955955899</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>3.1450946905640214</v>
+        <v>3.0205364849971295</v>
       </c>
       <c r="C107" t="n">
-        <v>3.1714453021085895</v>
+        <v>3.0425594646407013</v>
       </c>
       <c r="D107" t="n">
-        <v>3.22308030517876</v>
+        <v>3.0545515359234345</v>
       </c>
       <c r="E107" t="n">
-        <v>3.3501646423063165</v>
+        <v>3.1613540353899223</v>
       </c>
       <c r="F107" t="n">
-        <v>3.1450946905640214</v>
+        <v>3.4054510529362485</v>
       </c>
       <c r="G107" t="n">
-        <v>3.1714453021085895</v>
+        <v>2.9627982117913496</v>
       </c>
       <c r="H107" t="n">
-        <v>3.22308030517876</v>
+        <v>2.8932712134704994</v>
       </c>
       <c r="I107" t="n">
-        <v>3.3501646423063165</v>
+        <v>3.2898020191482122</v>
       </c>
       <c r="J107" t="n">
-        <v>3.1450946905640214</v>
+        <v>3.350761905567284</v>
       </c>
       <c r="K107" t="n">
-        <v>3.1714453021085895</v>
+        <v>3.281841212895148</v>
       </c>
       <c r="L107" t="n">
-        <v>3.22308030517876</v>
+        <v>3.340445520268276</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>2.1101903091626926</v>
+        <v>2.046884599887812</v>
       </c>
       <c r="C111" t="n">
-        <v>2.1278701600392607</v>
+        <v>2.061808603653359</v>
       </c>
       <c r="D111" t="n">
-        <v>2.1625144851907936</v>
+        <v>2.069935102423132</v>
       </c>
       <c r="E111" t="n">
-        <v>2.2477812777797443</v>
+        <v>2.1423104544419926</v>
       </c>
       <c r="F111" t="n">
-        <v>2.1101903091626926</v>
+        <v>2.3077242571143994</v>
       </c>
       <c r="G111" t="n">
-        <v>2.1278701600392607</v>
+        <v>2.0077579140040163</v>
       </c>
       <c r="H111" t="n">
-        <v>2.1625144851907936</v>
+        <v>1.9606425280961683</v>
       </c>
       <c r="I111" t="n">
-        <v>2.2477812777797443</v>
+        <v>2.229353998245349</v>
       </c>
       <c r="J111" t="n">
-        <v>2.1101903091626926</v>
+        <v>2.2706638295756028</v>
       </c>
       <c r="K111" t="n">
-        <v>2.1278701600392607</v>
+        <v>2.2239593103139095</v>
       </c>
       <c r="L111" t="n">
-        <v>2.1625144851907936</v>
+        <v>2.263672869426658</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>2.672381097199003</v>
+        <v>2.6996502920683807</v>
       </c>
       <c r="C116" t="n">
-        <v>2.459898294182026</v>
+        <v>2.486203552994071</v>
       </c>
       <c r="D116" t="n">
-        <v>2.3986902327675588</v>
+        <v>2.4440183795383725</v>
       </c>
       <c r="E116" t="n">
-        <v>2.6544676682529174</v>
+        <v>2.7310223748020377</v>
       </c>
       <c r="F116" t="n">
-        <v>2.672381097199003</v>
+        <v>2.3814515091721065</v>
       </c>
       <c r="G116" t="n">
-        <v>2.459898294182026</v>
+        <v>2.6898925192509675</v>
       </c>
       <c r="H116" t="n">
-        <v>2.3986902327675588</v>
+        <v>2.5142013410983703</v>
       </c>
       <c r="I116" t="n">
-        <v>2.6544676682529174</v>
+        <v>2.6089521362473254</v>
       </c>
       <c r="J116" t="n">
-        <v>2.672381097199003</v>
+        <v>2.5043306673359518</v>
       </c>
       <c r="K116" t="n">
-        <v>2.459898294182026</v>
+        <v>2.487588625102617</v>
       </c>
       <c r="L116" t="n">
-        <v>2.3986902327675588</v>
+        <v>2.729353045130067</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>1.9189346628947068</v>
+        <v>1.8805559696368124</v>
       </c>
       <c r="C117" t="n">
-        <v>1.7663588882772057</v>
+        <v>1.7318705859984131</v>
       </c>
       <c r="D117" t="n">
-        <v>1.722407720227141</v>
+        <v>1.7024847133150673</v>
       </c>
       <c r="E117" t="n">
-        <v>1.9060717146527908</v>
+        <v>1.9024095251280746</v>
       </c>
       <c r="F117" t="n">
-        <v>1.9189346628947068</v>
+        <v>1.6589011047586322</v>
       </c>
       <c r="G117" t="n">
-        <v>1.7663588882772057</v>
+        <v>1.8737587789132366</v>
       </c>
       <c r="H117" t="n">
-        <v>1.722407720227141</v>
+        <v>1.7513736333786079</v>
       </c>
       <c r="I117" t="n">
-        <v>1.9060717146527908</v>
+        <v>1.817376320455786</v>
       </c>
       <c r="J117" t="n">
-        <v>1.9189346628947068</v>
+        <v>1.744497796710877</v>
       </c>
       <c r="K117" t="n">
-        <v>1.7663588882772057</v>
+        <v>1.7328354167506612</v>
       </c>
       <c r="L117" t="n">
-        <v>1.722407720227141</v>
+        <v>1.9012466827076546</v>
       </c>
     </row>
     <row r="118">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>2.301453984810895</v>
+        <v>2.2103072923431366</v>
       </c>
       <c r="C126" t="n">
-        <v>2.2751318456432714</v>
+        <v>2.196943886537536</v>
       </c>
       <c r="D126" t="n">
-        <v>2.0285778574830755</v>
+        <v>1.9452597361204595</v>
       </c>
       <c r="E126" t="n">
-        <v>2.321492655576289</v>
+        <v>2.2375278234919707</v>
       </c>
       <c r="F126" t="n">
-        <v>2.301453984810895</v>
+        <v>2.1231347863230665</v>
       </c>
       <c r="G126" t="n">
-        <v>2.2751318456432714</v>
+        <v>1.988913620881752</v>
       </c>
       <c r="H126" t="n">
-        <v>2.0285778574830755</v>
+        <v>2.023243422485432</v>
       </c>
       <c r="I126" t="n">
-        <v>2.321492655576289</v>
+        <v>2.1890031249505926</v>
       </c>
       <c r="J126" t="n">
-        <v>2.301453984810895</v>
+        <v>2.024370577995248</v>
       </c>
       <c r="K126" t="n">
-        <v>2.2751318456432714</v>
+        <v>2.2211156401694514</v>
       </c>
       <c r="L126" t="n">
-        <v>2.0285778574830755</v>
+        <v>2.0379950564844593</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>3.454166559547112</v>
+        <v>3.3857672217342976</v>
       </c>
       <c r="C127" t="n">
-        <v>3.1795234731140605</v>
+        <v>3.1180729300450665</v>
       </c>
       <c r="D127" t="n">
-        <v>3.1004094428830586</v>
+        <v>3.065166382130651</v>
       </c>
       <c r="E127" t="n">
-        <v>3.4310126885302696</v>
+        <v>3.4251125286835804</v>
       </c>
       <c r="F127" t="n">
-        <v>3.454166559547112</v>
+        <v>2.986698122936124</v>
       </c>
       <c r="G127" t="n">
-        <v>3.1795234731140605</v>
+        <v>3.373529508035085</v>
       </c>
       <c r="H127" t="n">
-        <v>3.1004094428830586</v>
+        <v>3.1531863643750997</v>
       </c>
       <c r="I127" t="n">
-        <v>3.4310126885302696</v>
+        <v>3.272018102467667</v>
       </c>
       <c r="J127" t="n">
-        <v>3.454166559547112</v>
+        <v>3.1408070559219206</v>
       </c>
       <c r="K127" t="n">
-        <v>3.1795234731140605</v>
+        <v>3.1198100186445155</v>
       </c>
       <c r="L127" t="n">
-        <v>3.1004094428830586</v>
+        <v>3.42301893837589</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>1.7570239584709468</v>
+        <v>1.7749527743737117</v>
       </c>
       <c r="C128" t="n">
-        <v>2.027071346572799</v>
+        <v>2.035496302302092</v>
       </c>
       <c r="D128" t="n">
-        <v>1.9704983787838335</v>
+        <v>2.012113938616953</v>
       </c>
       <c r="E128" t="n">
-        <v>1.8033130526723729</v>
+        <v>1.8540593056884624</v>
       </c>
       <c r="F128" t="n">
-        <v>1.7570239584709468</v>
+        <v>2.0048412371291127</v>
       </c>
       <c r="G128" t="n">
-        <v>2.027071346572799</v>
+        <v>1.8738943994992552</v>
       </c>
       <c r="H128" t="n">
-        <v>1.9704983787838335</v>
+        <v>1.8665375502364987</v>
       </c>
       <c r="I128" t="n">
-        <v>1.8033130526723729</v>
+        <v>2.034252110967019</v>
       </c>
       <c r="J128" t="n">
-        <v>1.7570239584709468</v>
+        <v>1.7816040970655163</v>
       </c>
       <c r="K128" t="n">
-        <v>2.027071346572799</v>
+        <v>1.8215853594642606</v>
       </c>
       <c r="L128" t="n">
-        <v>1.9704983787838335</v>
+        <v>1.8530269783148832</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>2.7031587724459807</v>
+        <v>2.6763948242039417</v>
       </c>
       <c r="C132" t="n">
-        <v>3.1186232074095845</v>
+        <v>3.0692601216332775</v>
       </c>
       <c r="D132" t="n">
-        <v>3.0315864237477785</v>
+        <v>3.0340025992653135</v>
       </c>
       <c r="E132" t="n">
-        <v>2.7743739487990995</v>
+        <v>2.795677046259811</v>
       </c>
       <c r="F132" t="n">
-        <v>2.7031587724459807</v>
+        <v>3.0230363240488334</v>
       </c>
       <c r="G132" t="n">
-        <v>3.1186232074095845</v>
+        <v>2.8255857532289506</v>
       </c>
       <c r="H132" t="n">
-        <v>3.0315864237477785</v>
+        <v>2.8144925942595593</v>
       </c>
       <c r="I132" t="n">
-        <v>2.7743739487990995</v>
+        <v>3.0673840450989687</v>
       </c>
       <c r="J132" t="n">
-        <v>2.7031587724459807</v>
+        <v>2.6864241421009982</v>
       </c>
       <c r="K132" t="n">
-        <v>3.1186232074095845</v>
+        <v>2.746710615799937</v>
       </c>
       <c r="L132" t="n">
-        <v>3.0315864237477785</v>
+        <v>2.7941204326532842</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>3.0665269805327804</v>
+        <v>3.097192250338108</v>
       </c>
       <c r="C133" t="n">
-        <v>3.1547476965258205</v>
+        <v>3.205485683850057</v>
       </c>
       <c r="D133" t="n">
-        <v>3.0686978972574814</v>
+        <v>3.0850327729792966</v>
       </c>
       <c r="E133" t="n">
-        <v>3.3554872827006914</v>
+        <v>3.327654829809967</v>
       </c>
       <c r="F133" t="n">
-        <v>3.0665269805327804</v>
+        <v>3.3357267667681296</v>
       </c>
       <c r="G133" t="n">
-        <v>3.1547476965258205</v>
+        <v>2.933660498145146</v>
       </c>
       <c r="H133" t="n">
-        <v>3.0686978972574814</v>
+        <v>3.3458719212971286</v>
       </c>
       <c r="I133" t="n">
-        <v>3.3554872827006914</v>
+        <v>3.387077237485145</v>
       </c>
       <c r="J133" t="n">
-        <v>3.0665269805327804</v>
+        <v>3.3256429493289557</v>
       </c>
       <c r="K133" t="n">
-        <v>3.1547476965258205</v>
+        <v>3.0041580745834846</v>
       </c>
       <c r="L133" t="n">
-        <v>3.0686978972574814</v>
+        <v>3.452990229831329</v>
       </c>
     </row>
     <row r="134">
@@ -5312,34 +5312,34 @@
         <v>2.1185071343518636</v>
       </c>
       <c r="C138" t="n">
-        <v>2.4441130064566066</v>
+        <v>2.429480660349048</v>
       </c>
       <c r="D138" t="n">
-        <v>2.375900939515481</v>
+        <v>2.4015724787905524</v>
       </c>
       <c r="E138" t="n">
-        <v>2.174319564134407</v>
+        <v>2.2129252807857944</v>
       </c>
       <c r="F138" t="n">
-        <v>2.1185071343518636</v>
+        <v>2.39289209573448</v>
       </c>
       <c r="G138" t="n">
-        <v>2.4441130064566066</v>
+        <v>2.2365995939029584</v>
       </c>
       <c r="H138" t="n">
-        <v>2.375900939515481</v>
+        <v>2.2278187756893586</v>
       </c>
       <c r="I138" t="n">
-        <v>2.174319564134407</v>
+        <v>2.4279956471938213</v>
       </c>
       <c r="J138" t="n">
-        <v>2.1185071343518636</v>
+        <v>2.1264458664572494</v>
       </c>
       <c r="K138" t="n">
-        <v>2.4441130064566066</v>
+        <v>2.174165778138855</v>
       </c>
       <c r="L138" t="n">
-        <v>2.375900939515481</v>
+        <v>2.2116931393240664</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>3.1739305439281837</v>
+        <v>3.111080434147427</v>
       </c>
       <c r="C153" t="n">
-        <v>3.4482554424322673</v>
+        <v>3.378335980635027</v>
       </c>
       <c r="D153" t="n">
-        <v>3.113065483962994</v>
+        <v>3.0499122757453225</v>
       </c>
       <c r="E153" t="n">
-        <v>3.466348085198231</v>
+        <v>3.3865308555405873</v>
       </c>
       <c r="F153" t="n">
-        <v>3.1739305439281837</v>
+        <v>3.413440940716062</v>
       </c>
       <c r="G153" t="n">
-        <v>3.4482554424322673</v>
+        <v>3.5055802752494505</v>
       </c>
       <c r="H153" t="n">
-        <v>3.113065483962994</v>
+        <v>3.4492831230347543</v>
       </c>
       <c r="I153" t="n">
-        <v>3.466348085198231</v>
+        <v>2.9783410007153313</v>
       </c>
       <c r="J153" t="n">
-        <v>3.1739305439281837</v>
+        <v>3.438663408860652</v>
       </c>
       <c r="K153" t="n">
-        <v>3.4482554424322673</v>
+        <v>3.396830523723533</v>
       </c>
       <c r="L153" t="n">
-        <v>3.113065483962994</v>
+        <v>3.2543061630522376</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2.4619099115678953</v>
+        <v>2.4131592202497196</v>
       </c>
       <c r="C154" t="n">
-        <v>2.6746943998450727</v>
+        <v>2.620460252743329</v>
       </c>
       <c r="D154" t="n">
-        <v>2.414698955838845</v>
+        <v>2.365713161377833</v>
       </c>
       <c r="E154" t="n">
-        <v>2.688728247131742</v>
+        <v>2.6268167383295222</v>
       </c>
       <c r="F154" t="n">
-        <v>2.4619099115678953</v>
+        <v>2.6476899756287366</v>
       </c>
       <c r="G154" t="n">
-        <v>2.6746943998450727</v>
+        <v>2.719159321852134</v>
       </c>
       <c r="H154" t="n">
-        <v>2.414698955838845</v>
+        <v>2.6754915367156413</v>
       </c>
       <c r="I154" t="n">
-        <v>2.688728247131742</v>
+        <v>2.31019775896395</v>
       </c>
       <c r="J154" t="n">
-        <v>2.4619099115678953</v>
+        <v>2.667254185828031</v>
       </c>
       <c r="K154" t="n">
-        <v>2.6746943998450727</v>
+        <v>2.63480584043321</v>
       </c>
       <c r="L154" t="n">
-        <v>2.414698955838845</v>
+        <v>2.5242545440767765</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>3.192970473457947</v>
+        <v>3.1297433353696706</v>
       </c>
       <c r="C156" t="n">
-        <v>3.468941005558446</v>
+        <v>3.3986021074796127</v>
       </c>
       <c r="D156" t="n">
-        <v>3.131740293199001</v>
+        <v>3.0682082384321054</v>
       </c>
       <c r="E156" t="n">
-        <v>3.4871421833532974</v>
+        <v>3.406846142200912</v>
       </c>
       <c r="F156" t="n">
-        <v>3.192970473457947</v>
+        <v>3.4339176569093555</v>
       </c>
       <c r="G156" t="n">
-        <v>3.468941005558446</v>
+        <v>3.526609721381901</v>
       </c>
       <c r="H156" t="n">
-        <v>3.131740293199001</v>
+        <v>3.4699748510615125</v>
       </c>
       <c r="I156" t="n">
-        <v>3.4871421833532974</v>
+        <v>2.9962076181426434</v>
       </c>
       <c r="J156" t="n">
-        <v>3.192970473457947</v>
+        <v>3.459291430827463</v>
       </c>
       <c r="K156" t="n">
-        <v>3.468941005558446</v>
+        <v>3.417207596536286</v>
       </c>
       <c r="L156" t="n">
-        <v>3.131740293199001</v>
+        <v>3.273828253770739</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>2.3474385027509</v>
+        <v>2.3009545720033575</v>
       </c>
       <c r="C157" t="n">
-        <v>2.550329152089032</v>
+        <v>2.4986167297650934</v>
       </c>
       <c r="D157" t="n">
-        <v>2.3024227145170157</v>
+        <v>2.255714612215909</v>
       </c>
       <c r="E157" t="n">
-        <v>2.563710467671564</v>
+        <v>2.5046776578831773</v>
       </c>
       <c r="F157" t="n">
-        <v>2.3474385027509</v>
+        <v>2.5245803524062387</v>
       </c>
       <c r="G157" t="n">
-        <v>2.550329152089032</v>
+        <v>2.5927265889126714</v>
       </c>
       <c r="H157" t="n">
-        <v>2.3024227145170157</v>
+        <v>2.551089224491821</v>
       </c>
       <c r="I157" t="n">
-        <v>2.563710467671564</v>
+        <v>2.202780509099575</v>
       </c>
       <c r="J157" t="n">
-        <v>2.3474385027509</v>
+        <v>2.5432348856537557</v>
       </c>
       <c r="K157" t="n">
-        <v>2.550329152089032</v>
+        <v>2.5122952907593783</v>
       </c>
       <c r="L157" t="n">
-        <v>2.3024227145170157</v>
+        <v>2.4068842972958344</v>
       </c>
     </row>
     <row r="158">
@@ -6110,34 +6110,34 @@
         <v>2.251124895153321</v>
       </c>
       <c r="C159" t="n">
-        <v>2.4257831876605427</v>
+        <v>2.4340543912113004</v>
       </c>
       <c r="D159" t="n">
-        <v>2.4490590821107943</v>
+        <v>2.4281643603507597</v>
       </c>
       <c r="E159" t="n">
-        <v>2.4392365097222823</v>
+        <v>2.453395898430132</v>
       </c>
       <c r="F159" t="n">
-        <v>2.251124895153321</v>
+        <v>2.2599975730821322</v>
       </c>
       <c r="G159" t="n">
-        <v>2.4257831876605427</v>
+        <v>2.4791573118011856</v>
       </c>
       <c r="H159" t="n">
-        <v>2.4490590821107943</v>
+        <v>2.471524438214166</v>
       </c>
       <c r="I159" t="n">
-        <v>2.4392365097222823</v>
+        <v>2.42669630650169</v>
       </c>
       <c r="J159" t="n">
-        <v>2.251124895153321</v>
+        <v>2.5196206462298925</v>
       </c>
       <c r="K159" t="n">
-        <v>2.4257831876605427</v>
+        <v>2.339018465921774</v>
       </c>
       <c r="L159" t="n">
-        <v>2.4490590821107943</v>
+        <v>2.441457233127742</v>
       </c>
     </row>
     <row r="160">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>7.598860194793481</v>
+        <v>7.524361565432761</v>
       </c>
       <c r="C165" t="n">
-        <v>8.188433856157715</v>
+        <v>8.135801504765357</v>
       </c>
       <c r="D165" t="n">
-        <v>8.2670035828828</v>
+        <v>8.11611413783086</v>
       </c>
       <c r="E165" t="n">
-        <v>8.233846668979782</v>
+        <v>8.200450291622207</v>
       </c>
       <c r="F165" t="n">
-        <v>7.598860194793481</v>
+        <v>7.554018399193406</v>
       </c>
       <c r="G165" t="n">
-        <v>8.188433856157715</v>
+        <v>8.286557548068846</v>
       </c>
       <c r="H165" t="n">
-        <v>8.2670035828828</v>
+        <v>8.261044747434982</v>
       </c>
       <c r="I165" t="n">
-        <v>8.233846668979782</v>
+        <v>8.111207183098267</v>
       </c>
       <c r="J165" t="n">
-        <v>7.598860194793481</v>
+        <v>8.42180582284921</v>
       </c>
       <c r="K165" t="n">
-        <v>8.188433856157715</v>
+        <v>7.818144912222032</v>
       </c>
       <c r="L165" t="n">
-        <v>8.2670035828828</v>
+        <v>8.160545426931103</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>1.2905311762606093</v>
+        <v>1.303835621376698</v>
       </c>
       <c r="C167" t="n">
-        <v>1.2678794495570898</v>
+        <v>1.2879738753139138</v>
       </c>
       <c r="D167" t="n">
-        <v>1.272501124592576</v>
+        <v>1.294272035612178</v>
       </c>
       <c r="E167" t="n">
-        <v>1.185445062554595</v>
+        <v>1.1922460868477291</v>
       </c>
       <c r="F167" t="n">
-        <v>1.2905311762606093</v>
+        <v>1.307862291039496</v>
       </c>
       <c r="G167" t="n">
-        <v>1.2678794495570898</v>
+        <v>1.2840685572677561</v>
       </c>
       <c r="H167" t="n">
-        <v>1.272501124592576</v>
+        <v>1.3292084432248037</v>
       </c>
       <c r="I167" t="n">
-        <v>1.185445062554595</v>
+        <v>1.2809613122297383</v>
       </c>
       <c r="J167" t="n">
-        <v>1.2905311762606093</v>
+        <v>1.1564331236794128</v>
       </c>
       <c r="K167" t="n">
-        <v>1.2678794495570898</v>
+        <v>1.2801868505764682</v>
       </c>
       <c r="L167" t="n">
-        <v>1.272501124592576</v>
+        <v>1.1292954929328285</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>5.4104897999770065</v>
+        <v>5.357960772792763</v>
       </c>
       <c r="C168" t="n">
-        <v>4.732428172595253</v>
+        <v>4.672141790627834</v>
       </c>
       <c r="D168" t="n">
-        <v>4.863129747786621</v>
+        <v>4.880370953793974</v>
       </c>
       <c r="E168" t="n">
-        <v>5.145262875522411</v>
+        <v>5.118472603184115</v>
       </c>
       <c r="F168" t="n">
-        <v>5.4104897999770065</v>
+        <v>4.794890999931973</v>
       </c>
       <c r="G168" t="n">
-        <v>4.732428172595253</v>
+        <v>5.105050032968781</v>
       </c>
       <c r="H168" t="n">
-        <v>4.863129747786621</v>
+        <v>5.299616368345864</v>
       </c>
       <c r="I168" t="n">
-        <v>5.145262875522411</v>
+        <v>5.499225273553235</v>
       </c>
       <c r="J168" t="n">
-        <v>5.4104897999770065</v>
+        <v>5.328628871494976</v>
       </c>
       <c r="K168" t="n">
-        <v>4.732428172595253</v>
+        <v>5.39425237492347</v>
       </c>
       <c r="L168" t="n">
-        <v>4.863129747786621</v>
+        <v>4.784416088633276</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>2.1535996666017407</v>
+        <v>2.175575173403799</v>
       </c>
       <c r="C171" t="n">
-        <v>2.0744756132579556</v>
+        <v>2.1020760133300986</v>
       </c>
       <c r="D171" t="n">
-        <v>2.224522096083869</v>
+        <v>2.2639702855646058</v>
       </c>
       <c r="E171" t="n">
-        <v>2.3169105853477356</v>
+        <v>2.3435574383860884</v>
       </c>
       <c r="F171" t="n">
-        <v>2.1535996666017407</v>
+        <v>2.2584918316329796</v>
       </c>
       <c r="G171" t="n">
-        <v>2.0744756132579556</v>
+        <v>2.2833559636203185</v>
       </c>
       <c r="H171" t="n">
-        <v>2.224522096083869</v>
+        <v>2.0798256266845327</v>
       </c>
       <c r="I171" t="n">
-        <v>2.3169105853477356</v>
+        <v>2.0786675941878854</v>
       </c>
       <c r="J171" t="n">
-        <v>2.1535996666017407</v>
+        <v>2.281960268771052</v>
       </c>
       <c r="K171" t="n">
-        <v>2.0744756132579556</v>
+        <v>1.9985476442497578</v>
       </c>
       <c r="L171" t="n">
-        <v>2.224522096083869</v>
+        <v>2.1812953544667</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1.6421387542710237</v>
+        <v>1.6587260144151756</v>
       </c>
       <c r="C175" t="n">
-        <v>1.581805965217493</v>
+        <v>1.602687974294884</v>
       </c>
       <c r="D175" t="n">
-        <v>1.6962177327393997</v>
+        <v>1.7261211905877727</v>
       </c>
       <c r="E175" t="n">
-        <v>1.7666647712589334</v>
+        <v>1.7868009052729186</v>
       </c>
       <c r="F175" t="n">
-        <v>1.6421387542710237</v>
+        <v>1.7219442473286959</v>
       </c>
       <c r="G175" t="n">
-        <v>1.581805965217493</v>
+        <v>1.7409014330225945</v>
       </c>
       <c r="H175" t="n">
-        <v>1.6962177327393997</v>
+        <v>1.5857235891470003</v>
       </c>
       <c r="I175" t="n">
-        <v>1.7666647712589334</v>
+        <v>1.584840669240941</v>
       </c>
       <c r="J175" t="n">
-        <v>1.6421387542710237</v>
+        <v>1.7398373119648782</v>
       </c>
       <c r="K175" t="n">
-        <v>1.581805965217493</v>
+        <v>1.5237547335028117</v>
       </c>
       <c r="L175" t="n">
-        <v>1.6962177327393997</v>
+        <v>1.663087257939275</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.8470011115274887</v>
+        <v>1.865657688411605</v>
       </c>
       <c r="C176" t="n">
-        <v>1.7791416032163943</v>
+        <v>1.8026287134721841</v>
       </c>
       <c r="D176" t="n">
-        <v>1.9078266252555913</v>
+        <v>1.941460640493834</v>
       </c>
       <c r="E176" t="n">
-        <v>1.9870621698226882</v>
+        <v>2.0097103545811112</v>
       </c>
       <c r="F176" t="n">
-        <v>1.8470011115274887</v>
+        <v>1.9367626094521595</v>
       </c>
       <c r="G176" t="n">
-        <v>1.7791416032163943</v>
+        <v>1.958084768104707</v>
       </c>
       <c r="H176" t="n">
-        <v>1.9078266252555913</v>
+        <v>1.7835479639660734</v>
       </c>
       <c r="I176" t="n">
-        <v>1.9870621698226882</v>
+        <v>1.782554896818952</v>
       </c>
       <c r="J176" t="n">
-        <v>1.8470011115274887</v>
+        <v>1.9568878943501051</v>
       </c>
       <c r="K176" t="n">
-        <v>1.7791416032163943</v>
+        <v>1.713848284229989</v>
       </c>
       <c r="L176" t="n">
-        <v>1.9078266252555913</v>
+        <v>1.870563011798988</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>3.999278329825696</v>
+        <v>3.920084699532118</v>
       </c>
       <c r="C177" t="n">
-        <v>4.021994321965793</v>
+        <v>3.980430827571429</v>
       </c>
       <c r="D177" t="n">
-        <v>3.670128108884787</v>
+        <v>3.599231440158687</v>
       </c>
       <c r="E177" t="n">
-        <v>3.484325572404144</v>
+        <v>3.4605030337470244</v>
       </c>
       <c r="F177" t="n">
-        <v>3.999278329825696</v>
+        <v>3.908234382878492</v>
       </c>
       <c r="G177" t="n">
-        <v>4.021994321965793</v>
+        <v>3.601236583733499</v>
       </c>
       <c r="H177" t="n">
-        <v>3.670128108884787</v>
+        <v>3.894108233525972</v>
       </c>
       <c r="I177" t="n">
-        <v>3.484325572404144</v>
+        <v>3.6254737322590564</v>
       </c>
       <c r="J177" t="n">
-        <v>3.999278329825696</v>
+        <v>3.7769323205021315</v>
       </c>
       <c r="K177" t="n">
-        <v>4.021994321965793</v>
+        <v>3.953651173624469</v>
       </c>
       <c r="L177" t="n">
-        <v>3.670128108884787</v>
+        <v>3.639763326246025</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>2.389862223928363</v>
+        <v>2.3662002217112508</v>
       </c>
       <c r="C178" t="n">
-        <v>2.429844313737615</v>
+        <v>2.408383179735323</v>
       </c>
       <c r="D178" t="n">
-        <v>2.658140470392177</v>
+        <v>2.6440659378247156</v>
       </c>
       <c r="E178" t="n">
-        <v>2.6244994069785035</v>
+        <v>2.6042456671840846</v>
       </c>
       <c r="F178" t="n">
-        <v>2.389862223928363</v>
+        <v>2.3142654213678684</v>
       </c>
       <c r="G178" t="n">
-        <v>2.429844313737615</v>
+        <v>2.6136927500690885</v>
       </c>
       <c r="H178" t="n">
-        <v>2.658140470392177</v>
+        <v>2.519258627574461</v>
       </c>
       <c r="I178" t="n">
-        <v>2.6244994069785035</v>
+        <v>2.3610310244473847</v>
       </c>
       <c r="J178" t="n">
-        <v>2.389862223928363</v>
+        <v>2.615273929259803</v>
       </c>
       <c r="K178" t="n">
-        <v>2.429844313737615</v>
+        <v>2.621617834311553</v>
       </c>
       <c r="L178" t="n">
-        <v>2.658140470392177</v>
+        <v>2.6701962972353566</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>3.2752066984248405</v>
+        <v>3.3079587654090887</v>
       </c>
       <c r="C179" t="n">
-        <v>3.330000488229608</v>
+        <v>3.3669307342502117</v>
       </c>
       <c r="D179" t="n">
-        <v>3.642870867958277</v>
+        <v>3.696416311304956</v>
       </c>
       <c r="E179" t="n">
-        <v>3.596767190879568</v>
+        <v>3.6407473902652256</v>
       </c>
       <c r="F179" t="n">
-        <v>3.2752066984248405</v>
+        <v>3.235353676266879</v>
       </c>
       <c r="G179" t="n">
-        <v>3.330000488229608</v>
+        <v>3.6539544554790027</v>
       </c>
       <c r="H179" t="n">
-        <v>3.642870867958277</v>
+        <v>3.5219351189944934</v>
       </c>
       <c r="I179" t="n">
-        <v>3.596767190879568</v>
+        <v>3.3007322039193907</v>
       </c>
       <c r="J179" t="n">
-        <v>3.2752066984248405</v>
+        <v>3.656164951241624</v>
       </c>
       <c r="K179" t="n">
-        <v>3.330000488229608</v>
+        <v>3.6650337596080105</v>
       </c>
       <c r="L179" t="n">
-        <v>3.642870867958277</v>
+        <v>3.732946673639724</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>1.6082580324463642</v>
+        <v>1.6250107202843471</v>
       </c>
       <c r="C184" t="n">
-        <v>1.6351639839467922</v>
+        <v>1.6539802717083798</v>
       </c>
       <c r="D184" t="n">
-        <v>1.788795906339712</v>
+        <v>1.8158376686299587</v>
       </c>
       <c r="E184" t="n">
-        <v>1.7661571492124728</v>
+        <v>1.7884907154508014</v>
       </c>
       <c r="F184" t="n">
-        <v>1.6082580324463642</v>
+        <v>1.5893439975195303</v>
       </c>
       <c r="G184" t="n">
-        <v>1.6351639839467922</v>
+        <v>1.7949785903240627</v>
       </c>
       <c r="H184" t="n">
-        <v>1.788795906339712</v>
+        <v>1.7301250500334469</v>
       </c>
       <c r="I184" t="n">
-        <v>1.7661571492124728</v>
+        <v>1.6214607244336274</v>
       </c>
       <c r="J184" t="n">
-        <v>1.6082580324463642</v>
+        <v>1.796064480314278</v>
       </c>
       <c r="K184" t="n">
-        <v>1.6351639839467922</v>
+        <v>1.8004212180167636</v>
       </c>
       <c r="L184" t="n">
-        <v>1.788795906339712</v>
+        <v>1.833782943834297</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>2.130894471021946</v>
+        <v>2.1524186575979254</v>
       </c>
       <c r="C187" t="n">
-        <v>2.1665440633965196</v>
+        <v>2.1907904678321493</v>
       </c>
       <c r="D187" t="n">
-        <v>2.370101830492866</v>
+        <v>2.405179749487644</v>
       </c>
       <c r="E187" t="n">
-        <v>2.3401061448379576</v>
+        <v>2.368957162450818</v>
       </c>
       <c r="F187" t="n">
-        <v>2.130894471021946</v>
+        <v>2.1051760649331017</v>
       </c>
       <c r="G187" t="n">
-        <v>2.1665440633965196</v>
+        <v>2.3775507198661963</v>
       </c>
       <c r="H187" t="n">
-        <v>2.370101830492866</v>
+        <v>2.2916485357203746</v>
       </c>
       <c r="I187" t="n">
-        <v>2.3401061448379576</v>
+        <v>2.147716487201076</v>
       </c>
       <c r="J187" t="n">
-        <v>2.130894471021946</v>
+        <v>2.3789890426082327</v>
       </c>
       <c r="K187" t="n">
-        <v>2.1665440633965196</v>
+        <v>2.3847597882408826</v>
       </c>
       <c r="L187" t="n">
-        <v>2.370101830492866</v>
+        <v>2.4289492820103513</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>4.6887806973273225</v>
+        <v>4.830864960882696</v>
       </c>
       <c r="C200" t="n">
-        <v>4.101166195202316</v>
+        <v>4.212514242961728</v>
       </c>
       <c r="D200" t="n">
-        <v>4.21443339383379</v>
+        <v>4.400258612663207</v>
       </c>
       <c r="E200" t="n">
-        <v>4.458932581949767</v>
+        <v>4.614936726957737</v>
       </c>
       <c r="F200" t="n">
-        <v>4.6887806973273225</v>
+        <v>4.323187851700064</v>
       </c>
       <c r="G200" t="n">
-        <v>4.101166195202316</v>
+        <v>4.60283461817271</v>
       </c>
       <c r="H200" t="n">
-        <v>4.21443339383379</v>
+        <v>4.7782602571421755</v>
       </c>
       <c r="I200" t="n">
-        <v>4.458932581949767</v>
+        <v>4.958232397091947</v>
       </c>
       <c r="J200" t="n">
-        <v>4.6887806973273225</v>
+        <v>4.804418620525916</v>
       </c>
       <c r="K200" t="n">
-        <v>4.101166195202316</v>
+        <v>4.863586333162572</v>
       </c>
       <c r="L200" t="n">
-        <v>4.21443339383379</v>
+        <v>4.313743422353327</v>
       </c>
     </row>
     <row r="201">
@@ -8162,34 +8162,34 @@
         <v>1.0928848018483495</v>
       </c>
       <c r="C213" t="n">
-        <v>1.0394870469698685</v>
+        <v>1.0338185771718549</v>
       </c>
       <c r="D213" t="n">
-        <v>1.0814679993908347</v>
+        <v>1.0658918645388402</v>
       </c>
       <c r="E213" t="n">
-        <v>1.0840504308983925</v>
+        <v>1.0697584616566296</v>
       </c>
       <c r="F213" t="n">
-        <v>1.0928848018483495</v>
+        <v>1.089520008699494</v>
       </c>
       <c r="G213" t="n">
-        <v>1.0394870469698685</v>
+        <v>1.0815284199788577</v>
       </c>
       <c r="H213" t="n">
-        <v>1.0814679993908347</v>
+        <v>1.0821899054857518</v>
       </c>
       <c r="I213" t="n">
-        <v>1.0840504308983925</v>
+        <v>0.9472058324231803</v>
       </c>
       <c r="J213" t="n">
-        <v>1.0928848018483495</v>
+        <v>0.9962728012774409</v>
       </c>
       <c r="K213" t="n">
-        <v>1.0394870469698685</v>
+        <v>0.9851784492347934</v>
       </c>
       <c r="L213" t="n">
-        <v>1.0814679993908347</v>
+        <v>0.968462229955106</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.864705093253368</v>
+        <v>0.8387639404557669</v>
       </c>
       <c r="C214" t="n">
-        <v>0.8224560743873114</v>
+        <v>0.7934319720051919</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8556719662330414</v>
+        <v>0.8180474821209924</v>
       </c>
       <c r="E214" t="n">
-        <v>0.8577152206307478</v>
+        <v>0.8210150064466917</v>
       </c>
       <c r="F214" t="n">
-        <v>0.864705093253368</v>
+        <v>0.8361815391307789</v>
       </c>
       <c r="G214" t="n">
-        <v>0.8224560743873114</v>
+        <v>0.8300481786572081</v>
       </c>
       <c r="H214" t="n">
-        <v>0.8556719662330414</v>
+        <v>0.8305558535643698</v>
       </c>
       <c r="I214" t="n">
-        <v>0.8577152206307478</v>
+        <v>0.7269586831862589</v>
       </c>
       <c r="J214" t="n">
-        <v>0.864705093253368</v>
+        <v>0.7646164528549515</v>
       </c>
       <c r="K214" t="n">
-        <v>0.8224560743873114</v>
+        <v>0.7561017929197448</v>
       </c>
       <c r="L214" t="n">
-        <v>0.8556719662330414</v>
+        <v>0.7432724792273592</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.3421313513799357</v>
+        <v>0.3456224876185065</v>
       </c>
       <c r="C221" t="n">
-        <v>0.38804523270838326</v>
+        <v>0.3946349675518086</v>
       </c>
       <c r="D221" t="n">
-        <v>0.3831487437287122</v>
+        <v>0.3927146028861485</v>
       </c>
       <c r="E221" t="n">
-        <v>0.3592321904479205</v>
+        <v>0.3620991624394364</v>
       </c>
       <c r="F221" t="n">
-        <v>0.3421313513799357</v>
+        <v>0.37623706675011676</v>
       </c>
       <c r="G221" t="n">
-        <v>0.38804523270838326</v>
+        <v>0.390576410505387</v>
       </c>
       <c r="H221" t="n">
-        <v>0.3831487437287122</v>
+        <v>0.352606666668189</v>
       </c>
       <c r="I221" t="n">
-        <v>0.3592321904479205</v>
+        <v>0.3987787563860035</v>
       </c>
       <c r="J221" t="n">
-        <v>0.3421313513799357</v>
+        <v>0.3915238369435807</v>
       </c>
       <c r="K221" t="n">
-        <v>0.38804523270838326</v>
+        <v>0.4052873865991413</v>
       </c>
       <c r="L221" t="n">
-        <v>0.3831487437287122</v>
+        <v>0.3903402703115183</v>
       </c>
     </row>
     <row r="222">
@@ -8504,34 +8504,34 @@
         <v>0.449996184980392</v>
       </c>
       <c r="C222" t="n">
-        <v>0.5103854809397085</v>
+        <v>0.5138098249387921</v>
       </c>
       <c r="D222" t="n">
-        <v>0.5039452603876796</v>
+        <v>0.511309534002075</v>
       </c>
       <c r="E222" t="n">
-        <v>0.4724884596857615</v>
+        <v>0.47144861089651147</v>
       </c>
       <c r="F222" t="n">
-        <v>0.449996184980392</v>
+        <v>0.48985598666439356</v>
       </c>
       <c r="G222" t="n">
-        <v>0.5103854809397085</v>
+        <v>0.5085256340865149</v>
       </c>
       <c r="H222" t="n">
-        <v>0.5039452603876796</v>
+        <v>0.45908949933395965</v>
       </c>
       <c r="I222" t="n">
-        <v>0.4724884596857615</v>
+        <v>0.5192049865198588</v>
       </c>
       <c r="J222" t="n">
-        <v>0.449996184980392</v>
+        <v>0.509759171538532</v>
       </c>
       <c r="K222" t="n">
-        <v>0.5103854809397085</v>
+        <v>0.5276791421963059</v>
       </c>
       <c r="L222" t="n">
-        <v>0.5039452603876796</v>
+        <v>0.5082181824878251</v>
       </c>
     </row>
     <row r="223">
@@ -8580,34 +8580,34 @@
         <v>0.6877255204118273</v>
       </c>
       <c r="C224" t="n">
-        <v>0.7800179917196328</v>
+        <v>0.7852513888848588</v>
       </c>
       <c r="D224" t="n">
-        <v>0.7701754548747838</v>
+        <v>0.7814302145215479</v>
       </c>
       <c r="E224" t="n">
-        <v>0.722100281450457</v>
+        <v>0.7205110889781525</v>
       </c>
       <c r="F224" t="n">
-        <v>0.6877255204118273</v>
+        <v>0.7486429320957433</v>
       </c>
       <c r="G224" t="n">
-        <v>0.7800179917196328</v>
+        <v>0.7771756028557036</v>
       </c>
       <c r="H224" t="n">
-        <v>0.7701754548747838</v>
+        <v>0.7016227589991902</v>
       </c>
       <c r="I224" t="n">
-        <v>0.722100281450457</v>
+        <v>0.7934967705789429</v>
       </c>
       <c r="J224" t="n">
-        <v>0.6877255204118273</v>
+        <v>0.7790608081406616</v>
       </c>
       <c r="K224" t="n">
-        <v>0.7800179917196328</v>
+        <v>0.8064477539809229</v>
       </c>
       <c r="L224" t="n">
-        <v>0.7701754548747838</v>
+        <v>0.7767057270706021</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>3.743174336939763</v>
+        <v>3.7061132048908547</v>
       </c>
       <c r="C230" t="n">
-        <v>3.7644356525583342</v>
+        <v>3.763165436955436</v>
       </c>
       <c r="D230" t="n">
-        <v>3.4351020902957634</v>
+        <v>3.402773202686802</v>
       </c>
       <c r="E230" t="n">
-        <v>3.2611978933545696</v>
+        <v>3.2716170623725143</v>
       </c>
       <c r="F230" t="n">
-        <v>3.743174336939763</v>
+        <v>3.694909718640319</v>
       </c>
       <c r="G230" t="n">
-        <v>3.7644356525583342</v>
+        <v>3.404668898736737</v>
       </c>
       <c r="H230" t="n">
-        <v>3.4351020902957634</v>
+        <v>3.681554622344598</v>
       </c>
       <c r="I230" t="n">
-        <v>3.2611978933545696</v>
+        <v>3.427583101639085</v>
       </c>
       <c r="J230" t="n">
-        <v>3.743174336939763</v>
+        <v>3.5707745673614415</v>
       </c>
       <c r="K230" t="n">
-        <v>3.7644356525583342</v>
+        <v>3.7378475071854287</v>
       </c>
       <c r="L230" t="n">
-        <v>3.4351020902957634</v>
+        <v>3.441092721207753</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>3.602525375195807</v>
+        <v>3.5668568071245614</v>
       </c>
       <c r="C238" t="n">
-        <v>3.622987801503359</v>
+        <v>3.6217653139755273</v>
       </c>
       <c r="D238" t="n">
-        <v>3.3060288762280514</v>
+        <v>3.2749147395409652</v>
       </c>
       <c r="E238" t="n">
-        <v>3.1386590916708377</v>
+        <v>3.1486867626786186</v>
       </c>
       <c r="F238" t="n">
-        <v>3.602525375195807</v>
+        <v>3.5560742894336514</v>
       </c>
       <c r="G238" t="n">
-        <v>3.622987801503359</v>
+        <v>3.27673920522405</v>
       </c>
       <c r="H238" t="n">
-        <v>3.3060288762280514</v>
+        <v>3.5432210079771296</v>
       </c>
       <c r="I238" t="n">
-        <v>3.1386590916708377</v>
+        <v>3.298792411935117</v>
       </c>
       <c r="J238" t="n">
-        <v>3.602525375195807</v>
+        <v>3.436603489470449</v>
       </c>
       <c r="K238" t="n">
-        <v>3.622987801503359</v>
+        <v>3.5973986999111536</v>
       </c>
       <c r="L238" t="n">
-        <v>3.3060288762280514</v>
+        <v>3.311794410486207</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>1.8908938736077892</v>
+        <v>1.8347287090451814</v>
       </c>
       <c r="C242" t="n">
-        <v>1.826749241294135</v>
+        <v>1.760676405947091</v>
       </c>
       <c r="D242" t="n">
-        <v>1.7718178743944641</v>
+        <v>1.70769665987065</v>
       </c>
       <c r="E242" t="n">
-        <v>1.6582809287500406</v>
+        <v>1.5997388244168622</v>
       </c>
       <c r="F242" t="n">
-        <v>1.8908938736077892</v>
+        <v>1.6273512435201047</v>
       </c>
       <c r="G242" t="n">
-        <v>1.826749241294135</v>
+        <v>1.77781194332886</v>
       </c>
       <c r="H242" t="n">
-        <v>1.7718178743944641</v>
+        <v>1.7724213673257057</v>
       </c>
       <c r="I242" t="n">
-        <v>1.6582809287500406</v>
+        <v>1.7032184336300045</v>
       </c>
       <c r="J242" t="n">
-        <v>1.8908938736077892</v>
+        <v>1.5587855106099187</v>
       </c>
       <c r="K242" t="n">
-        <v>1.826749241294135</v>
+        <v>1.8052642571440078</v>
       </c>
       <c r="L242" t="n">
-        <v>1.7718178743944641</v>
+        <v>1.7681323848817947</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>0.6817470573520228</v>
+        <v>0.6887036599780638</v>
       </c>
       <c r="C250" t="n">
-        <v>0.6586202098143954</v>
+        <v>0.660906584627343</v>
       </c>
       <c r="D250" t="n">
-        <v>0.638815133356708</v>
+        <v>0.6410195327445924</v>
       </c>
       <c r="E250" t="n">
-        <v>0.5978802719802004</v>
+        <v>0.6004953091720368</v>
       </c>
       <c r="F250" t="n">
-        <v>0.6817470573520228</v>
+        <v>0.610860206174792</v>
       </c>
       <c r="G250" t="n">
-        <v>0.6586202098143954</v>
+        <v>0.6673387657189316</v>
       </c>
       <c r="H250" t="n">
-        <v>0.638815133356708</v>
+        <v>0.6653153006668726</v>
       </c>
       <c r="I250" t="n">
-        <v>0.5978802719802004</v>
+        <v>0.639338537190897</v>
       </c>
       <c r="J250" t="n">
-        <v>0.6817470573520228</v>
+        <v>0.5851226292940671</v>
       </c>
       <c r="K250" t="n">
-        <v>0.6586202098143954</v>
+        <v>0.677643563864919</v>
       </c>
       <c r="L250" t="n">
-        <v>0.638815133356708</v>
+        <v>0.6637053417164616</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>2.3798844783853017</v>
+        <v>2.3322867888175955</v>
       </c>
       <c r="C253" t="n">
-        <v>2.3932274217485228</v>
+        <v>2.3373930539883925</v>
       </c>
       <c r="D253" t="n">
-        <v>2.341358025839302</v>
+        <v>2.2775557919496654</v>
       </c>
       <c r="E253" t="n">
-        <v>2.4182819426221545</v>
+        <v>2.3777378125393778</v>
       </c>
       <c r="F253" t="n">
-        <v>2.3798844783853017</v>
+        <v>2.611875910014589</v>
       </c>
       <c r="G253" t="n">
-        <v>2.3932274217485228</v>
+        <v>2.4951312365353395</v>
       </c>
       <c r="H253" t="n">
-        <v>2.341358025839302</v>
+        <v>2.6102794082809075</v>
       </c>
       <c r="I253" t="n">
-        <v>2.4182819426221545</v>
+        <v>2.3790624580301367</v>
       </c>
       <c r="J253" t="n">
-        <v>2.3798844783853017</v>
+        <v>2.5725404289554095</v>
       </c>
       <c r="K253" t="n">
-        <v>2.3932274217485228</v>
+        <v>2.395074094257344</v>
       </c>
       <c r="L253" t="n">
-        <v>2.341358025839302</v>
+        <v>2.2860905308675448</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.997374234629574</v>
+        <v>2.0175497319490647</v>
       </c>
       <c r="C254" t="n">
-        <v>2.008572614857635</v>
+        <v>2.0219669176811097</v>
       </c>
       <c r="D254" t="n">
-        <v>1.9650399997681958</v>
+        <v>1.9702045647125008</v>
       </c>
       <c r="E254" t="n">
-        <v>2.029600213007245</v>
+        <v>2.0568672383407987</v>
       </c>
       <c r="F254" t="n">
-        <v>1.997374234629574</v>
+        <v>2.2594089060572555</v>
       </c>
       <c r="G254" t="n">
-        <v>2.008572614857635</v>
+        <v>2.158418673717968</v>
       </c>
       <c r="H254" t="n">
-        <v>1.9650399997681958</v>
+        <v>2.2580278487789274</v>
       </c>
       <c r="I254" t="n">
-        <v>2.029600213007245</v>
+        <v>2.058013125788098</v>
       </c>
       <c r="J254" t="n">
-        <v>1.997374234629574</v>
+        <v>2.225381663075157</v>
       </c>
       <c r="K254" t="n">
-        <v>2.008572614857635</v>
+        <v>2.071864026343362</v>
       </c>
       <c r="L254" t="n">
-        <v>1.9650399997681958</v>
+        <v>1.977587559076051</v>
       </c>
     </row>
     <row r="255">
@@ -9948,34 +9948,34 @@
         <v>3.7186852488125437</v>
       </c>
       <c r="C260" t="n">
-        <v>3.7395342467833266</v>
+        <v>3.72682686889898</v>
       </c>
       <c r="D260" t="n">
-        <v>3.658485792883872</v>
+        <v>3.63142010128377</v>
       </c>
       <c r="E260" t="n">
-        <v>3.7786831542345203</v>
+        <v>3.7911540602245863</v>
       </c>
       <c r="F260" t="n">
-        <v>3.7186852488125437</v>
+        <v>4.164472596109924</v>
       </c>
       <c r="G260" t="n">
-        <v>3.7395342467833266</v>
+        <v>3.9783305242059726</v>
       </c>
       <c r="H260" t="n">
-        <v>3.658485792883872</v>
+        <v>4.161927074060402</v>
       </c>
       <c r="I260" t="n">
-        <v>3.7786831542345203</v>
+        <v>3.793266124517026</v>
       </c>
       <c r="J260" t="n">
-        <v>3.7186852488125437</v>
+        <v>4.10175463454917</v>
       </c>
       <c r="K260" t="n">
-        <v>3.7395342467833266</v>
+        <v>3.8187956759139428</v>
       </c>
       <c r="L260" t="n">
-        <v>3.658485792883872</v>
+        <v>3.645028208086311</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>0.6972624053979024</v>
+        <v>0.7046020096652488</v>
       </c>
       <c r="C265" t="n">
-        <v>0.7193475059610669</v>
+        <v>0.7193990871026023</v>
       </c>
       <c r="D265" t="n">
-        <v>0.678920916190114</v>
+        <v>0.6787337540423073</v>
       </c>
       <c r="E265" t="n">
-        <v>0.6918366014496915</v>
+        <v>0.7084593205729558</v>
       </c>
       <c r="F265" t="n">
-        <v>0.6972624053979024</v>
+        <v>0.6361043813022184</v>
       </c>
       <c r="G265" t="n">
-        <v>0.7193475059610669</v>
+        <v>0.6532288962940614</v>
       </c>
       <c r="H265" t="n">
-        <v>0.678920916190114</v>
+        <v>0.6235048835806314</v>
       </c>
       <c r="I265" t="n">
-        <v>0.6918366014496915</v>
+        <v>0.6374970563637966</v>
       </c>
       <c r="J265" t="n">
-        <v>0.6972624053979024</v>
+        <v>0.7123590965501696</v>
       </c>
       <c r="K265" t="n">
-        <v>0.7193475059610669</v>
+        <v>0.6805183303759993</v>
       </c>
       <c r="L265" t="n">
-        <v>0.678920916190114</v>
+        <v>0.7016307967705959</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>1.095119533358589</v>
+        <v>1.0513147520242454</v>
       </c>
       <c r="C266" t="n">
-        <v>1.1298063669461653</v>
+        <v>1.073393011216446</v>
       </c>
       <c r="D266" t="n">
-        <v>1.0663124114675524</v>
+        <v>1.0127175320724418</v>
       </c>
       <c r="E266" t="n">
-        <v>1.0865977719071465</v>
+        <v>1.0570701257029878</v>
       </c>
       <c r="F266" t="n">
-        <v>1.095119533358589</v>
+        <v>0.9491115703856622</v>
       </c>
       <c r="G266" t="n">
-        <v>1.1298063669461653</v>
+        <v>0.9746625267911628</v>
       </c>
       <c r="H266" t="n">
-        <v>1.0663124114675524</v>
+        <v>0.930312251562979</v>
       </c>
       <c r="I266" t="n">
-        <v>1.0865977719071465</v>
+        <v>0.951189537545746</v>
       </c>
       <c r="J266" t="n">
-        <v>1.095119533358589</v>
+        <v>1.062888860191671</v>
       </c>
       <c r="K266" t="n">
-        <v>1.1298063669461653</v>
+        <v>1.0153802429361465</v>
       </c>
       <c r="L266" t="n">
-        <v>1.0663124114675524</v>
+        <v>1.046881497641339</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5.616222641609059</v>
+        <v>5.561696208195379</v>
       </c>
       <c r="C268" t="n">
-        <v>4.912377850306823</v>
+        <v>4.849799090175431</v>
       </c>
       <c r="D268" t="n">
-        <v>5.0480493279403</v>
+        <v>5.06594612751426</v>
       </c>
       <c r="E268" t="n">
-        <v>5.340910513991229</v>
+        <v>5.313101546662274</v>
       </c>
       <c r="F268" t="n">
-        <v>5.616222641609059</v>
+        <v>4.977215814727143</v>
       </c>
       <c r="G268" t="n">
-        <v>4.912377850306823</v>
+        <v>5.299168585777242</v>
       </c>
       <c r="H268" t="n">
-        <v>5.0480493279403</v>
+        <v>5.501133268908946</v>
       </c>
       <c r="I268" t="n">
-        <v>5.340910513991229</v>
+        <v>5.7083322646259695</v>
       </c>
       <c r="J268" t="n">
-        <v>5.616222641609059</v>
+        <v>5.531248966951014</v>
       </c>
       <c r="K268" t="n">
-        <v>4.912377850306823</v>
+        <v>5.599367791568035</v>
       </c>
       <c r="L268" t="n">
-        <v>5.0480493279403</v>
+        <v>4.966342596926262</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>1.0845394550111283</v>
+        <v>1.0958367410008274</v>
       </c>
       <c r="C269" t="n">
-        <v>1.1188911750281736</v>
+        <v>1.1188499894628776</v>
       </c>
       <c r="D269" t="n">
-        <v>1.0560106421058122</v>
+        <v>1.0556049725012056</v>
       </c>
       <c r="E269" t="n">
-        <v>1.0761000232972788</v>
+        <v>1.1018358482360404</v>
       </c>
       <c r="F269" t="n">
-        <v>1.0845394550111283</v>
+        <v>0.9893053703802829</v>
       </c>
       <c r="G269" t="n">
-        <v>1.1188911750281736</v>
+        <v>1.015938380849266</v>
       </c>
       <c r="H269" t="n">
-        <v>1.0560106421058122</v>
+        <v>0.9697099216985074</v>
       </c>
       <c r="I269" t="n">
-        <v>1.0761000232972788</v>
+        <v>0.9914713370959868</v>
       </c>
       <c r="J269" t="n">
-        <v>1.0845394550111283</v>
+        <v>1.1079009995397298</v>
       </c>
       <c r="K269" t="n">
-        <v>1.1188911750281736</v>
+        <v>1.0583804461540687</v>
       </c>
       <c r="L269" t="n">
-        <v>1.0560106421058122</v>
+        <v>1.0912157433161302</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.5998217790050828</v>
+        <v>1.520622681034534</v>
       </c>
       <c r="C272" t="n">
-        <v>1.650494559580862</v>
+        <v>1.5525566966286055</v>
       </c>
       <c r="D272" t="n">
-        <v>1.5577384633597176</v>
+        <v>1.4647956245126088</v>
       </c>
       <c r="E272" t="n">
-        <v>1.5873726361031275</v>
+        <v>1.5289472591277016</v>
       </c>
       <c r="F272" t="n">
-        <v>1.5998217790050828</v>
+        <v>1.3727958995932157</v>
       </c>
       <c r="G272" t="n">
-        <v>1.650494559580862</v>
+        <v>1.4097528278181064</v>
       </c>
       <c r="H272" t="n">
-        <v>1.5577384633597176</v>
+        <v>1.3456045465424482</v>
       </c>
       <c r="I272" t="n">
-        <v>1.5873726361031275</v>
+        <v>1.3758014733169595</v>
       </c>
       <c r="J272" t="n">
-        <v>1.5998217790050828</v>
+        <v>1.5373634823580644</v>
       </c>
       <c r="K272" t="n">
-        <v>1.650494559580862</v>
+        <v>1.468646972098658</v>
       </c>
       <c r="L272" t="n">
-        <v>1.5577384633597176</v>
+        <v>1.5142104175782634</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>1.203156352202226</v>
+        <v>1.2156892308709994</v>
       </c>
       <c r="C274" t="n">
-        <v>1.1589519399946495</v>
+        <v>1.1746186494119062</v>
       </c>
       <c r="D274" t="n">
-        <v>1.2427787448262388</v>
+        <v>1.2650835185192624</v>
       </c>
       <c r="E274" t="n">
-        <v>1.294393629176397</v>
+        <v>1.3095560082698166</v>
       </c>
       <c r="F274" t="n">
-        <v>1.203156352202226</v>
+        <v>1.2620222143051307</v>
       </c>
       <c r="G274" t="n">
-        <v>1.1589519399946495</v>
+        <v>1.275916037815109</v>
       </c>
       <c r="H274" t="n">
-        <v>1.2427787448262388</v>
+        <v>1.1621853601565366</v>
       </c>
       <c r="I274" t="n">
-        <v>1.294393629176397</v>
+        <v>1.1615382634014426</v>
       </c>
       <c r="J274" t="n">
-        <v>1.203156352202226</v>
+        <v>1.2751361377599064</v>
       </c>
       <c r="K274" t="n">
-        <v>1.1589519399946495</v>
+        <v>1.1167680520530034</v>
       </c>
       <c r="L274" t="n">
-        <v>1.2427787448262388</v>
+        <v>1.2188856097421192</v>
       </c>
     </row>
     <row r="275">
@@ -10518,34 +10518,34 @@
         <v>5.190268629724949</v>
       </c>
       <c r="C275" t="n">
-        <v>5.451473743667988</v>
+        <v>5.408566179706688</v>
       </c>
       <c r="D275" t="n">
-        <v>5.359972927978175</v>
+        <v>5.321708413067599</v>
       </c>
       <c r="E275" t="n">
-        <v>4.767780627585026</v>
+        <v>4.7055411916061765</v>
       </c>
       <c r="F275" t="n">
-        <v>5.190268629724949</v>
+        <v>4.832218688333103</v>
       </c>
       <c r="G275" t="n">
-        <v>5.451473743667988</v>
+        <v>5.305323842636928</v>
       </c>
       <c r="H275" t="n">
-        <v>5.359972927978175</v>
+        <v>5.2090966913622605</v>
       </c>
       <c r="I275" t="n">
-        <v>4.767780627585026</v>
+        <v>5.240782194753518</v>
       </c>
       <c r="J275" t="n">
-        <v>5.190268629724949</v>
+        <v>5.020889230854342</v>
       </c>
       <c r="K275" t="n">
-        <v>5.451473743667988</v>
+        <v>4.595117824525201</v>
       </c>
       <c r="L275" t="n">
-        <v>5.359972927978175</v>
+        <v>5.224891405605202</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.34856950417218246</v>
       </c>
       <c r="C280" t="n">
-        <v>0.35440102746295626</v>
+        <v>0.35478355682421586</v>
       </c>
       <c r="D280" t="n">
-        <v>0.3876987955655416</v>
+        <v>0.38950243706746907</v>
       </c>
       <c r="E280" t="n">
-        <v>0.38279213246315824</v>
+        <v>0.38363643643664813</v>
       </c>
       <c r="F280" t="n">
-        <v>0.34856950417218246</v>
+        <v>0.3409188888781471</v>
       </c>
       <c r="G280" t="n">
-        <v>0.35440102746295626</v>
+        <v>0.3850281043804191</v>
       </c>
       <c r="H280" t="n">
-        <v>0.3876987955655416</v>
+        <v>0.37111683222650066</v>
       </c>
       <c r="I280" t="n">
-        <v>0.38279213246315824</v>
+        <v>0.3478080197843859</v>
       </c>
       <c r="J280" t="n">
-        <v>0.34856950417218246</v>
+        <v>0.38526103092714903</v>
       </c>
       <c r="K280" t="n">
-        <v>0.35440102746295626</v>
+        <v>0.3861955637777987</v>
       </c>
       <c r="L280" t="n">
-        <v>0.3876987955655416</v>
+        <v>0.3933517505532995</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>5.422858042831102</v>
+        <v>5.477086623259414</v>
       </c>
       <c r="C282" t="n">
-        <v>5.695768436112555</v>
+        <v>5.707447453534714</v>
       </c>
       <c r="D282" t="n">
-        <v>5.600167231302583</v>
+        <v>5.615789863971695</v>
       </c>
       <c r="E282" t="n">
-        <v>4.981437256384151</v>
+        <v>4.965572796779911</v>
       </c>
       <c r="F282" t="n">
-        <v>5.422858042831102</v>
+        <v>5.099250583478169</v>
       </c>
       <c r="G282" t="n">
-        <v>5.695768436112555</v>
+        <v>5.598499870344056</v>
       </c>
       <c r="H282" t="n">
-        <v>5.600167231302583</v>
+        <v>5.496955137182765</v>
       </c>
       <c r="I282" t="n">
-        <v>4.981437256384151</v>
+        <v>5.530391604378623</v>
       </c>
       <c r="J282" t="n">
-        <v>5.422858042831102</v>
+        <v>5.298347196460404</v>
       </c>
       <c r="K282" t="n">
-        <v>5.695768436112555</v>
+        <v>4.849047354672587</v>
       </c>
       <c r="L282" t="n">
-        <v>5.600167231302583</v>
+        <v>5.5136226787436735</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>1.874010592831977</v>
+        <v>1.8929399927595727</v>
       </c>
       <c r="C284" t="n">
-        <v>1.7686235665730181</v>
+        <v>1.7693974859887482</v>
       </c>
       <c r="D284" t="n">
-        <v>2.035806929156983</v>
+        <v>2.033751913222593</v>
       </c>
       <c r="E284" t="n">
-        <v>2.0120582316922815</v>
+        <v>2.001091288722281</v>
       </c>
       <c r="F284" t="n">
-        <v>1.874010592831977</v>
+        <v>1.9706610700917568</v>
       </c>
       <c r="G284" t="n">
-        <v>1.7686235665730181</v>
+        <v>1.734350534185558</v>
       </c>
       <c r="H284" t="n">
-        <v>2.035806929156983</v>
+        <v>1.773271371824452</v>
       </c>
       <c r="I284" t="n">
-        <v>2.0120582316922815</v>
+        <v>1.9815087454306302</v>
       </c>
       <c r="J284" t="n">
-        <v>1.874010592831977</v>
+        <v>1.803879063252112</v>
       </c>
       <c r="K284" t="n">
-        <v>1.7686235665730181</v>
+        <v>1.8241930169176888</v>
       </c>
       <c r="L284" t="n">
-        <v>2.035806929156983</v>
+        <v>1.8048840101619057</v>
       </c>
     </row>
     <row r="285">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>3.915694596121809</v>
+        <v>3.954851542083027</v>
       </c>
       <c r="C299" t="n">
-        <v>3.6954912467907137</v>
+        <v>3.6967386197060654</v>
       </c>
       <c r="D299" t="n">
-        <v>4.253763677611219</v>
+        <v>4.249044830257472</v>
       </c>
       <c r="E299" t="n">
-        <v>4.204141414704512</v>
+        <v>4.180808160492705</v>
       </c>
       <c r="F299" t="n">
-        <v>3.915694596121809</v>
+        <v>4.1172313976068375</v>
       </c>
       <c r="G299" t="n">
-        <v>3.6954912467907137</v>
+        <v>3.6235162820121514</v>
       </c>
       <c r="H299" t="n">
-        <v>4.253763677611219</v>
+        <v>3.704832190252299</v>
       </c>
       <c r="I299" t="n">
-        <v>4.204141414704512</v>
+        <v>4.139895056098947</v>
       </c>
       <c r="J299" t="n">
-        <v>3.915694596121809</v>
+        <v>3.7687797406793013</v>
       </c>
       <c r="K299" t="n">
-        <v>3.6954912467907137</v>
+        <v>3.811220954498758</v>
       </c>
       <c r="L299" t="n">
-        <v>4.253763677611219</v>
+        <v>3.770879340165345</v>
       </c>
     </row>
     <row r="300">
@@ -11544,34 +11544,34 @@
         <v>1.1817609776324787</v>
       </c>
       <c r="C302" t="n">
-        <v>1.1153033622604331</v>
+        <v>1.1046334859322173</v>
       </c>
       <c r="D302" t="n">
-        <v>1.283790601864136</v>
+        <v>1.2696697509824968</v>
       </c>
       <c r="E302" t="n">
-        <v>1.2688145478115431</v>
+        <v>1.2492797482950324</v>
       </c>
       <c r="F302" t="n">
-        <v>1.1817609776324787</v>
+        <v>1.2302821862719737</v>
       </c>
       <c r="G302" t="n">
-        <v>1.1153033622604331</v>
+        <v>1.0827537009499173</v>
       </c>
       <c r="H302" t="n">
-        <v>1.283790601864136</v>
+        <v>1.107051949871882</v>
       </c>
       <c r="I302" t="n">
-        <v>1.2688145478115431</v>
+        <v>1.2370543816202364</v>
       </c>
       <c r="J302" t="n">
-        <v>1.1817609776324787</v>
+        <v>1.1261603080253244</v>
       </c>
       <c r="K302" t="n">
-        <v>1.1153033622604331</v>
+        <v>1.1388422936324942</v>
       </c>
       <c r="L302" t="n">
-        <v>1.283790601864136</v>
+        <v>1.1267876956060872</v>
       </c>
     </row>
     <row r="303">
@@ -11658,34 +11658,34 @@
         <v>2.472069472582802</v>
       </c>
       <c r="C305" t="n">
-        <v>2.3330499540072136</v>
+        <v>2.3107301481865323</v>
       </c>
       <c r="D305" t="n">
-        <v>2.6855003813165435</v>
+        <v>2.655961646282892</v>
       </c>
       <c r="E305" t="n">
-        <v>2.6541726875240697</v>
+        <v>2.6133087713415115</v>
       </c>
       <c r="F305" t="n">
-        <v>2.472069472582802</v>
+        <v>2.573568676669586</v>
       </c>
       <c r="G305" t="n">
-        <v>2.3330499540072136</v>
+        <v>2.2649608686577904</v>
       </c>
       <c r="H305" t="n">
-        <v>2.6855003813165435</v>
+        <v>2.3157892176506167</v>
       </c>
       <c r="I305" t="n">
-        <v>2.6541726875240697</v>
+        <v>2.5877351093913257</v>
       </c>
       <c r="J305" t="n">
-        <v>2.472069472582802</v>
+        <v>2.3557610814677297</v>
       </c>
       <c r="K305" t="n">
-        <v>2.3330499540072136</v>
+        <v>2.382289922802486</v>
       </c>
       <c r="L305" t="n">
-        <v>2.6855003813165435</v>
+        <v>2.3570734836499274</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>2.6881754858652696</v>
       </c>
       <c r="C310" t="n">
-        <v>2.537003010319411</v>
+        <v>2.512732027840208</v>
       </c>
       <c r="D310" t="n">
-        <v>2.920264326064632</v>
+        <v>2.888143342297145</v>
       </c>
       <c r="E310" t="n">
-        <v>2.886197994428072</v>
+        <v>2.8417617927125773</v>
       </c>
       <c r="F310" t="n">
-        <v>2.6881754858652696</v>
+        <v>2.7985476559385725</v>
       </c>
       <c r="G310" t="n">
-        <v>2.537003010319411</v>
+        <v>2.4629616404787513</v>
       </c>
       <c r="H310" t="n">
-        <v>2.920264326064632</v>
+        <v>2.5182333564498904</v>
       </c>
       <c r="I310" t="n">
-        <v>2.886197994428072</v>
+        <v>2.813952505028413</v>
       </c>
       <c r="J310" t="n">
-        <v>2.6881754858652696</v>
+        <v>2.561699523412117</v>
       </c>
       <c r="K310" t="n">
-        <v>2.537003010319411</v>
+        <v>2.590547491373953</v>
       </c>
       <c r="L310" t="n">
-        <v>2.920264326064632</v>
+        <v>2.563126654572025</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>0.8509253783742995</v>
+        <v>0.8598824876203448</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8754055954450741</v>
+        <v>0.8899483083620302</v>
       </c>
       <c r="D312" t="n">
-        <v>0.8515277823795838</v>
+        <v>0.8565066165751049</v>
       </c>
       <c r="E312" t="n">
-        <v>0.9311084832412463</v>
+        <v>0.9238664834856418</v>
       </c>
       <c r="F312" t="n">
-        <v>0.8509253783742995</v>
+        <v>0.9261075188074698</v>
       </c>
       <c r="G312" t="n">
-        <v>0.8754055954450741</v>
+        <v>0.814480691892215</v>
       </c>
       <c r="H312" t="n">
-        <v>0.8515277823795838</v>
+        <v>0.9289241475500789</v>
       </c>
       <c r="I312" t="n">
-        <v>0.9311084832412463</v>
+        <v>0.9403640992621711</v>
       </c>
       <c r="J312" t="n">
-        <v>0.8509253783742995</v>
+        <v>0.9233079192594081</v>
       </c>
       <c r="K312" t="n">
-        <v>0.8754055954450741</v>
+        <v>0.8340531389666211</v>
       </c>
       <c r="L312" t="n">
-        <v>0.8515277823795838</v>
+        <v>0.9586637149282474</v>
       </c>
     </row>
     <row r="313">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>1.3114932768200747</v>
+        <v>1.3247406836566409</v>
       </c>
       <c r="C314" t="n">
-        <v>1.4874951148045283</v>
+        <v>1.5126012208049573</v>
       </c>
       <c r="D314" t="n">
-        <v>1.4687253868887407</v>
+        <v>1.5052406314590911</v>
       </c>
       <c r="E314" t="n">
-        <v>1.3770459815785996</v>
+        <v>1.3878943332269187</v>
       </c>
       <c r="F314" t="n">
-        <v>1.3114932768200747</v>
+        <v>1.442083680543566</v>
       </c>
       <c r="G314" t="n">
-        <v>1.4874951148045283</v>
+        <v>1.4970451275849164</v>
       </c>
       <c r="H314" t="n">
-        <v>1.4687253868887407</v>
+        <v>1.351510429435652</v>
       </c>
       <c r="I314" t="n">
-        <v>1.3770459815785996</v>
+        <v>1.5284839999926338</v>
       </c>
       <c r="J314" t="n">
-        <v>1.3114932768200747</v>
+        <v>1.5006765300324112</v>
       </c>
       <c r="K314" t="n">
-        <v>1.4874951148045283</v>
+        <v>1.553431008787205</v>
       </c>
       <c r="L314" t="n">
-        <v>1.4687253868887407</v>
+        <v>1.4961400229315127</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3.3256567189602557</v>
+        <v>3.3589132861498583</v>
       </c>
       <c r="C315" t="n">
-        <v>3.421332321606597</v>
+        <v>3.476357804676715</v>
       </c>
       <c r="D315" t="n">
-        <v>3.3280110839593697</v>
+        <v>3.34572630040537</v>
       </c>
       <c r="E315" t="n">
-        <v>3.6390349401590587</v>
+        <v>3.608850570496314</v>
       </c>
       <c r="F315" t="n">
-        <v>3.3256567189602557</v>
+        <v>3.617604607734647</v>
       </c>
       <c r="G315" t="n">
-        <v>3.421332321606597</v>
+        <v>3.181562663149836</v>
       </c>
       <c r="H315" t="n">
-        <v>3.3280110839593697</v>
+        <v>3.628607054978204</v>
       </c>
       <c r="I315" t="n">
-        <v>3.6390349401590587</v>
+        <v>3.673294330683748</v>
       </c>
       <c r="J315" t="n">
-        <v>3.3256567189602557</v>
+        <v>3.6066686807291943</v>
       </c>
       <c r="K315" t="n">
-        <v>3.421332321606597</v>
+        <v>3.258017473507265</v>
       </c>
       <c r="L315" t="n">
-        <v>3.3280110839593697</v>
+        <v>3.7447771473210825</v>
       </c>
     </row>
     <row r="316">
@@ -12076,34 +12076,34 @@
         <v>1.2485938379106403</v>
       </c>
       <c r="C316" t="n">
-        <v>1.2845145531250346</v>
+        <v>1.2922509643787967</v>
       </c>
       <c r="D316" t="n">
-        <v>1.2494777672751254</v>
+        <v>1.2436918985813112</v>
       </c>
       <c r="E316" t="n">
-        <v>1.3662494316745555</v>
+        <v>1.3415019086208588</v>
       </c>
       <c r="F316" t="n">
-        <v>1.2485938379106403</v>
+        <v>1.3447560077956404</v>
       </c>
       <c r="G316" t="n">
-        <v>1.2845145531250346</v>
+        <v>1.1826680827146003</v>
       </c>
       <c r="H316" t="n">
-        <v>1.2494777672751254</v>
+        <v>1.348845898382244</v>
       </c>
       <c r="I316" t="n">
-        <v>1.3662494316745555</v>
+        <v>1.3654572998462315</v>
       </c>
       <c r="J316" t="n">
-        <v>1.2485938379106403</v>
+        <v>1.3406908444801264</v>
       </c>
       <c r="K316" t="n">
-        <v>1.2845145531250346</v>
+        <v>1.2110882879888887</v>
       </c>
       <c r="L316" t="n">
-        <v>1.2494777672751254</v>
+        <v>1.3920292880954956</v>
       </c>
     </row>
     <row r="317">
@@ -12190,34 +12190,34 @@
         <v>2.1296545120859824</v>
       </c>
       <c r="C319" t="n">
-        <v>2.1909224047432945</v>
+        <v>2.204117955316808</v>
       </c>
       <c r="D319" t="n">
-        <v>2.131162179433269</v>
+        <v>2.121293556830792</v>
       </c>
       <c r="E319" t="n">
-        <v>2.3303328740349465</v>
+        <v>2.2881224509701896</v>
       </c>
       <c r="F319" t="n">
-        <v>2.1296545120859824</v>
+        <v>2.2936727802926096</v>
       </c>
       <c r="G319" t="n">
-        <v>2.1909224047432945</v>
+        <v>2.017208752902306</v>
       </c>
       <c r="H319" t="n">
-        <v>2.131162179433269</v>
+        <v>2.3006486708322216</v>
       </c>
       <c r="I319" t="n">
-        <v>2.3303328740349465</v>
+        <v>2.3289817804518</v>
       </c>
       <c r="J319" t="n">
-        <v>2.1296545120859824</v>
+        <v>2.2867390656334554</v>
       </c>
       <c r="K319" t="n">
-        <v>2.1909224047432945</v>
+        <v>2.065683458254111</v>
       </c>
       <c r="L319" t="n">
-        <v>2.131162179433269</v>
+        <v>2.374304088597126</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2.2287820381468046</v>
+        <v>2.2064942177653366</v>
       </c>
       <c r="C323" t="n">
-        <v>2.1198849643205016</v>
+        <v>2.087241682645905</v>
       </c>
       <c r="D323" t="n">
-        <v>2.205499104568312</v>
+        <v>2.151996470158998</v>
       </c>
       <c r="E323" t="n">
-        <v>2.210765603790421</v>
+        <v>2.1598029875233182</v>
       </c>
       <c r="F323" t="n">
-        <v>2.2287820381468046</v>
+        <v>2.1997008241575484</v>
       </c>
       <c r="G323" t="n">
-        <v>2.1198849643205016</v>
+        <v>2.1835661004675306</v>
       </c>
       <c r="H323" t="n">
-        <v>2.205499104568312</v>
+        <v>2.1849016153759897</v>
       </c>
       <c r="I323" t="n">
-        <v>2.210765603790421</v>
+        <v>1.912373736683514</v>
       </c>
       <c r="J323" t="n">
-        <v>2.2287820381468046</v>
+        <v>2.0114381420783847</v>
       </c>
       <c r="K323" t="n">
-        <v>2.1198849643205016</v>
+        <v>1.9890390533633129</v>
       </c>
       <c r="L323" t="n">
-        <v>2.205499104568312</v>
+        <v>1.9552896214733766</v>
       </c>
     </row>
     <row r="324">
@@ -12494,34 +12494,34 @@
         <v>1.558174630167917</v>
       </c>
       <c r="C327" t="n">
-        <v>1.7976596907186002</v>
+        <v>1.7868975129024705</v>
       </c>
       <c r="D327" t="n">
-        <v>1.747489308728598</v>
+        <v>1.7663708789471535</v>
       </c>
       <c r="E327" t="n">
-        <v>1.5992250050876096</v>
+        <v>1.6276197398941301</v>
       </c>
       <c r="F327" t="n">
-        <v>1.558174630167917</v>
+        <v>1.7599864054474932</v>
       </c>
       <c r="G327" t="n">
-        <v>1.7976596907186002</v>
+        <v>1.6450323383639023</v>
       </c>
       <c r="H327" t="n">
-        <v>1.747489308728598</v>
+        <v>1.6385739942069761</v>
       </c>
       <c r="I327" t="n">
-        <v>1.5992250050876096</v>
+        <v>1.7858052768715318</v>
       </c>
       <c r="J327" t="n">
-        <v>1.558174630167917</v>
+        <v>1.5640136149708153</v>
       </c>
       <c r="K327" t="n">
-        <v>1.7976596907186002</v>
+        <v>1.5991118945708411</v>
       </c>
       <c r="L327" t="n">
-        <v>1.747489308728598</v>
+        <v>1.6267134925016569</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>2.200537442180676</v>
       </c>
       <c r="C329" t="n">
-        <v>2.39073133651005</v>
+        <v>2.389573325091748</v>
       </c>
       <c r="D329" t="n">
-        <v>2.1583387105070435</v>
+        <v>2.1572718225085965</v>
       </c>
       <c r="E329" t="n">
-        <v>2.40327525871738</v>
+        <v>2.395369745160397</v>
       </c>
       <c r="F329" t="n">
-        <v>2.200537442180676</v>
+        <v>2.4144038560599217</v>
       </c>
       <c r="G329" t="n">
-        <v>2.39073133651005</v>
+        <v>2.4795760879678044</v>
       </c>
       <c r="H329" t="n">
-        <v>2.1583387105070435</v>
+        <v>2.439755840963958</v>
       </c>
       <c r="I329" t="n">
-        <v>2.40327525871738</v>
+        <v>2.1066478435335023</v>
       </c>
       <c r="J329" t="n">
-        <v>2.200537442180676</v>
+        <v>2.432244277325529</v>
       </c>
       <c r="K329" t="n">
-        <v>2.39073133651005</v>
+        <v>2.402654933042343</v>
       </c>
       <c r="L329" t="n">
-        <v>2.1583387105070435</v>
+        <v>2.3018442344060674</v>
       </c>
     </row>
     <row r="330">
@@ -12646,34 +12646,34 @@
         <v>3.3165133994328517</v>
       </c>
       <c r="C331" t="n">
-        <v>3.344300211872237</v>
+        <v>3.340694371073527</v>
       </c>
       <c r="D331" t="n">
-        <v>3.398749503995542</v>
+        <v>3.353861523761033</v>
       </c>
       <c r="E331" t="n">
-        <v>3.532760383924247</v>
+        <v>3.471129407242289</v>
       </c>
       <c r="F331" t="n">
-        <v>3.3165133994328517</v>
+        <v>3.739145050647026</v>
       </c>
       <c r="G331" t="n">
-        <v>3.344300211872237</v>
+        <v>3.253117457123197</v>
       </c>
       <c r="H331" t="n">
-        <v>3.398749503995542</v>
+        <v>3.176777633817383</v>
       </c>
       <c r="I331" t="n">
-        <v>3.532760383924247</v>
+        <v>3.6121637769247683</v>
       </c>
       <c r="J331" t="n">
-        <v>3.3165133994328517</v>
+        <v>3.679097012507569</v>
       </c>
       <c r="K331" t="n">
-        <v>3.344300211872237</v>
+        <v>3.6034229056458704</v>
       </c>
       <c r="L331" t="n">
-        <v>3.398749503995542</v>
+        <v>3.6677697432466894</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>2.7533371210552717</v>
       </c>
       <c r="C333" t="n">
-        <v>2.7764054620962706</v>
+        <v>2.773411928186412</v>
       </c>
       <c r="D333" t="n">
-        <v>2.8216087340757885</v>
+        <v>2.7843431700982677</v>
       </c>
       <c r="E333" t="n">
-        <v>2.9328632613139662</v>
+        <v>2.8816978247641414</v>
       </c>
       <c r="F333" t="n">
-        <v>2.7533371210552717</v>
+        <v>3.1042018014210626</v>
       </c>
       <c r="G333" t="n">
-        <v>2.7764054620962706</v>
+        <v>2.7007064272322645</v>
       </c>
       <c r="H333" t="n">
-        <v>2.8216087340757885</v>
+        <v>2.63732984948087</v>
       </c>
       <c r="I333" t="n">
-        <v>2.9328632613139662</v>
+        <v>2.998783184786449</v>
       </c>
       <c r="J333" t="n">
-        <v>2.7533371210552717</v>
+        <v>3.0543505050312505</v>
       </c>
       <c r="K333" t="n">
-        <v>2.7764054620962706</v>
+        <v>2.99152659858762</v>
       </c>
       <c r="L333" t="n">
-        <v>2.8216087340757885</v>
+        <v>3.0449467164195414</v>
       </c>
     </row>
     <row r="334">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>2.092319770680863</v>
+        <v>2.1134543138190534</v>
       </c>
       <c r="C341" t="n">
-        <v>1.9259580305278259</v>
+        <v>1.946354918466782</v>
       </c>
       <c r="D341" t="n">
-        <v>1.878035660040784</v>
+        <v>1.9133297384717676</v>
       </c>
       <c r="E341" t="n">
-        <v>2.078294592316944</v>
+        <v>2.138014333234063</v>
       </c>
       <c r="F341" t="n">
-        <v>2.092319770680863</v>
+        <v>1.8643484972842541</v>
       </c>
       <c r="G341" t="n">
-        <v>1.9259580305278259</v>
+        <v>2.105815321793006</v>
       </c>
       <c r="H341" t="n">
-        <v>1.878035660040784</v>
+        <v>1.9682733299811441</v>
       </c>
       <c r="I341" t="n">
-        <v>2.078294592316944</v>
+        <v>2.0424501510804127</v>
       </c>
       <c r="J341" t="n">
-        <v>2.092319770680863</v>
+        <v>1.960545952066762</v>
       </c>
       <c r="K341" t="n">
-        <v>1.9259580305278259</v>
+        <v>1.947439239140225</v>
       </c>
       <c r="L341" t="n">
-        <v>1.878035660040784</v>
+        <v>2.1367074780436783</v>
       </c>
     </row>
     <row r="342">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>3.308876151134457</v>
+        <v>3.342640193492972</v>
       </c>
       <c r="C348" t="n">
-        <v>3.0457852019558413</v>
+        <v>3.078355722539087</v>
       </c>
       <c r="D348" t="n">
-        <v>2.9699988947993576</v>
+        <v>3.0261230845649085</v>
       </c>
       <c r="E348" t="n">
-        <v>3.286696186650024</v>
+        <v>3.381484330086221</v>
       </c>
       <c r="F348" t="n">
-        <v>3.308876151134457</v>
+        <v>2.9486543337856697</v>
       </c>
       <c r="G348" t="n">
-        <v>3.0457852019558413</v>
+        <v>3.33055836062955</v>
       </c>
       <c r="H348" t="n">
-        <v>2.9699988947993576</v>
+        <v>3.1130218910133105</v>
       </c>
       <c r="I348" t="n">
-        <v>3.286696186650024</v>
+        <v>3.230339981123292</v>
       </c>
       <c r="J348" t="n">
-        <v>3.308876151134457</v>
+        <v>3.10080026699332</v>
       </c>
       <c r="K348" t="n">
-        <v>3.0457852019558413</v>
+        <v>3.08007068455269</v>
       </c>
       <c r="L348" t="n">
-        <v>2.9699988947993576</v>
+        <v>3.3794174073910432</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>4.564478882074891</v>
+        <v>4.610584729368577</v>
       </c>
       <c r="C351" t="n">
-        <v>4.20155412250687</v>
+        <v>4.246050745614875</v>
       </c>
       <c r="D351" t="n">
-        <v>4.097009563337556</v>
+        <v>4.174005000611514</v>
       </c>
       <c r="E351" t="n">
-        <v>4.533882397084162</v>
+        <v>4.664163389539953</v>
       </c>
       <c r="F351" t="n">
-        <v>4.564478882074891</v>
+        <v>4.067150472851893</v>
       </c>
       <c r="G351" t="n">
-        <v>4.20155412250687</v>
+        <v>4.593919964129616</v>
       </c>
       <c r="H351" t="n">
-        <v>4.097009563337556</v>
+        <v>4.293866632979634</v>
       </c>
       <c r="I351" t="n">
-        <v>4.533882397084162</v>
+        <v>4.455686321438096</v>
       </c>
       <c r="J351" t="n">
-        <v>4.564478882074891</v>
+        <v>4.277009050406329</v>
       </c>
       <c r="K351" t="n">
-        <v>4.20155412250687</v>
+        <v>4.248416234334469</v>
       </c>
       <c r="L351" t="n">
-        <v>4.097009563337556</v>
+        <v>4.6613124329117985</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>3.13130553647179</v>
+        <v>3.099992481107072</v>
       </c>
       <c r="C353" t="n">
-        <v>2.882333345271412</v>
+        <v>2.854892851650909</v>
       </c>
       <c r="D353" t="n">
-        <v>2.810614105158274</v>
+        <v>2.806451866197689</v>
       </c>
       <c r="E353" t="n">
-        <v>3.110315858279984</v>
+        <v>3.1360168583668737</v>
       </c>
       <c r="F353" t="n">
-        <v>3.13130553647179</v>
+        <v>2.7346066985951762</v>
       </c>
       <c r="G353" t="n">
-        <v>2.882333345271412</v>
+        <v>3.0887876882288223</v>
       </c>
       <c r="H353" t="n">
-        <v>2.810614105158274</v>
+        <v>2.887042546322828</v>
       </c>
       <c r="I353" t="n">
-        <v>3.110315858279984</v>
+        <v>2.995844324613761</v>
       </c>
       <c r="J353" t="n">
-        <v>3.13130553647179</v>
+        <v>2.8757081099564368</v>
       </c>
       <c r="K353" t="n">
-        <v>2.882333345271412</v>
+        <v>2.8564833217702783</v>
       </c>
       <c r="L353" t="n">
-        <v>2.810614105158274</v>
+        <v>3.134099976966789</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1.9513976184767152</v>
+        <v>1.9711087055320355</v>
       </c>
       <c r="C356" t="n">
-        <v>2.251319442238531</v>
+        <v>2.260445764795975</v>
       </c>
       <c r="D356" t="n">
-        <v>2.188487997009054</v>
+        <v>2.234479338375443</v>
       </c>
       <c r="E356" t="n">
-        <v>2.002807519719448</v>
+        <v>2.058957562577805</v>
       </c>
       <c r="F356" t="n">
-        <v>1.9513976184767152</v>
+        <v>2.2264029064712325</v>
       </c>
       <c r="G356" t="n">
-        <v>2.251319442238531</v>
+        <v>2.080984698538813</v>
       </c>
       <c r="H356" t="n">
-        <v>2.188487997009054</v>
+        <v>2.072814819409368</v>
       </c>
       <c r="I356" t="n">
-        <v>2.002807519719448</v>
+        <v>2.2590640737406873</v>
       </c>
       <c r="J356" t="n">
-        <v>1.9513976184767152</v>
+        <v>1.9784950880039551</v>
       </c>
       <c r="K356" t="n">
-        <v>2.251319442238531</v>
+        <v>2.0228948126107875</v>
       </c>
       <c r="L356" t="n">
-        <v>2.188487997009054</v>
+        <v>2.0578111492746456</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>2.1917620168728473</v>
+        <v>2.214126935412366</v>
       </c>
       <c r="C362" t="n">
-        <v>2.528626864471422</v>
+        <v>2.539136395586393</v>
       </c>
       <c r="D362" t="n">
-        <v>2.4580561238825847</v>
+        <v>2.509968565322773</v>
       </c>
       <c r="E362" t="n">
-        <v>2.249504358960445</v>
+        <v>2.312806688631622</v>
       </c>
       <c r="F362" t="n">
-        <v>2.1917620168728473</v>
+        <v>2.50089638915565</v>
       </c>
       <c r="G362" t="n">
-        <v>2.528626864471422</v>
+        <v>2.3375495528401657</v>
       </c>
       <c r="H362" t="n">
-        <v>2.4580561238825847</v>
+        <v>2.3283724083281463</v>
       </c>
       <c r="I362" t="n">
-        <v>2.249504358960445</v>
+        <v>2.5375843556743654</v>
       </c>
       <c r="J362" t="n">
-        <v>2.1917620168728473</v>
+        <v>2.22242398586952</v>
       </c>
       <c r="K362" t="n">
-        <v>2.528626864471422</v>
+        <v>2.2722977578745724</v>
       </c>
       <c r="L362" t="n">
-        <v>2.4580561238825847</v>
+        <v>2.3115189338941406</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>2.4440988206283234</v>
+        <v>2.4685398088346067</v>
       </c>
       <c r="C364" t="n">
-        <v>2.772095839178984</v>
+        <v>2.8186016890054644</v>
       </c>
       <c r="D364" t="n">
-        <v>2.7371165749514748</v>
+        <v>2.80488586670083</v>
       </c>
       <c r="E364" t="n">
-        <v>2.5662628387144704</v>
+        <v>2.5862211784496036</v>
       </c>
       <c r="F364" t="n">
-        <v>2.4440988206283234</v>
+        <v>2.6871983453141945</v>
       </c>
       <c r="G364" t="n">
-        <v>2.772095839178984</v>
+        <v>2.7896142533077724</v>
       </c>
       <c r="H364" t="n">
-        <v>2.7371165749514748</v>
+        <v>2.518422917236974</v>
       </c>
       <c r="I364" t="n">
-        <v>2.5662628387144704</v>
+        <v>2.848197875778778</v>
       </c>
       <c r="J364" t="n">
-        <v>2.4440988206283234</v>
+        <v>2.796381058022184</v>
       </c>
       <c r="K364" t="n">
-        <v>2.772095839178984</v>
+        <v>2.8946844712917663</v>
       </c>
       <c r="L364" t="n">
-        <v>2.7371165749514748</v>
+        <v>2.787927668985533</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>8.244479955950553</v>
+        <v>8.164436461232587</v>
       </c>
       <c r="C366" t="n">
-        <v>8.659391106013567</v>
+        <v>8.50782455992587</v>
       </c>
       <c r="D366" t="n">
-        <v>8.514046674978257</v>
+        <v>8.371194884762605</v>
       </c>
       <c r="E366" t="n">
-        <v>7.573379072014844</v>
+        <v>7.401946761398593</v>
       </c>
       <c r="F366" t="n">
-        <v>8.244479955950553</v>
+        <v>7.6012139760417385</v>
       </c>
       <c r="G366" t="n">
-        <v>8.659391106013567</v>
+        <v>8.345421501192495</v>
       </c>
       <c r="H366" t="n">
-        <v>8.514046674978257</v>
+        <v>8.194053524219584</v>
       </c>
       <c r="I366" t="n">
-        <v>7.573379072014844</v>
+        <v>8.243895699574155</v>
       </c>
       <c r="J366" t="n">
-        <v>8.244479955950553</v>
+        <v>7.897997970553902</v>
       </c>
       <c r="K366" t="n">
-        <v>8.659391106013567</v>
+        <v>7.228247743354557</v>
       </c>
       <c r="L366" t="n">
-        <v>8.514046674978257</v>
+        <v>8.218899047651895</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>1.9640272458846102</v>
       </c>
       <c r="C381" t="n">
-        <v>2.133779408835137</v>
+        <v>2.1327458586064543</v>
       </c>
       <c r="D381" t="n">
-        <v>1.9263639654695055</v>
+        <v>1.925411744863261</v>
       </c>
       <c r="E381" t="n">
-        <v>2.1449751306225555</v>
+        <v>2.1379192888445404</v>
       </c>
       <c r="F381" t="n">
-        <v>1.9640272458846102</v>
+        <v>2.1549076443668214</v>
       </c>
       <c r="G381" t="n">
-        <v>2.133779408835137</v>
+        <v>2.2130752704606302</v>
       </c>
       <c r="H381" t="n">
-        <v>1.9263639654695055</v>
+        <v>2.1775348390395193</v>
       </c>
       <c r="I381" t="n">
-        <v>2.1449751306225555</v>
+        <v>1.8802287490658138</v>
       </c>
       <c r="J381" t="n">
-        <v>1.9640272458846102</v>
+        <v>2.1708306060815694</v>
       </c>
       <c r="K381" t="n">
-        <v>2.133779408835137</v>
+        <v>2.1444214765452645</v>
       </c>
       <c r="L381" t="n">
-        <v>1.9263639654695055</v>
+        <v>2.0544457483422036</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>1.9413660487930198</v>
+        <v>1.9219523883050897</v>
       </c>
       <c r="C387" t="n">
-        <v>2.1091595896167883</v>
+        <v>2.087056584976362</v>
       </c>
       <c r="D387" t="n">
-        <v>1.9041373321154553</v>
+        <v>1.8841641373686056</v>
       </c>
       <c r="E387" t="n">
-        <v>2.120226133736973</v>
+        <v>2.0921191861305233</v>
       </c>
       <c r="F387" t="n">
-        <v>1.9413660487930198</v>
+        <v>2.108743604420972</v>
       </c>
       <c r="G387" t="n">
-        <v>2.1091595896167883</v>
+        <v>2.1656651202132235</v>
       </c>
       <c r="H387" t="n">
-        <v>1.9041373321154553</v>
+        <v>2.1308860624408186</v>
       </c>
       <c r="I387" t="n">
-        <v>2.120226133736973</v>
+        <v>1.8399490854309888</v>
       </c>
       <c r="J387" t="n">
-        <v>1.9413660487930198</v>
+        <v>2.1243254525652255</v>
       </c>
       <c r="K387" t="n">
-        <v>2.1091595896167883</v>
+        <v>2.098482079113195</v>
       </c>
       <c r="L387" t="n">
-        <v>1.9041373321154553</v>
+        <v>2.0104338781161286</v>
       </c>
     </row>
     <row r="388">
@@ -14850,34 +14850,34 @@
         <v>0.3547466401817661</v>
       </c>
       <c r="C389" t="n">
-        <v>0.3854076249499097</v>
+        <v>0.38522094298210474</v>
       </c>
       <c r="D389" t="n">
-        <v>0.3479438210184992</v>
+        <v>0.34777182897435377</v>
       </c>
       <c r="E389" t="n">
-        <v>0.387429819243201</v>
+        <v>0.3861553785908884</v>
       </c>
       <c r="F389" t="n">
-        <v>0.3547466401817661</v>
+        <v>0.38922385030194556</v>
       </c>
       <c r="G389" t="n">
-        <v>0.3854076249499097</v>
+        <v>0.39973020654897096</v>
       </c>
       <c r="H389" t="n">
-        <v>0.3479438210184992</v>
+        <v>0.3933108207366469</v>
       </c>
       <c r="I389" t="n">
-        <v>0.387429819243201</v>
+        <v>0.33961078335440265</v>
       </c>
       <c r="J389" t="n">
-        <v>0.3547466401817661</v>
+        <v>0.39209988839249943</v>
       </c>
       <c r="K389" t="n">
-        <v>0.3854076249499097</v>
+        <v>0.38732981710516884</v>
       </c>
       <c r="L389" t="n">
-        <v>0.3479438210184992</v>
+        <v>0.37107821604167784</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>1.6965578627655424</v>
+        <v>1.714048150010548</v>
       </c>
       <c r="C394" t="n">
-        <v>1.7819387209578699</v>
+        <v>1.7861393149177225</v>
       </c>
       <c r="D394" t="n">
-        <v>1.7520295891994548</v>
+        <v>1.7574551744920912</v>
       </c>
       <c r="E394" t="n">
-        <v>1.5584580083862178</v>
+        <v>1.5539704685185858</v>
       </c>
       <c r="F394" t="n">
-        <v>1.6965578627655424</v>
+        <v>1.5958047827714612</v>
       </c>
       <c r="G394" t="n">
-        <v>1.7819387209578699</v>
+        <v>1.7520442902703053</v>
       </c>
       <c r="H394" t="n">
-        <v>1.7520295891994548</v>
+        <v>1.720265979282986</v>
       </c>
       <c r="I394" t="n">
-        <v>1.5584580083862178</v>
+        <v>1.7307298843993602</v>
       </c>
       <c r="J394" t="n">
-        <v>1.6965578627655424</v>
+        <v>1.6581118457465727</v>
       </c>
       <c r="K394" t="n">
-        <v>1.7819387209578699</v>
+        <v>1.5175039613749832</v>
       </c>
       <c r="L394" t="n">
-        <v>1.7520295891994548</v>
+        <v>1.7254820678247256</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>5.681208653564461</v>
+        <v>5.7948328266357505</v>
       </c>
       <c r="C395" t="n">
-        <v>6.1219972588280696</v>
+        <v>6.265728888866236</v>
       </c>
       <c r="D395" t="n">
-        <v>6.180739096411103</v>
+        <v>6.250566805121329</v>
       </c>
       <c r="E395" t="n">
-        <v>6.155949675187064</v>
+        <v>6.315517686098058</v>
       </c>
       <c r="F395" t="n">
-        <v>5.681208653564461</v>
+        <v>5.817672823400363</v>
       </c>
       <c r="G395" t="n">
-        <v>6.1219972588280696</v>
+        <v>6.381832569019269</v>
       </c>
       <c r="H395" t="n">
-        <v>6.180739096411103</v>
+        <v>6.362184069498495</v>
       </c>
       <c r="I395" t="n">
-        <v>6.155949675187064</v>
+        <v>6.246787749301648</v>
       </c>
       <c r="J395" t="n">
-        <v>5.681208653564461</v>
+        <v>6.48599305301882</v>
       </c>
       <c r="K395" t="n">
-        <v>6.1219972588280696</v>
+        <v>6.021087953677278</v>
       </c>
       <c r="L395" t="n">
-        <v>6.180739096411103</v>
+        <v>6.284785242176596</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>4.140677775213103</v>
+        <v>4.099680965557528</v>
       </c>
       <c r="C397" t="n">
-        <v>4.461941029685736</v>
+        <v>4.432826662912028</v>
       </c>
       <c r="D397" t="n">
-        <v>4.504754282320392</v>
+        <v>4.422099915827718</v>
       </c>
       <c r="E397" t="n">
-        <v>4.486686823126058</v>
+        <v>4.468050834241197</v>
       </c>
       <c r="F397" t="n">
-        <v>4.140677775213103</v>
+        <v>4.1158396197915</v>
       </c>
       <c r="G397" t="n">
-        <v>4.461941029685736</v>
+        <v>4.514966745602025</v>
       </c>
       <c r="H397" t="n">
-        <v>4.504754282320392</v>
+        <v>4.501065985753212</v>
       </c>
       <c r="I397" t="n">
-        <v>4.486686823126058</v>
+        <v>4.419426340303586</v>
       </c>
       <c r="J397" t="n">
-        <v>4.140677775213103</v>
+        <v>4.5886573534921125</v>
       </c>
       <c r="K397" t="n">
-        <v>4.461941029685736</v>
+        <v>4.259750093596631</v>
       </c>
       <c r="L397" t="n">
-        <v>4.504754282320392</v>
+        <v>4.446308495999658</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>5.844631070191943</v>
+        <v>5.962704425145316</v>
       </c>
       <c r="C398" t="n">
-        <v>6.298099149751719</v>
+        <v>6.4472419636812335</v>
       </c>
       <c r="D398" t="n">
-        <v>6.358530721622005</v>
+        <v>6.431640646689892</v>
       </c>
       <c r="E398" t="n">
-        <v>6.333028222007386</v>
+        <v>6.498473101913949</v>
       </c>
       <c r="F398" t="n">
-        <v>5.844631070191943</v>
+        <v>5.986206078058006</v>
       </c>
       <c r="G398" t="n">
-        <v>6.298099149751719</v>
+        <v>6.566709073110526</v>
       </c>
       <c r="H398" t="n">
-        <v>6.358530721622005</v>
+        <v>6.546491372523639</v>
       </c>
       <c r="I398" t="n">
-        <v>6.333028222007386</v>
+        <v>6.427752114693711</v>
       </c>
       <c r="J398" t="n">
-        <v>5.844631070191943</v>
+        <v>6.67388700169798</v>
       </c>
       <c r="K398" t="n">
-        <v>6.298099149751719</v>
+        <v>6.19551397937806</v>
       </c>
       <c r="L398" t="n">
-        <v>6.358530721622005</v>
+        <v>6.466850364063128</v>
       </c>
     </row>
     <row r="399">
@@ -15382,34 +15382,34 @@
         <v>3.0790497816061797</v>
       </c>
       <c r="C403" t="n">
-        <v>3.3179443798392296</v>
+        <v>3.329257589311264</v>
       </c>
       <c r="D403" t="n">
-        <v>3.349780746572162</v>
+        <v>3.321201306750555</v>
       </c>
       <c r="E403" t="n">
-        <v>3.33634560157742</v>
+        <v>3.355712569088839</v>
       </c>
       <c r="F403" t="n">
-        <v>3.0790497816061797</v>
+        <v>3.091185677352252</v>
       </c>
       <c r="G403" t="n">
-        <v>3.3179443798392296</v>
+        <v>3.390948585706481</v>
       </c>
       <c r="H403" t="n">
-        <v>3.349780746572162</v>
+        <v>3.380508472942529</v>
       </c>
       <c r="I403" t="n">
-        <v>3.33634560157742</v>
+        <v>3.319193328031517</v>
       </c>
       <c r="J403" t="n">
-        <v>3.0790497816061797</v>
+        <v>3.4462936362205623</v>
       </c>
       <c r="K403" t="n">
-        <v>3.3179443798392296</v>
+        <v>3.1992690908332495</v>
       </c>
       <c r="L403" t="n">
-        <v>3.349780746572162</v>
+        <v>3.339383068726093</v>
       </c>
     </row>
     <row r="404">
@@ -15496,34 +15496,34 @@
         <v>2.4940381721034894</v>
       </c>
       <c r="C406" t="n">
-        <v>2.402406281352716</v>
+        <v>2.409780127112768</v>
       </c>
       <c r="D406" t="n">
-        <v>2.576171935926855</v>
+        <v>2.595372654428685</v>
       </c>
       <c r="E406" t="n">
-        <v>2.683165089046463</v>
+        <v>2.686609858995263</v>
       </c>
       <c r="F406" t="n">
-        <v>2.4940381721034894</v>
+        <v>2.5890922586066414</v>
       </c>
       <c r="G406" t="n">
-        <v>2.402406281352716</v>
+        <v>2.617596028575491</v>
       </c>
       <c r="H406" t="n">
-        <v>2.576171935926855</v>
+        <v>2.3842727052978367</v>
       </c>
       <c r="I406" t="n">
-        <v>2.683165089046463</v>
+        <v>2.382945158777504</v>
       </c>
       <c r="J406" t="n">
-        <v>2.4940381721034894</v>
+        <v>2.615996030435582</v>
       </c>
       <c r="K406" t="n">
-        <v>2.402406281352716</v>
+        <v>2.291097165687898</v>
       </c>
       <c r="L406" t="n">
-        <v>2.576171935926855</v>
+        <v>2.5005956793303703</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>8.011118404022469</v>
+        <v>8.415720343619563</v>
       </c>
       <c r="C407" t="n">
-        <v>7.716786932034703</v>
+        <v>8.131405471748948</v>
       </c>
       <c r="D407" t="n">
-        <v>8.274940872466107</v>
+        <v>8.757656835992911</v>
       </c>
       <c r="E407" t="n">
-        <v>8.618614368585042</v>
+        <v>9.06552173042568</v>
       </c>
       <c r="F407" t="n">
-        <v>8.011118404022469</v>
+        <v>8.736464676435476</v>
       </c>
       <c r="G407" t="n">
-        <v>7.716786932034703</v>
+        <v>8.832645945623664</v>
       </c>
       <c r="H407" t="n">
-        <v>8.274940872466107</v>
+        <v>8.045334885066566</v>
       </c>
       <c r="I407" t="n">
-        <v>8.618614368585042</v>
+        <v>8.040855298353247</v>
       </c>
       <c r="J407" t="n">
-        <v>8.011118404022469</v>
+        <v>8.827247015869341</v>
       </c>
       <c r="K407" t="n">
-        <v>7.716786932034703</v>
+        <v>7.730929398817835</v>
       </c>
       <c r="L407" t="n">
-        <v>8.274940872466107</v>
+        <v>8.437847569894593</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>3.0815767149318325</v>
+        <v>3.050760947782514</v>
       </c>
       <c r="C410" t="n">
-        <v>2.968358439429414</v>
+        <v>2.947694701215247</v>
       </c>
       <c r="D410" t="n">
-        <v>3.183059321308433</v>
+        <v>3.1747154585030644</v>
       </c>
       <c r="E410" t="n">
-        <v>3.315257622440465</v>
+        <v>3.2863187626504926</v>
       </c>
       <c r="F410" t="n">
-        <v>3.0815767149318325</v>
+        <v>3.1670331437234367</v>
       </c>
       <c r="G410" t="n">
-        <v>2.968358439429414</v>
+        <v>3.2018995660814404</v>
       </c>
       <c r="H410" t="n">
-        <v>3.183059321308433</v>
+        <v>2.916493476140982</v>
       </c>
       <c r="I410" t="n">
-        <v>3.315257622440465</v>
+        <v>2.9148695927835035</v>
       </c>
       <c r="J410" t="n">
-        <v>3.0815767149318325</v>
+        <v>3.1999424140633366</v>
       </c>
       <c r="K410" t="n">
-        <v>2.968358439429414</v>
+        <v>2.8025191590234457</v>
       </c>
       <c r="L410" t="n">
-        <v>3.183059321308433</v>
+        <v>3.058782231171973</v>
       </c>
     </row>
     <row r="411">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>3.8132891920032965</v>
+        <v>3.852200306207412</v>
       </c>
       <c r="C414" t="n">
-        <v>3.6731875277420603</v>
+        <v>3.7220584060776547</v>
       </c>
       <c r="D414" t="n">
-        <v>3.9388685826435115</v>
+        <v>4.0087178480031955</v>
       </c>
       <c r="E414" t="n">
-        <v>4.102457030876944</v>
+        <v>4.149639503212849</v>
       </c>
       <c r="F414" t="n">
-        <v>3.8132891920032965</v>
+        <v>3.9990173779063913</v>
       </c>
       <c r="G414" t="n">
-        <v>3.6731875277420603</v>
+        <v>4.043043260360893</v>
       </c>
       <c r="H414" t="n">
-        <v>3.9388685826435115</v>
+        <v>3.6826605735885205</v>
       </c>
       <c r="I414" t="n">
-        <v>4.102457030876944</v>
+        <v>3.680610093700389</v>
       </c>
       <c r="J414" t="n">
-        <v>3.8132891920032965</v>
+        <v>4.040571961648054</v>
       </c>
       <c r="K414" t="n">
-        <v>3.6731875277420603</v>
+        <v>3.5387450368372435</v>
       </c>
       <c r="L414" t="n">
-        <v>3.9388685826435115</v>
+        <v>3.862328792463115</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>7.5892596842889</v>
+        <v>7.819237250479473</v>
       </c>
       <c r="C416" t="n">
-        <v>7.310427458684475</v>
+        <v>7.555073834131937</v>
       </c>
       <c r="D416" t="n">
-        <v>7.8391894846727705</v>
+        <v>8.136938225475754</v>
       </c>
       <c r="E416" t="n">
-        <v>8.164765425148751</v>
+        <v>8.422982503609202</v>
       </c>
       <c r="F416" t="n">
-        <v>7.5892596842889</v>
+        <v>8.117248107854957</v>
       </c>
       <c r="G416" t="n">
-        <v>7.310427458684475</v>
+        <v>8.206612313428263</v>
       </c>
       <c r="H416" t="n">
-        <v>7.8391894846727705</v>
+        <v>7.475103693718734</v>
       </c>
       <c r="I416" t="n">
-        <v>8.164765425148751</v>
+        <v>7.470941607781302</v>
       </c>
       <c r="J416" t="n">
-        <v>7.5892596842889</v>
+        <v>8.201596044954023</v>
       </c>
       <c r="K416" t="n">
-        <v>7.310427458684475</v>
+        <v>7.182982402913836</v>
       </c>
       <c r="L416" t="n">
-        <v>7.8391894846727705</v>
+        <v>7.839796159862753</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.8066665831492034</v>
+        <v>0.8150693600570077</v>
       </c>
       <c r="C420" t="n">
-        <v>0.82016201207003</v>
+        <v>0.8295998449612508</v>
       </c>
       <c r="D420" t="n">
-        <v>0.8972203791971181</v>
+        <v>0.9107839277999658</v>
       </c>
       <c r="E420" t="n">
-        <v>0.8858652803944738</v>
+        <v>0.8970673022115854</v>
       </c>
       <c r="F420" t="n">
-        <v>0.8066665831492034</v>
+        <v>0.7971797224463936</v>
       </c>
       <c r="G420" t="n">
-        <v>0.82016201207003</v>
+        <v>0.9003214764487583</v>
       </c>
       <c r="H420" t="n">
-        <v>0.8972203791971181</v>
+        <v>0.8677923780728078</v>
       </c>
       <c r="I420" t="n">
-        <v>0.8858652803944738</v>
+        <v>0.8132887608214872</v>
       </c>
       <c r="J420" t="n">
-        <v>0.8066665831492034</v>
+        <v>0.9008661347998504</v>
       </c>
       <c r="K420" t="n">
-        <v>0.82016201207003</v>
+        <v>0.9030513778673421</v>
       </c>
       <c r="L420" t="n">
-        <v>0.8972203791971181</v>
+        <v>0.9197848800978604</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.6541468620941704</v>
+        <v>1.5886360952785596</v>
       </c>
       <c r="C423" t="n">
-        <v>1.6818205278543787</v>
+        <v>1.6169571853992415</v>
       </c>
       <c r="D423" t="n">
-        <v>1.8398360684061519</v>
+        <v>1.7751915279963508</v>
       </c>
       <c r="E423" t="n">
-        <v>1.8165513539460152</v>
+        <v>1.74845671549696</v>
       </c>
       <c r="F423" t="n">
-        <v>1.6541468620941704</v>
+        <v>1.5537677448872669</v>
       </c>
       <c r="G423" t="n">
-        <v>1.6818205278543787</v>
+        <v>1.7547993642417696</v>
       </c>
       <c r="H423" t="n">
-        <v>1.8398360684061519</v>
+        <v>1.6913975209639318</v>
       </c>
       <c r="I423" t="n">
-        <v>1.8165513539460152</v>
+        <v>1.5851655633761268</v>
       </c>
       <c r="J423" t="n">
-        <v>1.6541468620941704</v>
+        <v>1.7558609474131448</v>
       </c>
       <c r="K423" t="n">
-        <v>1.6818205278543787</v>
+        <v>1.7601201628665777</v>
       </c>
       <c r="L423" t="n">
-        <v>1.8398360684061519</v>
+        <v>1.7927351119084192</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>4.377085971668943</v>
+        <v>4.333748486800934</v>
       </c>
       <c r="C425" t="n">
-        <v>4.413758601107626</v>
+        <v>4.365346203027581</v>
       </c>
       <c r="D425" t="n">
-        <v>4.485619982026812</v>
+        <v>4.382551961353392</v>
       </c>
       <c r="E425" t="n">
-        <v>4.662485585128929</v>
+        <v>4.535788041350582</v>
       </c>
       <c r="F425" t="n">
-        <v>4.377085971668943</v>
+        <v>4.886008965904326</v>
       </c>
       <c r="G425" t="n">
-        <v>4.413758601107626</v>
+        <v>4.2509078538938665</v>
       </c>
       <c r="H425" t="n">
-        <v>4.485619982026812</v>
+        <v>4.151153215848142</v>
       </c>
       <c r="I425" t="n">
-        <v>4.662485585128929</v>
+        <v>4.72008022189865</v>
       </c>
       <c r="J425" t="n">
-        <v>4.377085971668943</v>
+        <v>4.807543100376167</v>
       </c>
       <c r="K425" t="n">
-        <v>4.413758601107626</v>
+        <v>4.7086583661375</v>
       </c>
       <c r="L425" t="n">
-        <v>4.485619982026812</v>
+        <v>4.792741551247097</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>2.318713271782294</v>
+        <v>2.3419004045001164</v>
       </c>
       <c r="C428" t="n">
-        <v>2.35750504870821</v>
+        <v>2.3836501624255644</v>
       </c>
       <c r="D428" t="n">
-        <v>2.579004565722916</v>
+        <v>2.6169125640764617</v>
       </c>
       <c r="E428" t="n">
-        <v>2.546365035530278</v>
+        <v>2.577501229792521</v>
       </c>
       <c r="F428" t="n">
-        <v>2.318713271782294</v>
+        <v>2.29049895131124</v>
       </c>
       <c r="G428" t="n">
-        <v>2.35750504870821</v>
+        <v>2.5868512953646285</v>
       </c>
       <c r="H428" t="n">
-        <v>2.579004565722916</v>
+        <v>2.493386969041119</v>
       </c>
       <c r="I428" t="n">
-        <v>2.546365035530278</v>
+        <v>2.336784292578517</v>
       </c>
       <c r="J428" t="n">
-        <v>2.318713271782294</v>
+        <v>2.58841623655276</v>
       </c>
       <c r="K428" t="n">
-        <v>2.35750504870821</v>
+        <v>2.594694992539038</v>
       </c>
       <c r="L428" t="n">
-        <v>2.579004565722916</v>
+        <v>2.6427745763914032</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>8.906945736298008</v>
+        <v>9.08508465102397</v>
       </c>
       <c r="C429" t="n">
-        <v>9.355196095173456</v>
+        <v>9.46719429932561</v>
       </c>
       <c r="D429" t="n">
-        <v>9.198172854505591</v>
+        <v>9.315157821291365</v>
       </c>
       <c r="E429" t="n">
-        <v>8.181920120524309</v>
+        <v>8.236614153223087</v>
       </c>
       <c r="F429" t="n">
-        <v>8.906945736298008</v>
+        <v>8.458351381726601</v>
       </c>
       <c r="G429" t="n">
-        <v>9.355196095173456</v>
+        <v>9.286478147857737</v>
       </c>
       <c r="H429" t="n">
-        <v>9.198172854505591</v>
+        <v>9.118041429563338</v>
       </c>
       <c r="I429" t="n">
-        <v>8.181920120524309</v>
+        <v>9.17350396937703</v>
       </c>
       <c r="J429" t="n">
-        <v>8.906945736298008</v>
+        <v>8.78860169673793</v>
       </c>
       <c r="K429" t="n">
-        <v>9.355196095173456</v>
+        <v>8.043328273637522</v>
       </c>
       <c r="L429" t="n">
-        <v>9.198172854505591</v>
+        <v>9.145688614357214</v>
       </c>
     </row>
     <row r="430">
@@ -17016,34 +17016,34 @@
         <v>3.0943462000348436</v>
       </c>
       <c r="C446" t="n">
-        <v>2.7065518417334773</v>
+        <v>2.698269884554903</v>
       </c>
       <c r="D446" t="n">
-        <v>2.781302176265796</v>
+        <v>2.81852703967471</v>
       </c>
       <c r="E446" t="n">
-        <v>2.9426586530337393</v>
+        <v>2.9560362461163954</v>
       </c>
       <c r="F446" t="n">
-        <v>3.0943462000348436</v>
+        <v>2.769160390378738</v>
       </c>
       <c r="G446" t="n">
-        <v>2.7065518417334773</v>
+        <v>2.9482844015430967</v>
       </c>
       <c r="H446" t="n">
-        <v>2.781302176265796</v>
+        <v>3.0606509577870256</v>
       </c>
       <c r="I446" t="n">
-        <v>2.9426586530337393</v>
+        <v>3.175929714671167</v>
       </c>
       <c r="J446" t="n">
-        <v>3.0943462000348436</v>
+        <v>3.0774063490039265</v>
       </c>
       <c r="K446" t="n">
-        <v>2.7065518417334773</v>
+        <v>3.11530543917608</v>
       </c>
       <c r="L446" t="n">
-        <v>2.781302176265796</v>
+        <v>2.7631108869673997</v>
       </c>
     </row>
     <row r="447">
@@ -17054,34 +17054,34 @@
         <v>2.4052031501927886</v>
       </c>
       <c r="C447" t="n">
-        <v>2.10377462477345</v>
+        <v>2.09733714551032</v>
       </c>
       <c r="D447" t="n">
-        <v>2.1618772831292192</v>
+        <v>2.190811782680565</v>
       </c>
       <c r="E447" t="n">
-        <v>2.287297995983488</v>
+        <v>2.297696260089824</v>
       </c>
       <c r="F447" t="n">
-        <v>2.4052031501927886</v>
+        <v>2.1524395991156497</v>
       </c>
       <c r="G447" t="n">
-        <v>2.10377462477345</v>
+        <v>2.291670831846762</v>
       </c>
       <c r="H447" t="n">
-        <v>2.1618772831292192</v>
+        <v>2.379012188496244</v>
       </c>
       <c r="I447" t="n">
-        <v>2.287297995983488</v>
+        <v>2.4686171684448106</v>
       </c>
       <c r="J447" t="n">
-        <v>2.4052031501927886</v>
+        <v>2.3920359799960926</v>
       </c>
       <c r="K447" t="n">
-        <v>2.10377462477345</v>
+        <v>2.421494549005106</v>
       </c>
       <c r="L447" t="n">
-        <v>2.1618772831292192</v>
+        <v>2.1477373829699937</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>2.8634797005403243</v>
       </c>
       <c r="C449" t="n">
-        <v>2.5046183446366057</v>
+        <v>2.49695429713561</v>
       </c>
       <c r="D449" t="n">
-        <v>2.5737916212206806</v>
+        <v>2.608239169696547</v>
       </c>
       <c r="E449" t="n">
-        <v>2.723109430511222</v>
+        <v>2.735488932919143</v>
       </c>
       <c r="F449" t="n">
-        <v>2.8634797005403243</v>
+        <v>2.562555723500023</v>
       </c>
       <c r="G449" t="n">
-        <v>2.5046183446366057</v>
+        <v>2.728315446779443</v>
       </c>
       <c r="H449" t="n">
-        <v>2.5737916212206806</v>
+        <v>2.8322984312368673</v>
       </c>
       <c r="I449" t="n">
-        <v>2.723109430511222</v>
+        <v>2.938976339558032</v>
       </c>
       <c r="J449" t="n">
-        <v>2.8634797005403243</v>
+        <v>2.847803717175353</v>
       </c>
       <c r="K449" t="n">
-        <v>2.5046183446366057</v>
+        <v>2.882875188937526</v>
       </c>
       <c r="L449" t="n">
-        <v>2.5737916212206806</v>
+        <v>2.556957568317348</v>
       </c>
     </row>
     <row r="450">
@@ -17168,34 +17168,34 @@
         <v>2.8600018999675743</v>
       </c>
       <c r="C450" t="n">
-        <v>2.501576394273956</v>
+        <v>2.49392165503828</v>
       </c>
       <c r="D450" t="n">
-        <v>2.5706656573897755</v>
+        <v>2.60507136806117</v>
       </c>
       <c r="E450" t="n">
-        <v>2.719802114752948</v>
+        <v>2.7321665818035186</v>
       </c>
       <c r="F450" t="n">
-        <v>2.8600018999675743</v>
+        <v>2.5594434060768507</v>
       </c>
       <c r="G450" t="n">
-        <v>2.501576394273956</v>
+        <v>2.725001808124466</v>
       </c>
       <c r="H450" t="n">
-        <v>2.5706656573897755</v>
+        <v>2.8288585014533605</v>
       </c>
       <c r="I450" t="n">
-        <v>2.719802114752948</v>
+        <v>2.935406845562637</v>
       </c>
       <c r="J450" t="n">
-        <v>2.8600018999675743</v>
+        <v>2.844344955656351</v>
       </c>
       <c r="K450" t="n">
-        <v>2.501576394273956</v>
+        <v>2.879373831836457</v>
       </c>
       <c r="L450" t="n">
-        <v>2.5706656573897755</v>
+        <v>2.5538520500578983</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>5.217090227487981</v>
+        <v>5.321432032037741</v>
       </c>
       <c r="C452" t="n">
-        <v>4.563266115322946</v>
+        <v>4.640288728711594</v>
       </c>
       <c r="D452" t="n">
-        <v>4.689295723705365</v>
+        <v>4.847098256788661</v>
       </c>
       <c r="E452" t="n">
-        <v>4.961343918596567</v>
+        <v>5.083576610713841</v>
       </c>
       <c r="F452" t="n">
-        <v>5.217090227487981</v>
+        <v>4.762201075964163</v>
       </c>
       <c r="G452" t="n">
-        <v>4.563266115322946</v>
+        <v>5.0702455509832705</v>
       </c>
       <c r="H452" t="n">
-        <v>4.689295723705365</v>
+        <v>5.263485399749864</v>
       </c>
       <c r="I452" t="n">
-        <v>4.961343918596567</v>
+        <v>5.461733439833372</v>
       </c>
       <c r="J452" t="n">
-        <v>5.217090227487981</v>
+        <v>5.292300105593035</v>
       </c>
       <c r="K452" t="n">
-        <v>4.563266115322946</v>
+        <v>5.357476210459683</v>
       </c>
       <c r="L452" t="n">
-        <v>4.689295723705365</v>
+        <v>4.751797579021689</v>
       </c>
     </row>
     <row r="453">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>5.552226479671611</v>
+        <v>5.497792886733654</v>
       </c>
       <c r="C456" t="n">
-        <v>5.28094772450007</v>
+        <v>5.20065830372597</v>
       </c>
       <c r="D456" t="n">
-        <v>5.494225240373026</v>
+        <v>5.362004029132851</v>
       </c>
       <c r="E456" t="n">
-        <v>5.507344870707303</v>
+        <v>5.381455072915411</v>
       </c>
       <c r="F456" t="n">
-        <v>5.552226479671611</v>
+        <v>5.48086618429638</v>
       </c>
       <c r="G456" t="n">
-        <v>5.28094772450007</v>
+        <v>5.440664234788335</v>
       </c>
       <c r="H456" t="n">
-        <v>5.494225240373026</v>
+        <v>5.443991859354373</v>
       </c>
       <c r="I456" t="n">
-        <v>5.507344870707303</v>
+        <v>4.764950046849858</v>
       </c>
       <c r="J456" t="n">
-        <v>5.552226479671611</v>
+        <v>5.011783045061839</v>
       </c>
       <c r="K456" t="n">
-        <v>5.28094772450007</v>
+        <v>4.9559725427656875</v>
       </c>
       <c r="L456" t="n">
-        <v>5.494225240373026</v>
+        <v>4.871881052707893</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>2.1992017422535444</v>
+        <v>2.2216425763581724</v>
       </c>
       <c r="C458" t="n">
-        <v>2.0917499455384885</v>
+        <v>2.1015713306567916</v>
       </c>
       <c r="D458" t="n">
-        <v>2.1762278187319923</v>
+        <v>2.166770682553491</v>
       </c>
       <c r="E458" t="n">
-        <v>2.1814244212111062</v>
+        <v>2.174630794404234</v>
       </c>
       <c r="F458" t="n">
-        <v>2.1992017422535444</v>
+        <v>2.2148025437147574</v>
       </c>
       <c r="G458" t="n">
-        <v>2.0917499455384885</v>
+        <v>2.198557049473752</v>
       </c>
       <c r="H458" t="n">
-        <v>2.1762278187319923</v>
+        <v>2.1999017331616155</v>
       </c>
       <c r="I458" t="n">
-        <v>2.1814244212111062</v>
+        <v>1.925502854763027</v>
       </c>
       <c r="J458" t="n">
-        <v>2.1992017422535444</v>
+        <v>2.025247372131283</v>
       </c>
       <c r="K458" t="n">
-        <v>2.0917499455384885</v>
+        <v>2.00269450579682</v>
       </c>
       <c r="L458" t="n">
-        <v>2.1762278187319923</v>
+        <v>1.9687133721908958</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>2.5928784044998894</v>
       </c>
       <c r="C460" t="n">
-        <v>2.6074155091422266</v>
+        <v>2.5985552040909554</v>
       </c>
       <c r="D460" t="n">
-        <v>2.5509039272864875</v>
+        <v>2.5320321910256225</v>
       </c>
       <c r="E460" t="n">
-        <v>2.6347123492612927</v>
+        <v>2.6434077726872243</v>
       </c>
       <c r="F460" t="n">
-        <v>2.5928784044998894</v>
+        <v>2.903706643102703</v>
       </c>
       <c r="G460" t="n">
-        <v>2.6074155091422266</v>
+        <v>2.7739178263259294</v>
       </c>
       <c r="H460" t="n">
-        <v>2.5509039272864875</v>
+        <v>2.901931760662063</v>
       </c>
       <c r="I460" t="n">
-        <v>2.6347123492612927</v>
+        <v>2.6448804237793087</v>
       </c>
       <c r="J460" t="n">
-        <v>2.5928784044998894</v>
+        <v>2.8599761208281818</v>
       </c>
       <c r="K460" t="n">
-        <v>2.6074155091422266</v>
+        <v>2.662681075908922</v>
       </c>
       <c r="L460" t="n">
-        <v>2.5509039272864875</v>
+        <v>2.541520535398329</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>1.30539907930563</v>
+        <v>1.3188568017726985</v>
       </c>
       <c r="C461" t="n">
-        <v>1.2416179928292996</v>
+        <v>1.2475776586847167</v>
       </c>
       <c r="D461" t="n">
-        <v>1.291762250070336</v>
+        <v>1.2862826284378128</v>
       </c>
       <c r="E461" t="n">
-        <v>1.29484684206634</v>
+        <v>1.2909487084307698</v>
       </c>
       <c r="F461" t="n">
-        <v>1.30539907930563</v>
+        <v>1.314796282014879</v>
       </c>
       <c r="G461" t="n">
-        <v>1.2416179928292996</v>
+        <v>1.3051523002124459</v>
       </c>
       <c r="H461" t="n">
-        <v>1.291762250070336</v>
+        <v>1.3059505587833087</v>
       </c>
       <c r="I461" t="n">
-        <v>1.29484684206634</v>
+        <v>1.1430562971113833</v>
       </c>
       <c r="J461" t="n">
-        <v>1.30539907930563</v>
+        <v>1.2022686729321155</v>
       </c>
       <c r="K461" t="n">
-        <v>1.2416179928292996</v>
+        <v>1.188880380197181</v>
       </c>
       <c r="L461" t="n">
-        <v>1.291762250070336</v>
+        <v>1.1687078062354481</v>
       </c>
     </row>
     <row r="462">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>1.968504202347234</v>
+        <v>1.9488191603237615</v>
       </c>
       <c r="C466" t="n">
-        <v>1.8723241615081416</v>
+        <v>1.8434929720714763</v>
       </c>
       <c r="D466" t="n">
-        <v>1.9479402567447544</v>
+        <v>1.9006856760505588</v>
       </c>
       <c r="E466" t="n">
-        <v>1.952591732605983</v>
+        <v>1.9075805459724906</v>
       </c>
       <c r="F466" t="n">
-        <v>1.968504202347234</v>
+        <v>1.9428191012617955</v>
       </c>
       <c r="G466" t="n">
-        <v>1.8723241615081416</v>
+        <v>1.9285685954501457</v>
       </c>
       <c r="H466" t="n">
-        <v>1.9479402567447544</v>
+        <v>1.9297481485264911</v>
       </c>
       <c r="I466" t="n">
-        <v>1.952591732605983</v>
+        <v>1.6890461573578153</v>
       </c>
       <c r="J466" t="n">
-        <v>1.968504202347234</v>
+        <v>1.7765417917380077</v>
       </c>
       <c r="K466" t="n">
-        <v>1.8723241615081416</v>
+        <v>1.7567584753303478</v>
       </c>
       <c r="L466" t="n">
-        <v>1.9479402567447544</v>
+        <v>1.7269503122327072</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>1.4090864757504522</v>
+        <v>1.4234649091764773</v>
       </c>
       <c r="C468" t="n">
-        <v>1.5981852793771365</v>
+        <v>1.6253254587532753</v>
       </c>
       <c r="D468" t="n">
-        <v>1.578018824674616</v>
+        <v>1.6174163330096785</v>
       </c>
       <c r="E468" t="n">
-        <v>1.4795172063967155</v>
+        <v>1.4913249856116468</v>
       </c>
       <c r="F468" t="n">
-        <v>1.4090864757504522</v>
+        <v>1.5495527092016752</v>
       </c>
       <c r="G468" t="n">
-        <v>1.5981852793771365</v>
+        <v>1.6086100720396397</v>
       </c>
       <c r="H468" t="n">
-        <v>1.578018824674616</v>
+        <v>1.4522296283506595</v>
       </c>
       <c r="I468" t="n">
-        <v>1.4795172063967155</v>
+        <v>1.6423918771948454</v>
       </c>
       <c r="J468" t="n">
-        <v>1.4090864757504522</v>
+        <v>1.6125120990694417</v>
       </c>
       <c r="K468" t="n">
-        <v>1.5981852793771365</v>
+        <v>1.6691980227643832</v>
       </c>
       <c r="L468" t="n">
-        <v>1.578018824674616</v>
+        <v>1.6076375158789156</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>1.7836477967833813</v>
       </c>
       <c r="C471" t="n">
-        <v>1.7523407635467714</v>
+        <v>1.7619489200583</v>
       </c>
       <c r="D471" t="n">
-        <v>1.7587283972948995</v>
+        <v>1.7705648065670043</v>
       </c>
       <c r="E471" t="n">
-        <v>1.6384078997300073</v>
+        <v>1.6309932564844136</v>
       </c>
       <c r="F471" t="n">
-        <v>1.7836477967833813</v>
+        <v>1.7891562829411995</v>
       </c>
       <c r="G471" t="n">
-        <v>1.7523407635467714</v>
+        <v>1.756606442974101</v>
       </c>
       <c r="H471" t="n">
-        <v>1.7587283972948995</v>
+        <v>1.8183578300464436</v>
       </c>
       <c r="I471" t="n">
-        <v>1.6384078997300073</v>
+        <v>1.7523557301731465</v>
       </c>
       <c r="J471" t="n">
-        <v>1.7836477967833813</v>
+        <v>1.582001104556547</v>
       </c>
       <c r="K471" t="n">
-        <v>1.7523407635467714</v>
+        <v>1.7512962662354379</v>
       </c>
       <c r="L471" t="n">
-        <v>1.7587283972948995</v>
+        <v>1.5448768118178986</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>3.1847382771835764</v>
+        <v>3.153206215033244</v>
       </c>
       <c r="C473" t="n">
-        <v>3.6121287946880365</v>
+        <v>3.60036015285938</v>
       </c>
       <c r="D473" t="n">
-        <v>3.5665497040420915</v>
+        <v>3.582840153392293</v>
       </c>
       <c r="E473" t="n">
-        <v>3.3439218671472095</v>
+        <v>3.303527317709249</v>
       </c>
       <c r="F473" t="n">
-        <v>3.1847382771835764</v>
+        <v>3.4325111927086938</v>
       </c>
       <c r="G473" t="n">
-        <v>3.6121287946880365</v>
+        <v>3.563332853533391</v>
       </c>
       <c r="H473" t="n">
-        <v>3.5665497040420915</v>
+        <v>3.216924744860713</v>
       </c>
       <c r="I473" t="n">
-        <v>3.3439218671472095</v>
+        <v>3.638165044537005</v>
       </c>
       <c r="J473" t="n">
-        <v>3.1847382771835764</v>
+        <v>3.571976477835108</v>
       </c>
       <c r="K473" t="n">
-        <v>3.6121287946880365</v>
+        <v>3.697545015385639</v>
       </c>
       <c r="L473" t="n">
-        <v>3.5665497040420915</v>
+        <v>3.561178483509448</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>0.9440593194442117</v>
+        <v>0.9536925778058872</v>
       </c>
       <c r="C475" t="n">
-        <v>1.0707516771750925</v>
+        <v>1.08893504612538</v>
       </c>
       <c r="D475" t="n">
-        <v>1.0572405621160081</v>
+        <v>1.0836360925157926</v>
       </c>
       <c r="E475" t="n">
-        <v>0.9912464784909679</v>
+        <v>0.9991574507425883</v>
       </c>
       <c r="F475" t="n">
-        <v>0.9440593194442117</v>
+        <v>1.0381688429113418</v>
       </c>
       <c r="G475" t="n">
-        <v>1.0707516771750925</v>
+        <v>1.0777360765257908</v>
       </c>
       <c r="H475" t="n">
-        <v>1.0572405621160081</v>
+        <v>0.9729643554255819</v>
       </c>
       <c r="I475" t="n">
-        <v>0.9912464784909679</v>
+        <v>1.100369199853041</v>
       </c>
       <c r="J475" t="n">
-        <v>0.9440593194442117</v>
+        <v>1.0803503553834783</v>
       </c>
       <c r="K475" t="n">
-        <v>1.0707516771750925</v>
+        <v>1.1183287729373137</v>
       </c>
       <c r="L475" t="n">
-        <v>1.0572405621160081</v>
+        <v>1.0770844836512474</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>3.912122031361246</v>
+        <v>3.8733881498626204</v>
       </c>
       <c r="C482" t="n">
-        <v>3.9343429737379614</v>
+        <v>3.9330154271164655</v>
       </c>
       <c r="D482" t="n">
-        <v>3.590144983310561</v>
+        <v>3.556356935498762</v>
       </c>
       <c r="E482" t="n">
-        <v>3.4083916427071315</v>
+        <v>3.41928107958463</v>
       </c>
       <c r="F482" t="n">
-        <v>3.912122031361246</v>
+        <v>3.8616789956946618</v>
       </c>
       <c r="G482" t="n">
-        <v>3.9343429737379614</v>
+        <v>3.558338193547186</v>
       </c>
       <c r="H482" t="n">
-        <v>3.590144983310561</v>
+        <v>3.8477211188376206</v>
       </c>
       <c r="I482" t="n">
-        <v>3.4083916427071315</v>
+        <v>3.582286626063595</v>
       </c>
       <c r="J482" t="n">
-        <v>3.912122031361246</v>
+        <v>3.7319410202570853</v>
       </c>
       <c r="K482" t="n">
-        <v>3.9343429737379614</v>
+        <v>3.9065547758279977</v>
       </c>
       <c r="L482" t="n">
-        <v>3.590144983310561</v>
+        <v>3.596406000581722</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>1.4213864107481262</v>
+        <v>1.435890353714944</v>
       </c>
       <c r="C484" t="n">
-        <v>1.4294599179841185</v>
+        <v>1.4579945758880095</v>
       </c>
       <c r="D484" t="n">
-        <v>1.304402892084012</v>
+        <v>1.3183648063339657</v>
       </c>
       <c r="E484" t="n">
-        <v>1.2383666778834292</v>
+        <v>1.2675498888459513</v>
       </c>
       <c r="F484" t="n">
-        <v>1.4213864107481262</v>
+        <v>1.4315496935824112</v>
       </c>
       <c r="G484" t="n">
-        <v>1.4294599179841185</v>
+        <v>1.3190992716676435</v>
       </c>
       <c r="H484" t="n">
-        <v>1.304402892084012</v>
+        <v>1.4263754172223009</v>
       </c>
       <c r="I484" t="n">
-        <v>1.2383666778834292</v>
+        <v>1.327977112438165</v>
       </c>
       <c r="J484" t="n">
-        <v>1.4213864107481262</v>
+        <v>1.3834549764423465</v>
       </c>
       <c r="K484" t="n">
-        <v>1.4294599179841185</v>
+        <v>1.4481854391663327</v>
       </c>
       <c r="L484" t="n">
-        <v>1.304402892084012</v>
+        <v>1.3332112570388777</v>
       </c>
     </row>
     <row r="485">
@@ -18498,34 +18498,34 @@
         <v>2.514086204692233</v>
       </c>
       <c r="C485" t="n">
-        <v>2.5283662716831707</v>
+        <v>2.5527882684584395</v>
       </c>
       <c r="D485" t="n">
-        <v>2.3071708661003814</v>
+        <v>2.3083118873113966</v>
       </c>
       <c r="E485" t="n">
-        <v>2.1903688945348843</v>
+        <v>2.219340551360384</v>
       </c>
       <c r="F485" t="n">
-        <v>2.514086204692233</v>
+        <v>2.5064861858396625</v>
       </c>
       <c r="G485" t="n">
-        <v>2.5283662716831707</v>
+        <v>2.309597855392766</v>
       </c>
       <c r="H485" t="n">
-        <v>2.3071708661003814</v>
+        <v>2.4974265965872084</v>
       </c>
       <c r="I485" t="n">
-        <v>2.1903688945348843</v>
+        <v>2.325141978905315</v>
       </c>
       <c r="J485" t="n">
-        <v>2.514086204692233</v>
+        <v>2.4222776217472988</v>
       </c>
       <c r="K485" t="n">
-        <v>2.5283662716831707</v>
+        <v>2.5356135480850455</v>
       </c>
       <c r="L485" t="n">
-        <v>2.3071708661003814</v>
+        <v>2.334306390867531</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>1.542002515383756</v>
+        <v>1.55806504158567</v>
       </c>
       <c r="C486" t="n">
-        <v>1.550761124845427</v>
+        <v>1.582050031630483</v>
       </c>
       <c r="D486" t="n">
-        <v>1.4150920013430586</v>
+        <v>1.4305396728179416</v>
       </c>
       <c r="E486" t="n">
-        <v>1.3434520815902564</v>
+        <v>1.3754010988145025</v>
       </c>
       <c r="F486" t="n">
-        <v>1.542002515383756</v>
+        <v>1.5533550504694218</v>
       </c>
       <c r="G486" t="n">
-        <v>1.550761124845427</v>
+        <v>1.4313366311356146</v>
       </c>
       <c r="H486" t="n">
-        <v>1.4150920013430586</v>
+        <v>1.54774051375265</v>
       </c>
       <c r="I486" t="n">
-        <v>1.3434520815902564</v>
+        <v>1.440969855088632</v>
       </c>
       <c r="J486" t="n">
-        <v>1.542002515383756</v>
+        <v>1.5011681287681828</v>
       </c>
       <c r="K486" t="n">
-        <v>1.550761124845427</v>
+        <v>1.5714062711409458</v>
       </c>
       <c r="L486" t="n">
-        <v>1.4150920013430586</v>
+        <v>1.4466493540168586</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>2.475045258518767</v>
       </c>
       <c r="C491" t="n">
-        <v>2.4891035720448844</v>
+        <v>2.513146322531871</v>
       </c>
       <c r="D491" t="n">
-        <v>2.271343083652706</v>
+        <v>2.27246638608081</v>
       </c>
       <c r="E491" t="n">
-        <v>2.1563549160356703</v>
+        <v>2.184876675442152</v>
       </c>
       <c r="F491" t="n">
-        <v>2.475045258518767</v>
+        <v>2.4675632594566026</v>
       </c>
       <c r="G491" t="n">
-        <v>2.4891035720448844</v>
+        <v>2.273732384516528</v>
       </c>
       <c r="H491" t="n">
-        <v>2.271343083652706</v>
+        <v>2.4586443554899984</v>
       </c>
       <c r="I491" t="n">
-        <v>2.1563549160356703</v>
+        <v>2.289035125180615</v>
       </c>
       <c r="J491" t="n">
-        <v>2.475045258518767</v>
+        <v>2.3846623601578876</v>
       </c>
       <c r="K491" t="n">
-        <v>2.4891035720448844</v>
+        <v>2.4962383063519886</v>
       </c>
       <c r="L491" t="n">
-        <v>2.271343083652706</v>
+        <v>2.2980572240775663</v>
       </c>
     </row>
     <row r="492">
@@ -18837,37 +18837,37 @@
         <v>493.0</v>
       </c>
       <c r="B494" t="n">
-        <v>1.223886615994422</v>
+        <v>1.236249107065073</v>
       </c>
       <c r="C494" t="n">
-        <v>1.182368814243456</v>
+        <v>1.1863523059032441</v>
       </c>
       <c r="D494" t="n">
-        <v>1.146814325604433</v>
+        <v>1.150654295915915</v>
       </c>
       <c r="E494" t="n">
-        <v>1.0733272039131612</v>
+        <v>1.0779117825282656</v>
       </c>
       <c r="F494" t="n">
-        <v>1.223886615994422</v>
+        <v>1.0965171645076293</v>
       </c>
       <c r="G494" t="n">
-        <v>1.182368814243456</v>
+        <v>1.197898314140242</v>
       </c>
       <c r="H494" t="n">
-        <v>1.146814325604433</v>
+        <v>1.1942661178718714</v>
       </c>
       <c r="I494" t="n">
-        <v>1.0733272039131612</v>
+        <v>1.147636845344645</v>
       </c>
       <c r="J494" t="n">
-        <v>1.223886615994422</v>
+        <v>1.0503172409616612</v>
       </c>
       <c r="K494" t="n">
-        <v>1.182368814243456</v>
+        <v>1.2163958163995858</v>
       </c>
       <c r="L494" t="n">
-        <v>1.146814325604433</v>
+        <v>1.1913761806891356</v>
       </c>
     </row>
     <row r="495">
@@ -18916,34 +18916,34 @@
         <v>4.613317473394107</v>
       </c>
       <c r="C496" t="n">
-        <v>4.456820296473008</v>
+        <v>4.427117310861476</v>
       </c>
       <c r="D496" t="n">
-        <v>4.322801228405395</v>
+        <v>4.293902854083491</v>
       </c>
       <c r="E496" t="n">
-        <v>4.0457989161509005</v>
+        <v>4.022449223781955</v>
       </c>
       <c r="F496" t="n">
-        <v>4.613317473394107</v>
+        <v>4.091879028255861</v>
       </c>
       <c r="G496" t="n">
-        <v>4.456820296473008</v>
+        <v>4.470203612192888</v>
       </c>
       <c r="H496" t="n">
-        <v>4.322801228405395</v>
+        <v>4.456649325750206</v>
       </c>
       <c r="I496" t="n">
-        <v>4.0457989161509005</v>
+        <v>4.2826426174807</v>
       </c>
       <c r="J496" t="n">
-        <v>4.613317473394107</v>
+        <v>3.9194745238998743</v>
       </c>
       <c r="K496" t="n">
-        <v>4.456820296473008</v>
+        <v>4.539230841332627</v>
       </c>
       <c r="L496" t="n">
-        <v>4.322801228405395</v>
+        <v>4.445864931548476</v>
       </c>
     </row>
     <row r="497">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>1.3565664860159887</v>
+        <v>1.275978377935831</v>
       </c>
       <c r="C508" t="n">
-        <v>1.310547796300476</v>
+        <v>1.2244780459664864</v>
       </c>
       <c r="D508" t="n">
-        <v>1.2711388942953292</v>
+        <v>1.1876328109577368</v>
       </c>
       <c r="E508" t="n">
-        <v>1.1896851344965436</v>
+        <v>1.1125525753410632</v>
       </c>
       <c r="F508" t="n">
-        <v>1.3565664860159887</v>
+        <v>1.1317558774775276</v>
       </c>
       <c r="G508" t="n">
-        <v>1.310547796300476</v>
+        <v>1.2363951076474076</v>
       </c>
       <c r="H508" t="n">
-        <v>1.2711388942953292</v>
+        <v>1.2326461836834803</v>
       </c>
       <c r="I508" t="n">
-        <v>1.1896851344965436</v>
+        <v>1.1845183887402189</v>
       </c>
       <c r="J508" t="n">
-        <v>1.3565664860159887</v>
+        <v>1.084071229480576</v>
       </c>
       <c r="K508" t="n">
-        <v>1.310547796300476</v>
+        <v>1.255487063139109</v>
       </c>
       <c r="L508" t="n">
-        <v>1.2711388942953292</v>
+        <v>1.2296633727453854</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>2.174283931697007</v>
+        <v>2.1964705024286095</v>
       </c>
       <c r="C510" t="n">
-        <v>2.5084624691698707</v>
+        <v>2.5188881926092956</v>
       </c>
       <c r="D510" t="n">
-        <v>2.4384544910549875</v>
+        <v>2.489952959597483</v>
       </c>
       <c r="E510" t="n">
-        <v>2.231565810666123</v>
+        <v>2.294363339404852</v>
       </c>
       <c r="F510" t="n">
-        <v>2.174283931697007</v>
+        <v>2.4809531289982454</v>
       </c>
       <c r="G510" t="n">
-        <v>2.5084624691698707</v>
+        <v>2.3189088930090502</v>
       </c>
       <c r="H510" t="n">
-        <v>2.4384544910549875</v>
+        <v>2.3098049311291855</v>
       </c>
       <c r="I510" t="n">
-        <v>2.231565810666123</v>
+        <v>2.517348529353844</v>
       </c>
       <c r="J510" t="n">
-        <v>2.174283931697007</v>
+        <v>2.204701388515051</v>
       </c>
       <c r="K510" t="n">
-        <v>2.5084624691698707</v>
+        <v>2.254177444879247</v>
       </c>
       <c r="L510" t="n">
-        <v>2.4384544910549875</v>
+        <v>2.2930858537964154</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>1.2836155312221167</v>
+        <v>1.2965813446688048</v>
       </c>
       <c r="C517" t="n">
-        <v>1.290812186979487</v>
+        <v>1.299420055668297</v>
       </c>
       <c r="D517" t="n">
-        <v>1.2628358869578329</v>
+        <v>1.2661549023228953</v>
       </c>
       <c r="E517" t="n">
-        <v>1.304325604295668</v>
+        <v>1.3218487987985084</v>
       </c>
       <c r="F517" t="n">
-        <v>1.2836155312221167</v>
+        <v>1.4520125036731182</v>
       </c>
       <c r="G517" t="n">
-        <v>1.290812186979487</v>
+        <v>1.3871109802205133</v>
       </c>
       <c r="H517" t="n">
-        <v>1.2628358869578329</v>
+        <v>1.4511249651531781</v>
       </c>
       <c r="I517" t="n">
-        <v>1.304325604295668</v>
+        <v>1.3225852050757518</v>
       </c>
       <c r="J517" t="n">
-        <v>1.2836155312221167</v>
+        <v>1.4301448452147167</v>
       </c>
       <c r="K517" t="n">
-        <v>1.290812186979487</v>
+        <v>1.33148650697797</v>
       </c>
       <c r="L517" t="n">
-        <v>1.2628358869578329</v>
+        <v>1.2708995946633048</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>1.0582767940214894</v>
+        <v>1.068966458607565</v>
       </c>
       <c r="C518" t="n">
-        <v>1.0397016544542987</v>
+        <v>1.0559620014213411</v>
       </c>
       <c r="D518" t="n">
-        <v>1.043491575635231</v>
+        <v>1.0611256294120148</v>
       </c>
       <c r="E518" t="n">
-        <v>0.9721028235241499</v>
+        <v>0.9774783387959993</v>
       </c>
       <c r="F518" t="n">
-        <v>1.0582767940214894</v>
+        <v>1.0722677756899122</v>
       </c>
       <c r="G518" t="n">
-        <v>1.0397016544542987</v>
+        <v>1.0527601760277923</v>
       </c>
       <c r="H518" t="n">
-        <v>1.043491575635231</v>
+        <v>1.0897686940053153</v>
       </c>
       <c r="I518" t="n">
-        <v>0.9721028235241499</v>
+        <v>1.050212661088134</v>
       </c>
       <c r="J518" t="n">
-        <v>1.0582767940214894</v>
+        <v>0.9481166188194765</v>
       </c>
       <c r="K518" t="n">
-        <v>1.0397016544542987</v>
+        <v>1.0495777087082094</v>
       </c>
       <c r="L518" t="n">
-        <v>1.043491575635231</v>
+        <v>0.9258674820735839</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>3.5685856522248987</v>
+        <v>3.5332531210147513</v>
       </c>
       <c r="C521" t="n">
-        <v>3.5885931091737113</v>
+        <v>3.540988759461082</v>
       </c>
       <c r="D521" t="n">
-        <v>3.510816064232099</v>
+        <v>3.450339447436083</v>
       </c>
       <c r="E521" t="n">
-        <v>3.6261618250189747</v>
+        <v>3.6021082773309763</v>
       </c>
       <c r="F521" t="n">
-        <v>3.5685856522248987</v>
+        <v>3.9568112956815407</v>
       </c>
       <c r="G521" t="n">
-        <v>3.5885931091737113</v>
+        <v>3.779951192580101</v>
       </c>
       <c r="H521" t="n">
-        <v>3.510816064232099</v>
+        <v>3.9543927060122592</v>
       </c>
       <c r="I521" t="n">
-        <v>3.6261618250189747</v>
+        <v>3.6041150236011616</v>
       </c>
       <c r="J521" t="n">
-        <v>3.5685856522248987</v>
+        <v>3.8972207633827995</v>
       </c>
       <c r="K521" t="n">
-        <v>3.5885931091737113</v>
+        <v>3.628371544687496</v>
       </c>
       <c r="L521" t="n">
-        <v>3.510816064232099</v>
+        <v>3.4632689864032575</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.6446874563972023</v>
+        <v>1.6614699814624798</v>
       </c>
       <c r="C522" t="n">
-        <v>1.6539084802663095</v>
+        <v>1.665107572833894</v>
       </c>
       <c r="D522" t="n">
-        <v>1.6180626459001488</v>
+        <v>1.6224808190714841</v>
       </c>
       <c r="E522" t="n">
-        <v>1.6712231258220724</v>
+        <v>1.6938482944137634</v>
       </c>
       <c r="F522" t="n">
-        <v>1.6446874563972023</v>
+        <v>1.8606431424302967</v>
       </c>
       <c r="G522" t="n">
-        <v>1.6539084802663095</v>
+        <v>1.777476796245337</v>
       </c>
       <c r="H522" t="n">
-        <v>1.6180626459001488</v>
+        <v>1.8595058295927063</v>
       </c>
       <c r="I522" t="n">
-        <v>1.6712231258220724</v>
+        <v>1.6947919428233533</v>
       </c>
       <c r="J522" t="n">
-        <v>1.6446874563972023</v>
+        <v>1.8326214080108578</v>
       </c>
       <c r="K522" t="n">
-        <v>1.6539084802663095</v>
+        <v>1.7061982814748229</v>
       </c>
       <c r="L522" t="n">
-        <v>1.6180626459001488</v>
+        <v>1.6285607799835233</v>
       </c>
     </row>
     <row r="523">
@@ -19942,34 +19942,34 @@
         <v>4.746470340580401</v>
       </c>
       <c r="C523" t="n">
-        <v>4.8968101179443835</v>
+        <v>4.846149149638918</v>
       </c>
       <c r="D523" t="n">
-        <v>4.6216144271497</v>
+        <v>4.572211813933312</v>
       </c>
       <c r="E523" t="n">
-        <v>4.709535296736626</v>
+        <v>4.772454671545518</v>
       </c>
       <c r="F523" t="n">
-        <v>4.746470340580401</v>
+        <v>4.285043950979715</v>
       </c>
       <c r="G523" t="n">
-        <v>4.8968101179443835</v>
+        <v>4.40040127524313</v>
       </c>
       <c r="H523" t="n">
-        <v>4.6216144271497</v>
+        <v>4.200168884741776</v>
       </c>
       <c r="I523" t="n">
-        <v>4.709535296736626</v>
+        <v>4.2944255462394105</v>
       </c>
       <c r="J523" t="n">
-        <v>4.746470340580401</v>
+        <v>4.798725063563769</v>
       </c>
       <c r="K523" t="n">
-        <v>4.8968101179443835</v>
+        <v>4.584233407005968</v>
       </c>
       <c r="L523" t="n">
-        <v>4.6216144271497</v>
+        <v>4.72645510689306</v>
       </c>
     </row>
     <row r="524">
@@ -19980,34 +19980,34 @@
         <v>3.005852106955095</v>
       </c>
       <c r="C524" t="n">
-        <v>2.858987813722453</v>
+        <v>2.843397349057967</v>
       </c>
       <c r="D524" t="n">
-        <v>2.9744515241456613</v>
+        <v>2.9316111829826212</v>
       </c>
       <c r="E524" t="n">
-        <v>2.9815542006353803</v>
+        <v>2.942245807120131</v>
       </c>
       <c r="F524" t="n">
-        <v>3.005852106955095</v>
+        <v>2.996597636073215</v>
       </c>
       <c r="G524" t="n">
-        <v>2.858987813722453</v>
+        <v>2.9746177039218877</v>
       </c>
       <c r="H524" t="n">
-        <v>2.9744515241456613</v>
+        <v>2.9764370426127127</v>
       </c>
       <c r="I524" t="n">
-        <v>2.9815542006353803</v>
+        <v>2.60517910240319</v>
       </c>
       <c r="J524" t="n">
-        <v>3.005852106955095</v>
+        <v>2.7401320740824</v>
       </c>
       <c r="K524" t="n">
-        <v>2.858987813722453</v>
+        <v>2.7096183535088376</v>
       </c>
       <c r="L524" t="n">
-        <v>2.9744515241456613</v>
+        <v>2.6636423431761918</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>1.6336668061899657</v>
       </c>
       <c r="C531" t="n">
-        <v>1.6854115946972705</v>
+        <v>1.6679748182399334</v>
       </c>
       <c r="D531" t="n">
-        <v>1.5906931970251978</v>
+        <v>1.5736895282862111</v>
       </c>
       <c r="E531" t="n">
-        <v>1.6209542954644973</v>
+        <v>1.6426102390848976</v>
       </c>
       <c r="F531" t="n">
-        <v>1.6336668061899657</v>
+        <v>1.47485048119455</v>
       </c>
       <c r="G531" t="n">
-        <v>1.6854115946972705</v>
+        <v>1.5145548126192752</v>
       </c>
       <c r="H531" t="n">
-        <v>1.5906931970251978</v>
+        <v>1.4456377044495592</v>
       </c>
       <c r="I531" t="n">
-        <v>1.6209542954644973</v>
+        <v>1.478079491314731</v>
       </c>
       <c r="J531" t="n">
-        <v>1.6336668061899657</v>
+        <v>1.6516521300789042</v>
       </c>
       <c r="K531" t="n">
-        <v>1.6854115946972705</v>
+        <v>1.5778271876733168</v>
       </c>
       <c r="L531" t="n">
-        <v>1.5906931970251978</v>
+        <v>1.626777850703699</v>
       </c>
     </row>
     <row r="532">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>1.2374241419099596</v>
+        <v>1.2126756590717604</v>
       </c>
       <c r="C534" t="n">
-        <v>1.276618333941256</v>
+        <v>1.2381425969849855</v>
       </c>
       <c r="D534" t="n">
-        <v>1.2048736969575369</v>
+        <v>1.1681543498698594</v>
       </c>
       <c r="E534" t="n">
-        <v>1.2277950256076757</v>
+        <v>1.2193143955259336</v>
       </c>
       <c r="F534" t="n">
-        <v>1.2374241419099596</v>
+        <v>1.0947858354826194</v>
       </c>
       <c r="G534" t="n">
-        <v>1.276618333941256</v>
+        <v>1.1242584770861872</v>
       </c>
       <c r="H534" t="n">
-        <v>1.2048736969575369</v>
+        <v>1.0731011056721587</v>
       </c>
       <c r="I534" t="n">
-        <v>1.2277950256076757</v>
+        <v>1.0971827391601643</v>
       </c>
       <c r="J534" t="n">
-        <v>1.2374241419099596</v>
+        <v>1.226026217715664</v>
       </c>
       <c r="K534" t="n">
-        <v>1.276618333941256</v>
+        <v>1.1712257465618048</v>
       </c>
       <c r="L534" t="n">
-        <v>1.2048736969575369</v>
+        <v>1.2075619672204168</v>
       </c>
     </row>
     <row r="535">
@@ -20474,34 +20474,34 @@
         <v>3.1446360948349286</v>
       </c>
       <c r="C537" t="n">
-        <v>3.0894406538316193</v>
+        <v>3.106380184060325</v>
       </c>
       <c r="D537" t="n">
-        <v>3.100702285013052</v>
+        <v>3.121570306097385</v>
       </c>
       <c r="E537" t="n">
-        <v>2.8885728611024586</v>
+        <v>2.8755005747337785</v>
       </c>
       <c r="F537" t="n">
-        <v>3.1446360948349286</v>
+        <v>3.1543477567622515</v>
       </c>
       <c r="G537" t="n">
-        <v>3.0894406538316193</v>
+        <v>3.0969612021822335</v>
       </c>
       <c r="H537" t="n">
-        <v>3.100702285013052</v>
+        <v>3.2058311489531177</v>
       </c>
       <c r="I537" t="n">
-        <v>2.8885728611024586</v>
+        <v>3.089467040539579</v>
       </c>
       <c r="J537" t="n">
-        <v>3.1446360948349286</v>
+        <v>2.7891256247050555</v>
       </c>
       <c r="K537" t="n">
-        <v>3.0894406538316193</v>
+        <v>3.0875991669909433</v>
       </c>
       <c r="L537" t="n">
-        <v>3.100702285013052</v>
+        <v>2.723674143111153</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.4737415597899138</v>
       </c>
       <c r="C547" t="n">
-        <v>0.5146873535014838</v>
+        <v>0.514438051615024</v>
       </c>
       <c r="D547" t="n">
-        <v>0.464656827768989</v>
+        <v>0.46442714334062296</v>
       </c>
       <c r="E547" t="n">
-        <v>0.5173878652757777</v>
+        <v>0.5156859308975497</v>
       </c>
       <c r="F547" t="n">
-        <v>0.4737415597899138</v>
+        <v>0.5197836795719912</v>
       </c>
       <c r="G547" t="n">
-        <v>0.5146873535014838</v>
+        <v>0.5338142496532866</v>
       </c>
       <c r="H547" t="n">
-        <v>0.464656827768989</v>
+        <v>0.5252415684685813</v>
       </c>
       <c r="I547" t="n">
-        <v>0.5173878652757777</v>
+        <v>0.4535285863323556</v>
       </c>
       <c r="J547" t="n">
-        <v>0.4737415597899138</v>
+        <v>0.5236244453938637</v>
       </c>
       <c r="K547" t="n">
-        <v>0.5146873535014838</v>
+        <v>0.5172543187851629</v>
       </c>
       <c r="L547" t="n">
-        <v>0.464656827768989</v>
+        <v>0.4955513399128139</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>3.501065442404481</v>
+        <v>3.536076096828526</v>
       </c>
       <c r="C549" t="n">
-        <v>3.461023133317211</v>
+        <v>3.514697160060277</v>
       </c>
       <c r="D549" t="n">
-        <v>3.0859551748302665</v>
+        <v>3.1120498397879173</v>
       </c>
       <c r="E549" t="n">
-        <v>3.5315490836988377</v>
+        <v>3.5796238287985593</v>
       </c>
       <c r="F549" t="n">
-        <v>3.501065442404481</v>
+        <v>3.396616476934933</v>
       </c>
       <c r="G549" t="n">
-        <v>3.461023133317211</v>
+        <v>3.181887847820942</v>
       </c>
       <c r="H549" t="n">
-        <v>3.0859551748302665</v>
+        <v>3.2368090758692603</v>
       </c>
       <c r="I549" t="n">
-        <v>3.5315490836988377</v>
+        <v>3.501993434503439</v>
       </c>
       <c r="J549" t="n">
-        <v>3.501065442404481</v>
+        <v>3.2386123127628257</v>
       </c>
       <c r="K549" t="n">
-        <v>3.461023133317211</v>
+        <v>3.553367421219138</v>
       </c>
       <c r="L549" t="n">
-        <v>3.0859551748302665</v>
+        <v>3.2604089167392716</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>4.089414505760017</v>
+        <v>4.008436000695463</v>
       </c>
       <c r="C550" t="n">
-        <v>3.8594418281504304</v>
+        <v>3.746825894907374</v>
       </c>
       <c r="D550" t="n">
-        <v>4.442482032313549</v>
+        <v>4.306615326754389</v>
       </c>
       <c r="E550" t="n">
-        <v>4.390658276206444</v>
+        <v>4.237454115330358</v>
       </c>
       <c r="F550" t="n">
-        <v>4.089414505760017</v>
+        <v>4.173015948069807</v>
       </c>
       <c r="G550" t="n">
-        <v>3.8594418281504304</v>
+        <v>3.6726114645187242</v>
       </c>
       <c r="H550" t="n">
-        <v>4.442482032313549</v>
+        <v>3.7550291255992154</v>
       </c>
       <c r="I550" t="n">
-        <v>4.390658276206444</v>
+        <v>4.195986677474075</v>
       </c>
       <c r="J550" t="n">
-        <v>4.089414505760017</v>
+        <v>3.819843104217709</v>
       </c>
       <c r="K550" t="n">
-        <v>3.8594418281504304</v>
+        <v>3.8628593559219433</v>
       </c>
       <c r="L550" t="n">
-        <v>4.442482032313549</v>
+        <v>3.821971151270131</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>4.2911180687062345</v>
+        <v>4.248631751194291</v>
       </c>
       <c r="C552" t="n">
-        <v>4.049802371603564</v>
+        <v>3.9713452979013537</v>
       </c>
       <c r="D552" t="n">
-        <v>4.661600063263963</v>
+        <v>4.564678746088028</v>
       </c>
       <c r="E552" t="n">
-        <v>4.607220186656641</v>
+        <v>4.491373217758221</v>
       </c>
       <c r="F552" t="n">
-        <v>4.2911180687062345</v>
+        <v>4.423073750493571</v>
       </c>
       <c r="G552" t="n">
-        <v>4.049802371603564</v>
+        <v>3.8926837487856116</v>
       </c>
       <c r="H552" t="n">
-        <v>4.661600063263963</v>
+        <v>3.9800400871841766</v>
       </c>
       <c r="I552" t="n">
-        <v>4.607220186656641</v>
+        <v>4.447420944830248</v>
       </c>
       <c r="J552" t="n">
-        <v>4.2911180687062345</v>
+        <v>4.048737885385765</v>
       </c>
       <c r="K552" t="n">
-        <v>4.049802371603564</v>
+        <v>4.094331781053868</v>
       </c>
       <c r="L552" t="n">
-        <v>4.661600063263963</v>
+        <v>4.050993450467355</v>
       </c>
     </row>
     <row r="553">
@@ -21120,34 +21120,34 @@
         <v>1.9066969374303324</v>
       </c>
       <c r="C554" t="n">
-        <v>1.9615505780699511</v>
+        <v>1.9733646613982285</v>
       </c>
       <c r="D554" t="n">
-        <v>1.9080467642202745</v>
+        <v>1.8992113064565792</v>
       </c>
       <c r="E554" t="n">
-        <v>2.086365900619032</v>
+        <v>2.048574566894024</v>
       </c>
       <c r="F554" t="n">
-        <v>1.9066969374303324</v>
+        <v>2.0535438217007216</v>
       </c>
       <c r="G554" t="n">
-        <v>1.9615505780699511</v>
+        <v>1.8060233382874642</v>
       </c>
       <c r="H554" t="n">
-        <v>1.9080467642202745</v>
+        <v>2.0597893930139293</v>
       </c>
       <c r="I554" t="n">
-        <v>2.086365900619032</v>
+        <v>2.0851562555885605</v>
       </c>
       <c r="J554" t="n">
-        <v>1.9066969374303324</v>
+        <v>2.047336010794963</v>
       </c>
       <c r="K554" t="n">
-        <v>1.9615505780699511</v>
+        <v>1.849423134692278</v>
       </c>
       <c r="L554" t="n">
-        <v>1.9080467642202745</v>
+        <v>2.125733685236209</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>1.4514363152534138</v>
+        <v>1.4667145922560814</v>
       </c>
       <c r="C557" t="n">
-        <v>1.4635969139914005</v>
+        <v>1.4774085288360976</v>
       </c>
       <c r="D557" t="n">
-        <v>1.4874260593647077</v>
+        <v>1.4832316486789214</v>
       </c>
       <c r="E557" t="n">
-        <v>1.5460744754395077</v>
+        <v>1.5350928942672426</v>
       </c>
       <c r="F557" t="n">
-        <v>1.4514363152534138</v>
+        <v>1.6536217249367802</v>
       </c>
       <c r="G557" t="n">
-        <v>1.4635969139914005</v>
+        <v>1.4386779940348</v>
       </c>
       <c r="H557" t="n">
-        <v>1.4874260593647077</v>
+        <v>1.4049170169701404</v>
       </c>
       <c r="I557" t="n">
-        <v>1.5460744754395077</v>
+        <v>1.5974647719319928</v>
       </c>
       <c r="J557" t="n">
-        <v>1.4514363152534138</v>
+        <v>1.6270657237487398</v>
       </c>
       <c r="K557" t="n">
-        <v>1.4635969139914005</v>
+        <v>1.5935991570799666</v>
       </c>
       <c r="L557" t="n">
-        <v>1.4874260593647077</v>
+        <v>1.6220562848849658</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>7.497287982129478</v>
+        <v>7.348826833968499</v>
       </c>
       <c r="C558" t="n">
-        <v>7.560102664258945</v>
+        <v>7.402407734107427</v>
       </c>
       <c r="D558" t="n">
-        <v>7.68319036941983</v>
+        <v>7.431583893930405</v>
       </c>
       <c r="E558" t="n">
-        <v>7.986134467199109</v>
+        <v>7.691429480273315</v>
       </c>
       <c r="F558" t="n">
-        <v>7.497287982129478</v>
+        <v>8.28530633676751</v>
       </c>
       <c r="G558" t="n">
-        <v>7.560102664258945</v>
+        <v>7.20835226145823</v>
       </c>
       <c r="H558" t="n">
-        <v>7.68319036941983</v>
+        <v>7.0391962610313605</v>
       </c>
       <c r="I558" t="n">
-        <v>7.986134467199109</v>
+        <v>8.003937537865266</v>
       </c>
       <c r="J558" t="n">
-        <v>7.497287982129478</v>
+        <v>8.152250147673909</v>
       </c>
       <c r="K558" t="n">
-        <v>7.560102664258945</v>
+        <v>7.984569261102803</v>
       </c>
       <c r="L558" t="n">
-        <v>7.68319036941983</v>
+        <v>8.127150855051067</v>
       </c>
     </row>
     <row r="559">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>1.4956974171057158</v>
+        <v>1.5112775985339004</v>
       </c>
       <c r="C568" t="n">
-        <v>1.5207202438860348</v>
+        <v>1.5382195956298061</v>
       </c>
       <c r="D568" t="n">
-        <v>1.6635995983628415</v>
+        <v>1.6887487306510136</v>
       </c>
       <c r="E568" t="n">
-        <v>1.6425453086415653</v>
+        <v>1.66331576752534</v>
       </c>
       <c r="F568" t="n">
-        <v>1.4956974171057158</v>
+        <v>1.478107159437871</v>
       </c>
       <c r="G568" t="n">
-        <v>1.5207202438860348</v>
+        <v>1.6693495615401484</v>
       </c>
       <c r="H568" t="n">
-        <v>1.6635995983628415</v>
+        <v>1.609035065516594</v>
       </c>
       <c r="I568" t="n">
-        <v>1.6425453086415653</v>
+        <v>1.507976063881168</v>
       </c>
       <c r="J568" t="n">
-        <v>1.4956974171057158</v>
+        <v>1.6703594510111528</v>
       </c>
       <c r="K568" t="n">
-        <v>1.5207202438860348</v>
+        <v>1.6744112643378382</v>
       </c>
       <c r="L568" t="n">
-        <v>1.6635995983628415</v>
+        <v>1.7054380312675024</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>0.839642034483952</v>
+        <v>0.8483883056764931</v>
       </c>
       <c r="C576" t="n">
-        <v>0.9122128461956982</v>
+        <v>0.921268607252301</v>
       </c>
       <c r="D576" t="n">
-        <v>0.8235405911565532</v>
+        <v>0.8317078143274051</v>
       </c>
       <c r="E576" t="n">
-        <v>0.9169991334729252</v>
+        <v>0.9235033408709014</v>
       </c>
       <c r="F576" t="n">
-        <v>0.839642034483952</v>
+        <v>0.930841692305678</v>
       </c>
       <c r="G576" t="n">
-        <v>0.9122128461956982</v>
+        <v>0.9559679902480078</v>
       </c>
       <c r="H576" t="n">
-        <v>0.8235405911565532</v>
+        <v>0.9406158170744695</v>
       </c>
       <c r="I576" t="n">
-        <v>0.9169991334729252</v>
+        <v>0.8121904042047573</v>
       </c>
       <c r="J576" t="n">
-        <v>0.839642034483952</v>
+        <v>0.9377198323818062</v>
       </c>
       <c r="K576" t="n">
-        <v>0.9122128461956982</v>
+        <v>0.9263120493642111</v>
       </c>
       <c r="L576" t="n">
-        <v>0.8235405911565532</v>
+        <v>0.8874458087037757</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>2.790794375187652</v>
+        <v>2.7628864314357755</v>
       </c>
       <c r="C577" t="n">
-        <v>3.0320045633512542</v>
+        <v>3.0002305756153502</v>
       </c>
       <c r="D577" t="n">
-        <v>2.7372765477981207</v>
+        <v>2.7085642502957037</v>
       </c>
       <c r="E577" t="n">
-        <v>3.047913180431778</v>
+        <v>3.007508275168011</v>
       </c>
       <c r="F577" t="n">
-        <v>2.790794375187652</v>
+        <v>3.0314065673445922</v>
       </c>
       <c r="G577" t="n">
-        <v>3.0320045633512542</v>
+        <v>3.1132336118625155</v>
       </c>
       <c r="H577" t="n">
-        <v>2.7372765477981207</v>
+        <v>3.0632372709530316</v>
       </c>
       <c r="I577" t="n">
-        <v>3.047913180431778</v>
+        <v>2.6450032756290005</v>
       </c>
       <c r="J577" t="n">
-        <v>2.790794375187652</v>
+        <v>3.0538061216084813</v>
       </c>
       <c r="K577" t="n">
-        <v>3.0320045633512542</v>
+        <v>3.0166551982621903</v>
       </c>
       <c r="L577" t="n">
-        <v>2.7372765477981207</v>
+        <v>2.8900822501874184</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>6.140229931959397</v>
+        <v>6.079435576197422</v>
       </c>
       <c r="C578" t="n">
-        <v>6.61663267523976</v>
+        <v>6.573458848146979</v>
       </c>
       <c r="D578" t="n">
-        <v>6.680120642568569</v>
+        <v>6.5575521060397035</v>
       </c>
       <c r="E578" t="n">
-        <v>6.653328325039394</v>
+        <v>6.625692932242715</v>
       </c>
       <c r="F578" t="n">
-        <v>6.140229931959397</v>
+        <v>6.103397318157049</v>
       </c>
       <c r="G578" t="n">
-        <v>6.61663267523976</v>
+        <v>6.695264750882499</v>
       </c>
       <c r="H578" t="n">
-        <v>6.680120642568569</v>
+        <v>6.674651250790412</v>
       </c>
       <c r="I578" t="n">
-        <v>6.653328325039394</v>
+        <v>6.553587448717924</v>
       </c>
       <c r="J578" t="n">
-        <v>6.140229931959397</v>
+        <v>6.804540888953328</v>
       </c>
       <c r="K578" t="n">
-        <v>6.61663267523976</v>
+        <v>6.316802815216102</v>
       </c>
       <c r="L578" t="n">
-        <v>6.680120642568569</v>
+        <v>6.593451119836869</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>2.9883327050175086</v>
+        <v>3.0185178838560693</v>
       </c>
       <c r="C584" t="n">
-        <v>3.0383271295477807</v>
+        <v>3.0723299036595018</v>
       </c>
       <c r="D584" t="n">
-        <v>3.3237933227575356</v>
+        <v>3.372986041581278</v>
       </c>
       <c r="E584" t="n">
-        <v>3.2817278475916076</v>
+        <v>3.3221880583988552</v>
       </c>
       <c r="F584" t="n">
-        <v>2.9883327050175086</v>
+        <v>2.95226561906775</v>
       </c>
       <c r="G584" t="n">
-        <v>3.0383271295477807</v>
+        <v>3.3342395274068464</v>
       </c>
       <c r="H584" t="n">
-        <v>3.3237933227575356</v>
+        <v>3.2137716629460202</v>
       </c>
       <c r="I584" t="n">
-        <v>3.2817278475916076</v>
+        <v>3.011923634458664</v>
       </c>
       <c r="J584" t="n">
-        <v>2.9883327050175086</v>
+        <v>3.3362566084724974</v>
       </c>
       <c r="K584" t="n">
-        <v>3.0383271295477807</v>
+        <v>3.3443494108805463</v>
       </c>
       <c r="L584" t="n">
-        <v>3.3237933227575356</v>
+        <v>3.4063200580642805</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>4.343049987465015</v>
+        <v>4.300049492539618</v>
       </c>
       <c r="C585" t="n">
-        <v>5.010558987473965</v>
+        <v>4.931249421477575</v>
       </c>
       <c r="D585" t="n">
-        <v>4.87072069678808</v>
+        <v>4.874602663011488</v>
       </c>
       <c r="E585" t="n">
-        <v>4.457468376025989</v>
+        <v>4.491695154749753</v>
       </c>
       <c r="F585" t="n">
-        <v>4.343049987465015</v>
+        <v>4.856983616018412</v>
       </c>
       <c r="G585" t="n">
-        <v>5.010558987473965</v>
+        <v>4.539748199488179</v>
       </c>
       <c r="H585" t="n">
-        <v>4.87072069678808</v>
+        <v>4.5219252937772545</v>
       </c>
       <c r="I585" t="n">
-        <v>4.457468376025989</v>
+        <v>4.928235209270779</v>
       </c>
       <c r="J585" t="n">
-        <v>4.343049987465015</v>
+        <v>4.3161631701419445</v>
       </c>
       <c r="K585" t="n">
-        <v>5.010558987473965</v>
+        <v>4.413022877944298</v>
       </c>
       <c r="L585" t="n">
-        <v>4.87072069678808</v>
+        <v>4.48919421001309</v>
       </c>
     </row>
     <row r="586">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>1.270467898845805</v>
+        <v>1.283841245149445</v>
       </c>
       <c r="C596" t="n">
-        <v>1.1112483895453116</v>
+        <v>1.119509564992181</v>
       </c>
       <c r="D596" t="n">
-        <v>1.141939170185896</v>
+        <v>1.169404142323381</v>
       </c>
       <c r="E596" t="n">
-        <v>1.208188455415268</v>
+        <v>1.2264565790596509</v>
       </c>
       <c r="F596" t="n">
-        <v>1.270467898845805</v>
+        <v>1.148921967284181</v>
       </c>
       <c r="G596" t="n">
-        <v>1.1112483895453116</v>
+        <v>1.2232403462447587</v>
       </c>
       <c r="H596" t="n">
-        <v>1.141939170185896</v>
+        <v>1.2698611217351472</v>
       </c>
       <c r="I596" t="n">
-        <v>1.208188455415268</v>
+        <v>1.3176901664541092</v>
       </c>
       <c r="J596" t="n">
-        <v>1.270467898845805</v>
+        <v>1.2768129173430949</v>
       </c>
       <c r="K596" t="n">
-        <v>1.1112483895453116</v>
+        <v>1.2925372131947035</v>
       </c>
       <c r="L596" t="n">
-        <v>1.141939170185896</v>
+        <v>1.1464120341706656</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.7149523541735875</v>
+        <v>0.7223229970001193</v>
       </c>
       <c r="C598" t="n">
-        <v>0.7189607709080049</v>
+        <v>0.7239044374899131</v>
       </c>
       <c r="D598" t="n">
-        <v>0.7033784403152107</v>
+        <v>0.7053724839345756</v>
       </c>
       <c r="E598" t="n">
-        <v>0.7264875180438354</v>
+        <v>0.736399447558794</v>
       </c>
       <c r="F598" t="n">
-        <v>0.7149523541735875</v>
+        <v>0.8089133995697907</v>
       </c>
       <c r="G598" t="n">
-        <v>0.7189607709080049</v>
+        <v>0.7727568844981243</v>
       </c>
       <c r="H598" t="n">
-        <v>0.7033784403152107</v>
+        <v>0.8084189535511802</v>
       </c>
       <c r="I598" t="n">
-        <v>0.7264875180438354</v>
+        <v>0.7368096980929202</v>
       </c>
       <c r="J598" t="n">
-        <v>0.7149523541735875</v>
+        <v>0.7967309687026535</v>
       </c>
       <c r="K598" t="n">
-        <v>0.7189607709080049</v>
+        <v>0.741768596424791</v>
       </c>
       <c r="L598" t="n">
-        <v>0.7033784403152107</v>
+        <v>0.7080157429983127</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>1.5406841762546784</v>
+        <v>1.5718091091083084</v>
       </c>
       <c r="C606" t="n">
-        <v>1.5494352975200238</v>
+        <v>1.5960056765352637</v>
       </c>
       <c r="D606" t="n">
-        <v>1.4138821646936346</v>
+        <v>1.4431588083047457</v>
       </c>
       <c r="E606" t="n">
-        <v>1.3423034936797105</v>
+        <v>1.3875338436411109</v>
       </c>
       <c r="F606" t="n">
-        <v>1.5406841762546784</v>
+        <v>1.5670575700244178</v>
       </c>
       <c r="G606" t="n">
-        <v>1.5494352975200238</v>
+        <v>1.4439627967839581</v>
       </c>
       <c r="H606" t="n">
-        <v>1.4138821646936346</v>
+        <v>1.5613935061250932</v>
       </c>
       <c r="I606" t="n">
-        <v>1.3423034936797105</v>
+        <v>1.4536809977289094</v>
       </c>
       <c r="J606" t="n">
-        <v>1.5406841762546784</v>
+        <v>1.5144102948998517</v>
       </c>
       <c r="K606" t="n">
-        <v>1.5494352975200238</v>
+        <v>1.585268024867272</v>
       </c>
       <c r="L606" t="n">
-        <v>1.4138821646936346</v>
+        <v>1.459410596887024</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>2.7814701576651184</v>
+        <v>2.8098525062127218</v>
       </c>
       <c r="C607" t="n">
-        <v>2.7972689716081804</v>
+        <v>2.8531076223921574</v>
       </c>
       <c r="D607" t="n">
-        <v>2.552548476943807</v>
+        <v>2.579870145095738</v>
       </c>
       <c r="E607" t="n">
-        <v>2.423324109991103</v>
+        <v>2.4804318955892337</v>
       </c>
       <c r="F607" t="n">
-        <v>2.7814701576651184</v>
+        <v>2.8013583933297572</v>
       </c>
       <c r="G607" t="n">
-        <v>2.7972689716081804</v>
+        <v>2.5813073991682525</v>
       </c>
       <c r="H607" t="n">
-        <v>2.552548476943807</v>
+        <v>2.79123300084371</v>
       </c>
       <c r="I607" t="n">
-        <v>2.423324109991103</v>
+        <v>2.5986801902551684</v>
       </c>
       <c r="J607" t="n">
-        <v>2.7814701576651184</v>
+        <v>2.7072432255929098</v>
       </c>
       <c r="K607" t="n">
-        <v>2.7972689716081804</v>
+        <v>2.8339124050624513</v>
       </c>
       <c r="L607" t="n">
-        <v>2.552548476943807</v>
+        <v>2.608922737178157</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>1.818959282891149</v>
+        <v>1.8557059350707685</v>
       </c>
       <c r="C608" t="n">
-        <v>2.063062842296316</v>
+        <v>2.118862278083837</v>
       </c>
       <c r="D608" t="n">
-        <v>2.0370304016935368</v>
+        <v>2.1085515134917507</v>
       </c>
       <c r="E608" t="n">
-        <v>1.909876791159474</v>
+        <v>1.9441720052796605</v>
       </c>
       <c r="F608" t="n">
-        <v>1.818959282891149</v>
+        <v>2.0200808187355457</v>
       </c>
       <c r="G608" t="n">
-        <v>2.063062842296316</v>
+        <v>2.0970711948393315</v>
       </c>
       <c r="H608" t="n">
-        <v>2.0370304016935368</v>
+        <v>1.893205180572405</v>
       </c>
       <c r="I608" t="n">
-        <v>1.909876791159474</v>
+        <v>2.1411109852969603</v>
       </c>
       <c r="J608" t="n">
-        <v>1.818959282891149</v>
+        <v>2.102158088566975</v>
       </c>
       <c r="K608" t="n">
-        <v>2.063062842296316</v>
+        <v>2.176056928192413</v>
       </c>
       <c r="L608" t="n">
-        <v>2.0370304016935368</v>
+        <v>2.0958033179650855</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>3.420752443810011</v>
+        <v>3.3868836077326847</v>
       </c>
       <c r="C609" t="n">
-        <v>3.304710549123679</v>
+        <v>3.250184089029291</v>
       </c>
       <c r="D609" t="n">
-        <v>3.205336062704009</v>
+        <v>3.1523842166865736</v>
       </c>
       <c r="E609" t="n">
-        <v>2.999940196919717</v>
+        <v>2.953095558138781</v>
       </c>
       <c r="F609" t="n">
-        <v>3.420752443810011</v>
+        <v>3.0040676986898966</v>
       </c>
       <c r="G609" t="n">
-        <v>3.304710549123679</v>
+        <v>3.281816052044797</v>
       </c>
       <c r="H609" t="n">
-        <v>3.205336062704009</v>
+        <v>3.2718651239259353</v>
       </c>
       <c r="I609" t="n">
-        <v>2.999940196919717</v>
+        <v>3.14411747350466</v>
       </c>
       <c r="J609" t="n">
-        <v>3.420752443810011</v>
+        <v>2.8774963120315715</v>
       </c>
       <c r="K609" t="n">
-        <v>3.304710549123679</v>
+        <v>3.3324926404670956</v>
       </c>
       <c r="L609" t="n">
-        <v>3.205336062704009</v>
+        <v>3.2639477221533895</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>1.884494236083299</v>
+        <v>1.903723769104557</v>
       </c>
       <c r="C611" t="n">
-        <v>1.9387091286465927</v>
+        <v>1.9702875361397274</v>
       </c>
       <c r="D611" t="n">
-        <v>1.8858283446956436</v>
+        <v>1.8962498106942158</v>
       </c>
       <c r="E611" t="n">
-        <v>2.062071028118472</v>
+        <v>2.045380164629191</v>
       </c>
       <c r="F611" t="n">
-        <v>1.884494236083299</v>
+        <v>2.0503416707314646</v>
       </c>
       <c r="G611" t="n">
-        <v>1.9387091286465927</v>
+        <v>1.80320715325061</v>
       </c>
       <c r="H611" t="n">
-        <v>1.8858283446956436</v>
+        <v>2.0565775031425737</v>
       </c>
       <c r="I611" t="n">
-        <v>2.062071028118472</v>
+        <v>2.0819048104261406</v>
       </c>
       <c r="J611" t="n">
-        <v>1.884494236083299</v>
+        <v>2.044143539846896</v>
       </c>
       <c r="K611" t="n">
-        <v>1.9387091286465927</v>
+        <v>1.8465392750829823</v>
       </c>
       <c r="L611" t="n">
-        <v>1.8858283446956436</v>
+        <v>2.122418966500417</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>1.6459141763119807</v>
+        <v>1.663059115648564</v>
       </c>
       <c r="C616" t="n">
-        <v>1.439642417898252</v>
+        <v>1.4501875478375688</v>
       </c>
       <c r="D616" t="n">
-        <v>1.4794028801533872</v>
+        <v>1.514819862748456</v>
       </c>
       <c r="E616" t="n">
-        <v>1.5652300292128953</v>
+        <v>1.5887243079769406</v>
       </c>
       <c r="F616" t="n">
-        <v>1.6459141763119807</v>
+        <v>1.4882877132043073</v>
       </c>
       <c r="G616" t="n">
-        <v>1.439642417898252</v>
+        <v>1.5845580722207186</v>
       </c>
       <c r="H616" t="n">
-        <v>1.4794028801533872</v>
+        <v>1.644949577752129</v>
       </c>
       <c r="I616" t="n">
-        <v>1.5652300292128953</v>
+        <v>1.7069062481061597</v>
       </c>
       <c r="J616" t="n">
-        <v>1.6459141763119807</v>
+        <v>1.6539547776548456</v>
       </c>
       <c r="K616" t="n">
-        <v>1.439642417898252</v>
+        <v>1.6743236773548458</v>
       </c>
       <c r="L616" t="n">
-        <v>1.4794028801533872</v>
+        <v>1.4850364022187235</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>4.68932538434535</v>
+        <v>4.783111892032257</v>
       </c>
       <c r="C617" t="n">
-        <v>4.715616325600402</v>
+        <v>4.793583947947255</v>
       </c>
       <c r="D617" t="n">
-        <v>4.61341284592865</v>
+        <v>4.670868199173844</v>
       </c>
       <c r="E617" t="n">
-        <v>4.764983764143067</v>
+        <v>4.876323984606391</v>
       </c>
       <c r="F617" t="n">
-        <v>4.68932538434535</v>
+        <v>5.356500232133503</v>
       </c>
       <c r="G617" t="n">
-        <v>4.715616325600402</v>
+        <v>5.117077345236684</v>
       </c>
       <c r="H617" t="n">
-        <v>4.61341284592865</v>
+        <v>5.353226086576175</v>
       </c>
       <c r="I617" t="n">
-        <v>4.764983764143067</v>
+        <v>4.879040600603169</v>
       </c>
       <c r="J617" t="n">
-        <v>4.68932538434535</v>
+        <v>5.275830046916549</v>
       </c>
       <c r="K617" t="n">
-        <v>4.715616325600402</v>
+        <v>4.911877663359108</v>
       </c>
       <c r="L617" t="n">
-        <v>4.61341284592865</v>
+        <v>4.688371454523584</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.8310691132651424</v>
+        <v>2.859665770974891</v>
       </c>
       <c r="C618" t="n">
-        <v>3.0507236061621903</v>
+        <v>3.0920461331240383</v>
       </c>
       <c r="D618" t="n">
-        <v>3.0799959339675467</v>
+        <v>3.084563865179626</v>
       </c>
       <c r="E618" t="n">
-        <v>3.067642829365577</v>
+        <v>3.116616180868541</v>
       </c>
       <c r="F618" t="n">
-        <v>2.8310691132651424</v>
+        <v>2.8709369773946385</v>
       </c>
       <c r="G618" t="n">
-        <v>3.0507236061621903</v>
+        <v>3.149341611691036</v>
       </c>
       <c r="H618" t="n">
-        <v>3.0799959339675467</v>
+        <v>3.1396453627721193</v>
       </c>
       <c r="I618" t="n">
-        <v>3.067642829365577</v>
+        <v>3.0826989560618903</v>
       </c>
       <c r="J618" t="n">
-        <v>2.8310691132651424</v>
+        <v>3.2007432965528624</v>
       </c>
       <c r="K618" t="n">
-        <v>3.0507236061621903</v>
+        <v>2.971319387509652</v>
       </c>
       <c r="L618" t="n">
-        <v>3.0799959339675467</v>
+        <v>3.1014501664950718</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>0.6040638011762215</v>
       </c>
       <c r="C622" t="n">
-        <v>0.6231969276609789</v>
+        <v>0.6167495141326084</v>
       </c>
       <c r="D622" t="n">
-        <v>0.5881739014708636</v>
+        <v>0.5818866336305086</v>
       </c>
       <c r="E622" t="n">
-        <v>0.5993632297241828</v>
+        <v>0.6073707203408928</v>
       </c>
       <c r="F622" t="n">
-        <v>0.6040638011762215</v>
+        <v>0.545339958222401</v>
       </c>
       <c r="G622" t="n">
-        <v>0.6231969276609789</v>
+        <v>0.5600210114657581</v>
       </c>
       <c r="H622" t="n">
-        <v>0.5881739014708636</v>
+        <v>0.534538256861616</v>
       </c>
       <c r="I622" t="n">
-        <v>0.5993632297241828</v>
+        <v>0.5465339153499147</v>
       </c>
       <c r="J622" t="n">
-        <v>0.6040638011762215</v>
+        <v>0.6107140453218288</v>
       </c>
       <c r="K622" t="n">
-        <v>0.6231969276609789</v>
+        <v>0.5834165724453741</v>
       </c>
       <c r="L622" t="n">
-        <v>0.5881739014708636</v>
+        <v>0.6015165445254769</v>
       </c>
     </row>
     <row r="623">
